--- a/groundFloor.xlsx
+++ b/groundFloor.xlsx
@@ -1,24 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27106"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/PTST/Dev/find_your_meeting/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="80" yWindow="440" windowWidth="25520" windowHeight="15560"/>
+    <workbookView xWindow="75" yWindow="435" windowWidth="25515" windowHeight="15555"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -27,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7979" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7999" uniqueCount="23">
   <si>
     <t>#</t>
   </si>
@@ -36,6 +28,66 @@
   </si>
   <si>
     <t>kantinen</t>
+  </si>
+  <si>
+    <t>h1.25</t>
+  </si>
+  <si>
+    <t>h1.25a</t>
+  </si>
+  <si>
+    <t>h1.25b</t>
+  </si>
+  <si>
+    <t>h1.25c</t>
+  </si>
+  <si>
+    <t>h1.15f</t>
+  </si>
+  <si>
+    <t>h1.17</t>
+  </si>
+  <si>
+    <t>h1.17b</t>
+  </si>
+  <si>
+    <t>h1.17c</t>
+  </si>
+  <si>
+    <t>h1.17d</t>
+  </si>
+  <si>
+    <t>h1.08m</t>
+  </si>
+  <si>
+    <t>h1.08l</t>
+  </si>
+  <si>
+    <t>h1.08k</t>
+  </si>
+  <si>
+    <t>h1.08j</t>
+  </si>
+  <si>
+    <t>h1.o8i</t>
+  </si>
+  <si>
+    <t>h1.08d</t>
+  </si>
+  <si>
+    <t>h1.08b</t>
+  </si>
+  <si>
+    <t>h1.08n</t>
+  </si>
+  <si>
+    <t>h1.08g</t>
+  </si>
+  <si>
+    <t>h1.08h</t>
+  </si>
+  <si>
+    <t>h1.08f</t>
   </si>
 </sst>
 </file>
@@ -52,7 +104,6 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -371,7 +422,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -382,16 +433,16 @@
   <sheetPr codeName="Ark1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:ON234"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CP155" zoomScale="75" workbookViewId="0">
-      <selection activeCell="DX179" sqref="DX179"/>
+    <sheetView tabSelected="1" topLeftCell="AB1" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
+      <selection activeCell="CQ128" sqref="CQ128"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="2.33203125" defaultRowHeight="14" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="2.375" defaultRowHeight="14.1" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="2.33203125" style="1"/>
+    <col min="1" max="16384" width="2.375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="234:360" x14ac:dyDescent="0.2">
+    <row r="1" spans="234:360" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="IJ1" s="2" t="s">
         <v>0</v>
       </c>
@@ -516,7 +567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="234:360" x14ac:dyDescent="0.2">
+    <row r="2" spans="234:360" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="IJ2" s="2" t="s">
         <v>0</v>
       </c>
@@ -548,7 +599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="234:360" x14ac:dyDescent="0.2">
+    <row r="3" spans="234:360" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="IJ3" s="2" t="s">
         <v>0</v>
       </c>
@@ -577,7 +628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="234:360" x14ac:dyDescent="0.2">
+    <row r="4" spans="234:360" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="IJ4" s="2" t="s">
         <v>0</v>
       </c>
@@ -619,7 +670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="234:360" x14ac:dyDescent="0.2">
+    <row r="5" spans="234:360" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="IE5" s="2" t="s">
         <v>0</v>
       </c>
@@ -640,7 +691,9 @@
       </c>
       <c r="IK5" s="3"/>
       <c r="IL5" s="3"/>
-      <c r="IM5" s="3"/>
+      <c r="IM5" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="IN5" s="3"/>
       <c r="IT5" s="2" t="s">
         <v>0</v>
@@ -733,7 +786,9 @@
         <v>0</v>
       </c>
       <c r="JX5" s="3"/>
-      <c r="JY5" s="3"/>
+      <c r="JY5" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="JZ5" s="3"/>
       <c r="KG5" s="2" t="s">
         <v>0</v>
@@ -879,6 +934,9 @@
       <c r="MB5" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="MF5" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="MM5" s="2" t="s">
         <v>0</v>
       </c>
@@ -895,7 +953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="234:360" x14ac:dyDescent="0.2">
+    <row r="6" spans="234:360" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="IE6" s="2" t="s">
         <v>0</v>
       </c>
@@ -1210,7 +1268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="234:360" x14ac:dyDescent="0.2">
+    <row r="7" spans="234:360" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="IE7" s="2" t="s">
         <v>0</v>
       </c>
@@ -1250,7 +1308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="234:360" x14ac:dyDescent="0.2">
+    <row r="8" spans="234:360" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="IE8" s="2" t="s">
         <v>0</v>
       </c>
@@ -1299,7 +1357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="234:360" x14ac:dyDescent="0.2">
+    <row r="9" spans="234:360" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="IE9" s="2" t="s">
         <v>0</v>
       </c>
@@ -1324,7 +1382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="234:360" x14ac:dyDescent="0.2">
+    <row r="10" spans="234:360" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="IE10" s="2" t="s">
         <v>0</v>
       </c>
@@ -1349,7 +1407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="234:360" x14ac:dyDescent="0.2">
+    <row r="11" spans="234:360" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="IE11" s="2" t="s">
         <v>0</v>
       </c>
@@ -1367,7 +1425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="234:360" x14ac:dyDescent="0.2">
+    <row r="12" spans="234:360" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="IE12" s="2" t="s">
         <v>0</v>
       </c>
@@ -1381,7 +1439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="234:360" x14ac:dyDescent="0.2">
+    <row r="13" spans="234:360" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="IE13" s="2" t="s">
         <v>0</v>
       </c>
@@ -1395,7 +1453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="234:360" x14ac:dyDescent="0.2">
+    <row r="14" spans="234:360" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="IE14" s="2" t="s">
         <v>0</v>
       </c>
@@ -1409,7 +1467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="234:360" x14ac:dyDescent="0.2">
+    <row r="15" spans="234:360" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="HZ15" s="2" t="s">
         <v>0</v>
       </c>
@@ -1438,7 +1496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="234:360" x14ac:dyDescent="0.2">
+    <row r="16" spans="234:360" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="HZ16" s="2" t="s">
         <v>0</v>
       </c>
@@ -1455,7 +1513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="234:357" x14ac:dyDescent="0.2">
+    <row r="17" spans="234:357" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="HZ17" s="2" t="s">
         <v>0</v>
       </c>
@@ -1484,7 +1542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="234:357" x14ac:dyDescent="0.2">
+    <row r="18" spans="234:357" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="HZ18" s="2" t="s">
         <v>0</v>
       </c>
@@ -1501,7 +1559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="234:357" x14ac:dyDescent="0.2">
+    <row r="19" spans="234:357" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="HZ19" s="2" t="s">
         <v>0</v>
       </c>
@@ -1518,7 +1576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="234:357" x14ac:dyDescent="0.2">
+    <row r="20" spans="234:357" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="HZ20" s="2" t="s">
         <v>0</v>
       </c>
@@ -1547,7 +1605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="234:357" x14ac:dyDescent="0.2">
+    <row r="21" spans="234:357" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="HZ21" s="2" t="s">
         <v>0</v>
       </c>
@@ -1564,7 +1622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="234:357" x14ac:dyDescent="0.2">
+    <row r="22" spans="234:357" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="HZ22" s="2" t="s">
         <v>0</v>
       </c>
@@ -1593,7 +1651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="234:357" x14ac:dyDescent="0.2">
+    <row r="23" spans="234:357" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="HZ23" s="2" t="s">
         <v>0</v>
       </c>
@@ -1610,7 +1668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="234:357" x14ac:dyDescent="0.2">
+    <row r="24" spans="234:357" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="HZ24" s="2" t="s">
         <v>0</v>
       </c>
@@ -1633,7 +1691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="234:357" x14ac:dyDescent="0.2">
+    <row r="25" spans="234:357" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="HZ25" s="2" t="s">
         <v>0</v>
       </c>
@@ -1668,7 +1726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="234:357" x14ac:dyDescent="0.2">
+    <row r="26" spans="234:357" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="HZ26" s="2" t="s">
         <v>0</v>
       </c>
@@ -1685,7 +1743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="234:357" x14ac:dyDescent="0.2">
+    <row r="27" spans="234:357" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="HZ27" s="2" t="s">
         <v>0</v>
       </c>
@@ -1714,7 +1772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="234:357" x14ac:dyDescent="0.2">
+    <row r="28" spans="234:357" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="HZ28" s="2" t="s">
         <v>0</v>
       </c>
@@ -1731,7 +1789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="234:357" x14ac:dyDescent="0.2">
+    <row r="29" spans="234:357" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="HZ29" s="2" t="s">
         <v>0</v>
       </c>
@@ -1760,7 +1818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="234:357" x14ac:dyDescent="0.2">
+    <row r="30" spans="234:357" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="HZ30" s="2" t="s">
         <v>0</v>
       </c>
@@ -1777,7 +1835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="234:357" x14ac:dyDescent="0.2">
+    <row r="31" spans="234:357" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="HZ31" s="2" t="s">
         <v>0</v>
       </c>
@@ -1794,7 +1852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="234:357" x14ac:dyDescent="0.2">
+    <row r="32" spans="234:357" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="HZ32" s="2" t="s">
         <v>0</v>
       </c>
@@ -1823,7 +1881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="234:357" x14ac:dyDescent="0.2">
+    <row r="33" spans="234:357" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="HZ33" s="2" t="s">
         <v>0</v>
       </c>
@@ -1840,7 +1898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="234:357" x14ac:dyDescent="0.2">
+    <row r="34" spans="234:357" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="HZ34" s="2" t="s">
         <v>0</v>
       </c>
@@ -1869,7 +1927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="234:357" x14ac:dyDescent="0.2">
+    <row r="35" spans="234:357" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="HZ35" s="2" t="s">
         <v>0</v>
       </c>
@@ -1886,7 +1944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="234:357" x14ac:dyDescent="0.2">
+    <row r="36" spans="234:357" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="HZ36" s="2" t="s">
         <v>0</v>
       </c>
@@ -1903,7 +1961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="234:357" x14ac:dyDescent="0.2">
+    <row r="37" spans="234:357" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="HZ37" s="2" t="s">
         <v>0</v>
       </c>
@@ -1932,7 +1990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="234:357" x14ac:dyDescent="0.2">
+    <row r="38" spans="234:357" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="HZ38" s="2" t="s">
         <v>0</v>
       </c>
@@ -1949,7 +2007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="234:357" x14ac:dyDescent="0.2">
+    <row r="39" spans="234:357" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="HZ39" s="2" t="s">
         <v>0</v>
       </c>
@@ -1978,7 +2036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="234:357" x14ac:dyDescent="0.2">
+    <row r="40" spans="234:357" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="HZ40" s="2" t="s">
         <v>0</v>
       </c>
@@ -1995,7 +2053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="234:357" x14ac:dyDescent="0.2">
+    <row r="41" spans="234:357" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="HZ41" s="2" t="s">
         <v>0</v>
       </c>
@@ -2024,7 +2082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="234:357" x14ac:dyDescent="0.2">
+    <row r="42" spans="234:357" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="HZ42" s="2" t="s">
         <v>0</v>
       </c>
@@ -2041,7 +2099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="234:357" x14ac:dyDescent="0.2">
+    <row r="43" spans="234:357" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="HZ43" s="2" t="s">
         <v>0</v>
       </c>
@@ -2094,7 +2152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="234:357" x14ac:dyDescent="0.2">
+    <row r="44" spans="234:357" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="HZ44" s="2" t="s">
         <v>0</v>
       </c>
@@ -2162,7 +2220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="234:357" x14ac:dyDescent="0.2">
+    <row r="45" spans="234:357" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="HZ45" s="2" t="s">
         <v>0</v>
       </c>
@@ -2179,7 +2237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="234:357" x14ac:dyDescent="0.2">
+    <row r="46" spans="234:357" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="HZ46" s="2" t="s">
         <v>0</v>
       </c>
@@ -2208,7 +2266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="234:357" x14ac:dyDescent="0.2">
+    <row r="47" spans="234:357" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="HZ47" s="2" t="s">
         <v>0</v>
       </c>
@@ -2225,7 +2283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="234:357" x14ac:dyDescent="0.2">
+    <row r="48" spans="234:357" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="HZ48" s="2" t="s">
         <v>0</v>
       </c>
@@ -2246,7 +2304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="182:357" x14ac:dyDescent="0.2">
+    <row r="49" spans="182:357" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="HZ49" s="2" t="s">
         <v>0</v>
       </c>
@@ -2279,7 +2337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="182:357" x14ac:dyDescent="0.2">
+    <row r="50" spans="182:357" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="HZ50" s="2" t="s">
         <v>0</v>
       </c>
@@ -2300,7 +2358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="182:357" x14ac:dyDescent="0.2">
+    <row r="51" spans="182:357" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="HZ51" s="2" t="s">
         <v>0</v>
       </c>
@@ -2333,7 +2391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="182:357" x14ac:dyDescent="0.2">
+    <row r="52" spans="182:357" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="HZ52" s="2" t="s">
         <v>0</v>
       </c>
@@ -2354,7 +2412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="182:357" x14ac:dyDescent="0.2">
+    <row r="53" spans="182:357" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="HZ53" s="2" t="s">
         <v>0</v>
       </c>
@@ -2387,7 +2445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="182:357" x14ac:dyDescent="0.2">
+    <row r="54" spans="182:357" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="HZ54" s="2" t="s">
         <v>0</v>
       </c>
@@ -2408,7 +2466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="182:357" x14ac:dyDescent="0.2">
+    <row r="55" spans="182:357" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="HZ55" s="2" t="s">
         <v>0</v>
       </c>
@@ -2429,7 +2487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="182:357" x14ac:dyDescent="0.2">
+    <row r="56" spans="182:357" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="HZ56" s="2" t="s">
         <v>0</v>
       </c>
@@ -2462,7 +2520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="182:357" x14ac:dyDescent="0.2">
+    <row r="57" spans="182:357" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="HZ57" s="2" t="s">
         <v>0</v>
       </c>
@@ -2476,6 +2534,9 @@
       <c r="IU57" s="3"/>
       <c r="IV57" s="3"/>
       <c r="IW57" s="3"/>
+      <c r="KL57" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="MR57" s="2" t="s">
         <v>0</v>
       </c>
@@ -2483,7 +2544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="182:357" x14ac:dyDescent="0.2">
+    <row r="58" spans="182:357" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="HZ58" s="2" t="s">
         <v>0</v>
       </c>
@@ -2516,7 +2577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="182:357" x14ac:dyDescent="0.2">
+    <row r="59" spans="182:357" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="HZ59" s="2" t="s">
         <v>0</v>
       </c>
@@ -2537,7 +2598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="182:357" x14ac:dyDescent="0.2">
+    <row r="60" spans="182:357" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="HZ60" s="2" t="s">
         <v>0</v>
       </c>
@@ -2558,7 +2619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="182:357" x14ac:dyDescent="0.2">
+    <row r="61" spans="182:357" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="HZ61" s="2" t="s">
         <v>0</v>
       </c>
@@ -2591,7 +2652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="182:357" x14ac:dyDescent="0.2">
+    <row r="62" spans="182:357" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="HZ62" s="2" t="s">
         <v>0</v>
       </c>
@@ -2618,7 +2679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="182:357" x14ac:dyDescent="0.2">
+    <row r="63" spans="182:357" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="FZ63" s="2" t="s">
         <v>0</v>
       </c>
@@ -2747,7 +2808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="182:357" x14ac:dyDescent="0.2">
+    <row r="64" spans="182:357" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="FZ64" s="2" t="s">
         <v>0</v>
       </c>
@@ -2788,7 +2849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="179:358" x14ac:dyDescent="0.2">
+    <row r="65" spans="179:358" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="FZ65" s="2" t="s">
         <v>0</v>
       </c>
@@ -2835,7 +2896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="179:358" x14ac:dyDescent="0.2">
+    <row r="66" spans="179:358" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="FZ66" s="2" t="s">
         <v>0</v>
       </c>
@@ -2872,7 +2933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="179:358" x14ac:dyDescent="0.2">
+    <row r="67" spans="179:358" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="FZ67" s="2" t="s">
         <v>0</v>
       </c>
@@ -2908,7 +2969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="179:358" x14ac:dyDescent="0.2">
+    <row r="68" spans="179:358" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="FZ68" s="2" t="s">
         <v>0</v>
       </c>
@@ -3019,7 +3080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="179:358" x14ac:dyDescent="0.2">
+    <row r="69" spans="179:358" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="FZ69" s="2" t="s">
         <v>0</v>
       </c>
@@ -3058,7 +3119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="179:358" x14ac:dyDescent="0.2">
+    <row r="70" spans="179:358" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="FZ70" s="2" t="s">
         <v>0</v>
       </c>
@@ -3109,7 +3170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="179:358" x14ac:dyDescent="0.2">
+    <row r="71" spans="179:358" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="FZ71" s="2" t="s">
         <v>0</v>
       </c>
@@ -3148,7 +3209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="179:358" x14ac:dyDescent="0.2">
+    <row r="72" spans="179:358" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="FZ72" s="2" t="s">
         <v>0</v>
       </c>
@@ -3193,7 +3254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="179:358" x14ac:dyDescent="0.2">
+    <row r="73" spans="179:358" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="FZ73" s="2" t="s">
         <v>0</v>
       </c>
@@ -3483,7 +3544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="179:358" x14ac:dyDescent="0.2">
+    <row r="74" spans="179:358" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="FZ74" s="2" t="s">
         <v>0</v>
       </c>
@@ -3574,7 +3635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="179:358" x14ac:dyDescent="0.2">
+    <row r="75" spans="179:358" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="FZ75" s="2" t="s">
         <v>0</v>
       </c>
@@ -3665,7 +3726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="179:358" x14ac:dyDescent="0.2">
+    <row r="76" spans="179:358" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="FZ76" s="2" t="s">
         <v>0</v>
       </c>
@@ -3750,7 +3811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="179:358" x14ac:dyDescent="0.2">
+    <row r="77" spans="179:358" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="FZ77" s="2" t="s">
         <v>0</v>
       </c>
@@ -3833,7 +3894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="179:358" x14ac:dyDescent="0.2">
+    <row r="78" spans="179:358" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="FZ78" s="2" t="s">
         <v>0</v>
       </c>
@@ -3925,7 +3986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="179:358" x14ac:dyDescent="0.2">
+    <row r="79" spans="179:358" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="FW79" s="2" t="s">
         <v>0</v>
       </c>
@@ -4018,7 +4079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="179:358" x14ac:dyDescent="0.2">
+    <row r="80" spans="179:358" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="FX80" s="2" t="s">
         <v>0</v>
       </c>
@@ -4128,7 +4189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="67:376" x14ac:dyDescent="0.2">
+    <row r="81" spans="67:376" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="FZ81" s="2" t="s">
         <v>0</v>
       </c>
@@ -4240,7 +4301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="67:376" x14ac:dyDescent="0.2">
+    <row r="82" spans="67:376" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="FZ82" s="2" t="s">
         <v>0</v>
       </c>
@@ -4356,7 +4417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="67:376" x14ac:dyDescent="0.2">
+    <row r="83" spans="67:376" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="BO83" s="2" t="s">
         <v>0</v>
       </c>
@@ -5021,7 +5082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="67:376" x14ac:dyDescent="0.2">
+    <row r="84" spans="67:376" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="BO84" s="2" t="s">
         <v>0</v>
       </c>
@@ -5903,7 +5964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="67:376" x14ac:dyDescent="0.2">
+    <row r="85" spans="67:376" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="BO85" s="2" t="s">
         <v>0</v>
       </c>
@@ -6059,7 +6120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="67:376" x14ac:dyDescent="0.2">
+    <row r="86" spans="67:376" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="BO86" s="2" t="s">
         <v>0</v>
       </c>
@@ -6161,7 +6222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="67:376" x14ac:dyDescent="0.2">
+    <row r="87" spans="67:376" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="BO87" s="2" t="s">
         <v>0</v>
       </c>
@@ -6263,7 +6324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="67:376" x14ac:dyDescent="0.2">
+    <row r="88" spans="67:376" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="BO88" s="2" t="s">
         <v>0</v>
       </c>
@@ -6384,7 +6445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="67:376" x14ac:dyDescent="0.2">
+    <row r="89" spans="67:376" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="BO89" s="2" t="s">
         <v>0</v>
       </c>
@@ -6565,7 +6626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="67:376" x14ac:dyDescent="0.2">
+    <row r="90" spans="67:376" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="BO90" s="2" t="s">
         <v>0</v>
       </c>
@@ -6701,7 +6762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="67:376" x14ac:dyDescent="0.2">
+    <row r="91" spans="67:376" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="BO91" s="2" t="s">
         <v>0</v>
       </c>
@@ -6768,7 +6829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="67:376" x14ac:dyDescent="0.2">
+    <row r="92" spans="67:376" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="BO92" s="2" t="s">
         <v>0</v>
       </c>
@@ -6789,6 +6850,9 @@
       </c>
       <c r="HD92" s="2" t="s">
         <v>0</v>
+      </c>
+      <c r="HG92" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="HM92" s="2" t="s">
         <v>0</v>
@@ -6834,7 +6898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="67:376" x14ac:dyDescent="0.2">
+    <row r="93" spans="67:376" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="BO93" s="2" t="s">
         <v>0</v>
       </c>
@@ -6894,7 +6958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="67:376" x14ac:dyDescent="0.2">
+    <row r="94" spans="67:376" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="BO94" s="2" t="s">
         <v>0</v>
       </c>
@@ -7011,7 +7075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="67:376" x14ac:dyDescent="0.2">
+    <row r="95" spans="67:376" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="BO95" s="2" t="s">
         <v>0</v>
       </c>
@@ -7080,7 +7144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="67:376" x14ac:dyDescent="0.2">
+    <row r="96" spans="67:376" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="BO96" s="2" t="s">
         <v>0</v>
       </c>
@@ -7149,7 +7213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="67:376" x14ac:dyDescent="0.2">
+    <row r="97" spans="67:376" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="BO97" s="2" t="s">
         <v>0</v>
       </c>
@@ -7161,6 +7225,9 @@
       </c>
       <c r="GA97" s="2" t="s">
         <v>0</v>
+      </c>
+      <c r="GF97" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="GK97" s="2" t="s">
         <v>0</v>
@@ -7281,7 +7348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="67:376" x14ac:dyDescent="0.2">
+    <row r="98" spans="67:376" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="BO98" s="2" t="s">
         <v>0</v>
       </c>
@@ -7341,7 +7408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="67:376" x14ac:dyDescent="0.2">
+    <row r="99" spans="67:376" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="BO99" s="2" t="s">
         <v>0</v>
       </c>
@@ -7412,7 +7479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="67:376" x14ac:dyDescent="0.2">
+    <row r="100" spans="67:376" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="BO100" s="2" t="s">
         <v>0</v>
       </c>
@@ -7498,7 +7565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="67:376" x14ac:dyDescent="0.2">
+    <row r="101" spans="67:376" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="BO101" s="2" t="s">
         <v>0</v>
       </c>
@@ -7614,7 +7681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="67:376" x14ac:dyDescent="0.2">
+    <row r="102" spans="67:376" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="BO102" s="2" t="s">
         <v>0</v>
       </c>
@@ -7738,7 +7805,9 @@
         <v>0</v>
       </c>
       <c r="KT102" s="3"/>
-      <c r="KU102" s="3"/>
+      <c r="KU102" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="KV102" s="3"/>
       <c r="KW102" s="3"/>
       <c r="LD102" s="2" t="s">
@@ -7772,7 +7841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="67:376" x14ac:dyDescent="0.2">
+    <row r="103" spans="67:376" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="BO103" s="2" t="s">
         <v>0</v>
       </c>
@@ -8029,7 +8098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="67:376" x14ac:dyDescent="0.2">
+    <row r="104" spans="67:376" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="BO104" s="2" t="s">
         <v>0</v>
       </c>
@@ -8196,7 +8265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="67:376" x14ac:dyDescent="0.2">
+    <row r="105" spans="67:376" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="BO105" s="2" t="s">
         <v>0</v>
       </c>
@@ -8251,7 +8320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="67:376" x14ac:dyDescent="0.2">
+    <row r="106" spans="67:376" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="BO106" s="2" t="s">
         <v>0</v>
       </c>
@@ -8306,7 +8375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="67:376" x14ac:dyDescent="0.2">
+    <row r="107" spans="67:376" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="BO107" s="2" t="s">
         <v>0</v>
       </c>
@@ -8350,7 +8419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="67:376" x14ac:dyDescent="0.2">
+    <row r="108" spans="67:376" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="BO108" s="2" t="s">
         <v>0</v>
       </c>
@@ -8397,7 +8466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="67:376" x14ac:dyDescent="0.2">
+    <row r="109" spans="67:376" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="BO109" s="2" t="s">
         <v>0</v>
       </c>
@@ -8544,7 +8613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="67:376" x14ac:dyDescent="0.2">
+    <row r="110" spans="67:376" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="BO110" s="2" t="s">
         <v>0</v>
       </c>
@@ -8607,7 +8676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="67:376" x14ac:dyDescent="0.2">
+    <row r="111" spans="67:376" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="BO111" s="2" t="s">
         <v>0</v>
       </c>
@@ -8670,7 +8739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="67:376" x14ac:dyDescent="0.2">
+    <row r="112" spans="67:376" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="BO112" s="2" t="s">
         <v>0</v>
       </c>
@@ -8733,7 +8802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="67:376" x14ac:dyDescent="0.2">
+    <row r="113" spans="67:376" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="BO113" s="2" t="s">
         <v>0</v>
       </c>
@@ -8796,7 +8865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="67:376" x14ac:dyDescent="0.2">
+    <row r="114" spans="67:376" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="BO114" s="2" t="s">
         <v>0</v>
       </c>
@@ -8826,6 +8895,9 @@
       </c>
       <c r="IF114" s="2" t="s">
         <v>0</v>
+      </c>
+      <c r="IJ114" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="IR114" s="2" t="s">
         <v>0</v>
@@ -8856,7 +8928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="67:376" x14ac:dyDescent="0.2">
+    <row r="115" spans="67:376" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="BO115" s="2" t="s">
         <v>0</v>
       </c>
@@ -8872,17 +8944,29 @@
       <c r="GA115" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="GH115" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="GT115" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="GX115" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="HC115" s="2" t="s">
         <v>0</v>
+      </c>
+      <c r="HH115" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="HJ115" s="3"/>
       <c r="HK115" s="3"/>
       <c r="HL115" s="3"/>
       <c r="HM115" s="2" t="s">
         <v>0</v>
+      </c>
+      <c r="HS115" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="IF115" s="2" t="s">
         <v>0</v>
@@ -8913,7 +8997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="67:376" x14ac:dyDescent="0.2">
+    <row r="116" spans="67:376" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="BO116" s="2" t="s">
         <v>0</v>
       </c>
@@ -8970,7 +9054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="67:376" x14ac:dyDescent="0.2">
+    <row r="117" spans="67:376" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="BO117" s="2" t="s">
         <v>0</v>
       </c>
@@ -9024,7 +9108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="67:376" x14ac:dyDescent="0.2">
+    <row r="118" spans="67:376" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="BO118" s="2" t="s">
         <v>0</v>
       </c>
@@ -9078,7 +9162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="67:376" x14ac:dyDescent="0.2">
+    <row r="119" spans="67:376" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="BO119" s="2" t="s">
         <v>0</v>
       </c>
@@ -9144,7 +9228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="67:376" x14ac:dyDescent="0.2">
+    <row r="120" spans="67:376" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="BO120" s="2" t="s">
         <v>0</v>
       </c>
@@ -9216,7 +9300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="67:376" x14ac:dyDescent="0.2">
+    <row r="121" spans="67:376" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="BO121" s="2" t="s">
         <v>0</v>
       </c>
@@ -9357,7 +9441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="67:376" x14ac:dyDescent="0.2">
+    <row r="122" spans="67:376" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="BO122" s="2" t="s">
         <v>0</v>
       </c>
@@ -10041,7 +10125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="67:376" x14ac:dyDescent="0.2">
+    <row r="123" spans="67:376" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="BO123" s="2" t="s">
         <v>0</v>
       </c>
@@ -10635,7 +10719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="67:376" x14ac:dyDescent="0.2">
+    <row r="124" spans="67:376" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="BO124" s="2" t="s">
         <v>0</v>
       </c>
@@ -10862,7 +10946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="67:376" x14ac:dyDescent="0.2">
+    <row r="125" spans="67:376" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="BO125" s="2" t="s">
         <v>0</v>
       </c>
@@ -11061,6 +11145,9 @@
       <c r="LD125" s="3"/>
       <c r="LE125" s="3"/>
       <c r="LF125" s="3"/>
+      <c r="MG125" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="NJ125" s="2" t="s">
         <v>0</v>
       </c>
@@ -11071,7 +11158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="67:376" x14ac:dyDescent="0.2">
+    <row r="126" spans="67:376" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="BO126" s="2" t="s">
         <v>0</v>
       </c>
@@ -11277,18 +11364,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="67:376" x14ac:dyDescent="0.2">
+    <row r="127" spans="67:376" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="BO127" s="2" t="s">
         <v>0</v>
       </c>
       <c r="BP127" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="BV127" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="CD127" s="2" t="s">
         <v>0</v>
       </c>
       <c r="CI127" s="2" t="s">
         <v>0</v>
+      </c>
+      <c r="CQ127" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="DB127" s="2" t="s">
         <v>0</v>
@@ -11483,7 +11576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="67:376" x14ac:dyDescent="0.2">
+    <row r="128" spans="67:376" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="BO128" s="2" t="s">
         <v>0</v>
       </c>
@@ -11688,7 +11781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="23:376" x14ac:dyDescent="0.2">
+    <row r="129" spans="23:376" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="BO129" s="2" t="s">
         <v>0</v>
       </c>
@@ -11895,7 +11988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="23:376" x14ac:dyDescent="0.2">
+    <row r="130" spans="23:376" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="BO130" s="2" t="s">
         <v>0</v>
       </c>
@@ -12110,7 +12203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="23:376" x14ac:dyDescent="0.2">
+    <row r="131" spans="23:376" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="BO131" s="2" t="s">
         <v>0</v>
       </c>
@@ -12428,7 +12521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="23:376" x14ac:dyDescent="0.2">
+    <row r="132" spans="23:376" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="BO132" s="2" t="s">
         <v>0</v>
       </c>
@@ -12597,7 +12690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="23:376" x14ac:dyDescent="0.2">
+    <row r="133" spans="23:376" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="BO133" s="2" t="s">
         <v>0</v>
       </c>
@@ -12680,7 +12773,9 @@
         <v>0</v>
       </c>
       <c r="LM133" s="3"/>
-      <c r="LN133" s="3"/>
+      <c r="LN133" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="LO133" s="3"/>
       <c r="LP133" s="3"/>
       <c r="LQ133" s="3"/>
@@ -12694,7 +12789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="23:376" x14ac:dyDescent="0.2">
+    <row r="134" spans="23:376" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="BO134" s="2" t="s">
         <v>0</v>
       </c>
@@ -12776,7 +12871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="23:376" x14ac:dyDescent="0.2">
+    <row r="135" spans="23:376" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="BO135" s="2" t="s">
         <v>0</v>
       </c>
@@ -12879,12 +12974,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="23:376" x14ac:dyDescent="0.2">
+    <row r="136" spans="23:376" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="BO136" s="2" t="s">
         <v>0</v>
       </c>
       <c r="BP136" s="2" t="s">
         <v>0</v>
+      </c>
+      <c r="BW136" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="CD136" s="2" t="s">
         <v>0</v>
@@ -12995,7 +13093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="23:376" x14ac:dyDescent="0.2">
+    <row r="137" spans="23:376" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="BO137" s="2" t="s">
         <v>0</v>
       </c>
@@ -13078,7 +13176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="23:376" x14ac:dyDescent="0.2">
+    <row r="138" spans="23:376" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="BO138" s="2" t="s">
         <v>0</v>
       </c>
@@ -13213,7 +13311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="23:376" x14ac:dyDescent="0.2">
+    <row r="139" spans="23:376" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="BO139" s="2" t="s">
         <v>0</v>
       </c>
@@ -13375,7 +13473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="23:376" x14ac:dyDescent="0.2">
+    <row r="140" spans="23:376" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="BO140" s="2" t="s">
         <v>0</v>
       </c>
@@ -13613,7 +13711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="23:376" x14ac:dyDescent="0.2">
+    <row r="141" spans="23:376" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="W141" s="2" t="s">
         <v>0</v>
       </c>
@@ -13907,7 +14005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="23:376" x14ac:dyDescent="0.2">
+    <row r="142" spans="23:376" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="W142" s="2" t="s">
         <v>0</v>
       </c>
@@ -14142,6 +14240,9 @@
       <c r="LF142" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="LK142" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="LN142" s="3"/>
       <c r="LO142" s="3"/>
       <c r="LP142" s="3"/>
@@ -14168,7 +14269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="23:376" x14ac:dyDescent="0.2">
+    <row r="143" spans="23:376" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="W143" s="2" t="s">
         <v>0</v>
       </c>
@@ -14407,7 +14508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="23:376" x14ac:dyDescent="0.2">
+    <row r="144" spans="23:376" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="W144" s="2" t="s">
         <v>0</v>
       </c>
@@ -14577,7 +14678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:376" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:376" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="W145" s="2" t="s">
         <v>0</v>
       </c>
@@ -14610,6 +14711,9 @@
       </c>
       <c r="BP145" s="2" t="s">
         <v>0</v>
+      </c>
+      <c r="BV145" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="CA145" s="3"/>
       <c r="CB145" s="3"/>
@@ -14754,7 +14858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:376" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:376" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="W146" s="2" t="s">
         <v>0</v>
       </c>
@@ -14876,7 +14980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:376" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:376" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="W147" s="2" t="s">
         <v>0</v>
       </c>
@@ -14982,6 +15086,9 @@
       <c r="LP147" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="LV147" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="MC147" s="2" t="s">
         <v>0</v>
       </c>
@@ -15001,7 +15108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:376" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:376" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="W148" s="2" t="s">
         <v>0</v>
       </c>
@@ -15129,7 +15236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:376" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:376" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="W149" s="2" t="s">
         <v>0</v>
       </c>
@@ -15257,7 +15364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:376" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:376" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="W150" s="2" t="s">
         <v>0</v>
       </c>
@@ -15388,7 +15495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:376" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:376" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="W151" s="2" t="s">
         <v>0</v>
       </c>
@@ -15847,7 +15954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:376" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:376" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="W152" s="2" t="s">
         <v>0</v>
       </c>
@@ -16146,7 +16253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:376" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:376" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="W153" s="2" t="s">
         <v>0</v>
       </c>
@@ -16462,7 +16569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:376" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:376" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="W154" s="2" t="s">
         <v>0</v>
       </c>
@@ -16762,7 +16869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:376" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:376" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Z155" s="2" t="s">
         <v>0</v>
       </c>
@@ -17052,7 +17159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:376" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:376" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Z156" s="2" t="s">
         <v>0</v>
       </c>
@@ -17342,7 +17449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:376" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:376" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
         <v>0</v>
       </c>
@@ -17797,7 +17904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:376" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:376" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
         <v>0</v>
       </c>
@@ -18189,7 +18296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:376" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:376" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
         <v>0</v>
       </c>
@@ -18479,7 +18586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:376" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:376" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
         <v>0</v>
       </c>
@@ -19157,7 +19264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:391" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:391" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
         <v>0</v>
       </c>
@@ -19928,7 +20035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:391" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:391" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
         <v>0</v>
       </c>
@@ -20132,7 +20239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:391" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:391" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
         <v>0</v>
       </c>
@@ -20296,7 +20403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:391" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:391" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
         <v>0</v>
       </c>
@@ -20413,7 +20520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:391" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:391" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
         <v>0</v>
       </c>
@@ -20509,7 +20616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:391" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:391" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
         <v>0</v>
       </c>
@@ -20614,7 +20721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:391" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:391" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
         <v>0</v>
       </c>
@@ -20721,7 +20828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:391" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:391" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
         <v>0</v>
       </c>
@@ -20834,7 +20941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:391" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:391" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
         <v>0</v>
       </c>
@@ -20955,7 +21062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:391" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:391" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
         <v>0</v>
       </c>
@@ -21115,7 +21222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:391" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:391" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
         <v>0</v>
       </c>
@@ -21344,7 +21451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:391" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:391" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
         <v>0</v>
       </c>
@@ -21489,7 +21596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:391" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:391" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
         <v>0</v>
       </c>
@@ -21622,7 +21729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:391" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:391" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
         <v>0</v>
       </c>
@@ -21775,7 +21882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:391" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:391" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
         <v>0</v>
       </c>
@@ -21922,7 +22029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:391" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:391" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
         <v>0</v>
       </c>
@@ -22093,7 +22200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:404" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:404" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
         <v>0</v>
       </c>
@@ -22230,7 +22337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:404" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:404" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
         <v>0</v>
       </c>
@@ -22400,7 +22507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:404" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:404" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
         <v>0</v>
       </c>
@@ -22663,7 +22770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:404" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:404" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
         <v>0</v>
       </c>
@@ -23025,7 +23132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:404" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:404" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
         <v>0</v>
       </c>
@@ -23200,7 +23307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:404" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:404" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
         <v>0</v>
       </c>
@@ -23335,7 +23442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:404" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:404" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
         <v>0</v>
       </c>
@@ -23568,7 +23675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:404" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:404" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
         <v>0</v>
       </c>
@@ -23768,7 +23875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:404" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:404" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
         <v>0</v>
       </c>
@@ -23985,7 +24092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:404" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:404" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="W186" s="3"/>
       <c r="X186" s="3"/>
       <c r="Y186" s="3"/>
@@ -24107,7 +24214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:404" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:404" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="W187" s="3"/>
       <c r="X187" s="3"/>
       <c r="Y187" s="3"/>
@@ -24219,7 +24326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:404" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:404" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="BO188" s="2" t="s">
         <v>0</v>
       </c>
@@ -24315,7 +24422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:404" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:404" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="BO189" s="2" t="s">
         <v>0</v>
       </c>
@@ -24424,7 +24531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:404" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:404" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="BO190" s="2" t="s">
         <v>0</v>
       </c>
@@ -24518,7 +24625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:404" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:404" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="BO191" s="2" t="s">
         <v>0</v>
       </c>
@@ -24609,7 +24716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:404" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:404" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="BO192" s="2" t="s">
         <v>0</v>
       </c>
@@ -24693,7 +24800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="67:404" x14ac:dyDescent="0.2">
+    <row r="193" spans="67:404" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="BO193" s="2" t="s">
         <v>0</v>
       </c>
@@ -24831,7 +24938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="67:404" x14ac:dyDescent="0.2">
+    <row r="194" spans="67:404" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="BO194" s="2" t="s">
         <v>0</v>
       </c>
@@ -24960,7 +25067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="67:404" x14ac:dyDescent="0.2">
+    <row r="195" spans="67:404" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="BO195" s="2" t="s">
         <v>0</v>
       </c>
@@ -25059,7 +25166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="67:404" x14ac:dyDescent="0.2">
+    <row r="196" spans="67:404" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="BO196" s="2" t="s">
         <v>0</v>
       </c>
@@ -25155,7 +25262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="67:404" x14ac:dyDescent="0.2">
+    <row r="197" spans="67:404" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="BO197" s="2" t="s">
         <v>0</v>
       </c>
@@ -25285,7 +25392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="67:404" x14ac:dyDescent="0.2">
+    <row r="198" spans="67:404" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="BO198" s="2" t="s">
         <v>0</v>
       </c>
@@ -26039,7 +26146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="67:404" x14ac:dyDescent="0.2">
+    <row r="199" spans="67:404" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="BO199" s="2" t="s">
         <v>0</v>
       </c>
@@ -26481,7 +26588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="67:404" x14ac:dyDescent="0.2">
+    <row r="200" spans="67:404" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="BO200" s="2" t="s">
         <v>0</v>
       </c>
@@ -27295,7 +27402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="67:404" x14ac:dyDescent="0.2">
+    <row r="201" spans="67:404" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="BV201" s="2" t="s">
         <v>0</v>
       </c>
@@ -27398,7 +27505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="67:404" x14ac:dyDescent="0.2">
+    <row r="202" spans="67:404" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="BV202" s="2" t="s">
         <v>0</v>
       </c>
@@ -27504,7 +27611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="67:404" x14ac:dyDescent="0.2">
+    <row r="203" spans="67:404" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="BW203" s="2" t="s">
         <v>0</v>
       </c>
@@ -27561,7 +27668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="67:404" x14ac:dyDescent="0.2">
+    <row r="204" spans="67:404" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="BW204" s="2" t="s">
         <v>0</v>
       </c>
@@ -27615,7 +27722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="67:404" x14ac:dyDescent="0.2">
+    <row r="205" spans="67:404" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="BV205" s="2" t="s">
         <v>0</v>
       </c>
@@ -27675,7 +27782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="67:404" x14ac:dyDescent="0.2">
+    <row r="206" spans="67:404" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="BV206" s="2" t="s">
         <v>0</v>
       </c>
@@ -27759,7 +27866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="67:404" x14ac:dyDescent="0.2">
+    <row r="207" spans="67:404" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="BO207" s="2" t="s">
         <v>0</v>
       </c>
@@ -27945,7 +28052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="67:404" x14ac:dyDescent="0.2">
+    <row r="208" spans="67:404" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="BO208" s="2" t="s">
         <v>0</v>
       </c>
@@ -28197,7 +28304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="67:396" x14ac:dyDescent="0.2">
+    <row r="209" spans="67:396" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="BO209" s="2" t="s">
         <v>0</v>
       </c>
@@ -28355,7 +28462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="67:396" x14ac:dyDescent="0.2">
+    <row r="210" spans="67:396" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="BO210" s="2" t="s">
         <v>0</v>
       </c>
@@ -28444,7 +28551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="67:396" x14ac:dyDescent="0.2">
+    <row r="211" spans="67:396" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="BO211" s="2" t="s">
         <v>0</v>
       </c>
@@ -28524,7 +28631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="67:396" x14ac:dyDescent="0.2">
+    <row r="212" spans="67:396" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="BO212" s="2" t="s">
         <v>0</v>
       </c>
@@ -28607,7 +28714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="67:396" x14ac:dyDescent="0.2">
+    <row r="213" spans="67:396" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="BO213" s="2" t="s">
         <v>0</v>
       </c>
@@ -28696,7 +28803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="67:396" x14ac:dyDescent="0.2">
+    <row r="214" spans="67:396" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="BO214" s="2" t="s">
         <v>0</v>
       </c>
@@ -28782,7 +28889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="67:396" x14ac:dyDescent="0.2">
+    <row r="215" spans="67:396" ht="15.75" x14ac:dyDescent="0.25">
       <c r="BO215" s="2" t="s">
         <v>0</v>
       </c>
@@ -28868,7 +28975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="67:396" x14ac:dyDescent="0.2">
+    <row r="216" spans="67:396" ht="15.75" x14ac:dyDescent="0.25">
       <c r="BO216" s="2" t="s">
         <v>0</v>
       </c>
@@ -28951,7 +29058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="67:396" x14ac:dyDescent="0.2">
+    <row r="217" spans="67:396" ht="15.75" x14ac:dyDescent="0.25">
       <c r="BO217" s="2" t="s">
         <v>0</v>
       </c>
@@ -29095,7 +29202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="67:396" x14ac:dyDescent="0.2">
+    <row r="218" spans="67:396" ht="15.75" x14ac:dyDescent="0.25">
       <c r="BO218" s="2" t="s">
         <v>0</v>
       </c>
@@ -29245,7 +29352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="67:396" x14ac:dyDescent="0.2">
+    <row r="219" spans="67:396" ht="15.75" x14ac:dyDescent="0.25">
       <c r="BO219" s="2" t="s">
         <v>0</v>
       </c>
@@ -29359,7 +29466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="67:396" x14ac:dyDescent="0.2">
+    <row r="220" spans="67:396" ht="15.75" x14ac:dyDescent="0.25">
       <c r="BO220" s="2" t="s">
         <v>0</v>
       </c>
@@ -29464,7 +29571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="67:396" x14ac:dyDescent="0.2">
+    <row r="221" spans="67:396" ht="15.75" x14ac:dyDescent="0.25">
       <c r="BO221" s="2" t="s">
         <v>0</v>
       </c>
@@ -29593,7 +29700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="67:396" x14ac:dyDescent="0.2">
+    <row r="222" spans="67:396" ht="15.75" x14ac:dyDescent="0.25">
       <c r="BO222" s="2" t="s">
         <v>0</v>
       </c>
@@ -29701,7 +29808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="67:396" x14ac:dyDescent="0.2">
+    <row r="223" spans="67:396" ht="15.75" x14ac:dyDescent="0.25">
       <c r="BO223" s="2" t="s">
         <v>0</v>
       </c>
@@ -29794,7 +29901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="67:396" x14ac:dyDescent="0.2">
+    <row r="224" spans="67:396" ht="15.75" x14ac:dyDescent="0.25">
       <c r="BO224" s="2" t="s">
         <v>0</v>
       </c>
@@ -29893,7 +30000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="67:380" x14ac:dyDescent="0.2">
+    <row r="225" spans="67:380" ht="15.75" x14ac:dyDescent="0.25">
       <c r="BO225" s="2" t="s">
         <v>0</v>
       </c>
@@ -29995,7 +30102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="67:380" x14ac:dyDescent="0.2">
+    <row r="226" spans="67:380" ht="15.75" x14ac:dyDescent="0.25">
       <c r="BO226" s="2" t="s">
         <v>0</v>
       </c>
@@ -30190,7 +30297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="67:380" x14ac:dyDescent="0.2">
+    <row r="227" spans="67:380" ht="15.75" x14ac:dyDescent="0.25">
       <c r="EF227" s="2" t="s">
         <v>0</v>
       </c>
@@ -30253,7 +30360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="67:380" x14ac:dyDescent="0.2">
+    <row r="228" spans="67:380" ht="15.75" x14ac:dyDescent="0.25">
       <c r="ED228" s="2" t="s">
         <v>0</v>
       </c>
@@ -30331,7 +30438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="67:380" x14ac:dyDescent="0.2">
+    <row r="229" spans="67:380" ht="15.75" x14ac:dyDescent="0.25">
       <c r="EC229" s="2" t="s">
         <v>0</v>
       </c>
@@ -30388,7 +30495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="67:380" x14ac:dyDescent="0.2">
+    <row r="230" spans="67:380" ht="15.75" x14ac:dyDescent="0.25">
       <c r="EC230" s="2" t="s">
         <v>0</v>
       </c>
@@ -30448,7 +30555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="67:380" x14ac:dyDescent="0.2">
+    <row r="231" spans="67:380" ht="15.75" x14ac:dyDescent="0.25">
       <c r="EH231" s="2" t="s">
         <v>0</v>
       </c>
@@ -30508,7 +30615,7 @@
       <c r="NG231" s="3"/>
       <c r="NH231" s="3"/>
     </row>
-    <row r="232" spans="67:380" x14ac:dyDescent="0.2">
+    <row r="232" spans="67:380" ht="15.75" x14ac:dyDescent="0.25">
       <c r="EG232" s="2" t="s">
         <v>0</v>
       </c>
@@ -30547,7 +30654,7 @@
       <c r="NG232" s="3"/>
       <c r="NH232" s="3"/>
     </row>
-    <row r="233" spans="67:380" x14ac:dyDescent="0.2">
+    <row r="233" spans="67:380" ht="15.75" x14ac:dyDescent="0.25">
       <c r="EF233" s="2" t="s">
         <v>0</v>
       </c>
@@ -30742,7 +30849,7 @@
       <c r="NG233" s="3"/>
       <c r="NH233" s="3"/>
     </row>
-    <row r="234" spans="67:380" x14ac:dyDescent="0.2">
+    <row r="234" spans="67:380" ht="15.75" x14ac:dyDescent="0.25">
       <c r="EF234" s="2" t="s">
         <v>0</v>
       </c>
@@ -30936,5 +31043,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/groundFloor.xlsx
+++ b/groundFloor.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7999" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7986" uniqueCount="26">
   <si>
     <t>#</t>
   </si>
@@ -89,6 +89,15 @@
   <si>
     <t>h1.08f</t>
   </si>
+  <si>
+    <t>Loungen</t>
+  </si>
+  <si>
+    <t>Butikken</t>
+  </si>
+  <si>
+    <t>Receptionen</t>
+  </si>
 </sst>
 </file>
 
@@ -109,7 +118,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -133,6 +142,18 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -146,13 +167,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -422,7 +445,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -431,10 +454,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Ark1" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:ON234"/>
+  <dimension ref="A1:ON244"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AB1" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
-      <selection activeCell="CQ128" sqref="CQ128"/>
+    <sheetView tabSelected="1" topLeftCell="DN46" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="NL140" sqref="NL140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.375" defaultRowHeight="14.1" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -691,9 +714,6 @@
       </c>
       <c r="IK5" s="3"/>
       <c r="IL5" s="3"/>
-      <c r="IM5" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="IN5" s="3"/>
       <c r="IT5" s="2" t="s">
         <v>0</v>
@@ -786,9 +806,6 @@
         <v>0</v>
       </c>
       <c r="JX5" s="3"/>
-      <c r="JY5" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="JZ5" s="3"/>
       <c r="KG5" s="2" t="s">
         <v>0</v>
@@ -933,9 +950,6 @@
       </c>
       <c r="MB5" s="2" t="s">
         <v>0</v>
-      </c>
-      <c r="MF5" s="1" t="s">
-        <v>6</v>
       </c>
       <c r="MM5" s="2" t="s">
         <v>0</v>
@@ -973,7 +987,9 @@
         <v>0</v>
       </c>
       <c r="IK6" s="3"/>
-      <c r="IL6" s="3"/>
+      <c r="IL6" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="IM6" s="3"/>
       <c r="IN6" s="3"/>
       <c r="IO6" s="2" t="s">
@@ -1082,7 +1098,9 @@
         <v>0</v>
       </c>
       <c r="JX6" s="3"/>
-      <c r="JY6" s="3"/>
+      <c r="JY6" s="6" t="s">
+        <v>5</v>
+      </c>
       <c r="JZ6" s="3"/>
       <c r="KA6" s="2" t="s">
         <v>0</v>
@@ -1276,11 +1294,11 @@
         <v>0</v>
       </c>
       <c r="IK7" s="3"/>
-      <c r="IL7" s="3"/>
+      <c r="IL7" s="6"/>
       <c r="IM7" s="3"/>
       <c r="IN7" s="3"/>
       <c r="JX7" s="3"/>
-      <c r="JY7" s="3"/>
+      <c r="JY7" s="6"/>
       <c r="JZ7" s="3"/>
       <c r="MB7" s="2" t="s">
         <v>0</v>
@@ -1316,11 +1334,12 @@
         <v>0</v>
       </c>
       <c r="IK8" s="3"/>
-      <c r="IL8" s="3"/>
+      <c r="IL8" s="6"/>
       <c r="IM8" s="3"/>
       <c r="IN8" s="3"/>
+      <c r="IV8" s="3"/>
       <c r="JX8" s="3"/>
-      <c r="JY8" s="3"/>
+      <c r="JY8" s="6"/>
       <c r="JZ8" s="3"/>
       <c r="MB8" s="2" t="s">
         <v>0</v>
@@ -1335,7 +1354,9 @@
         <v>0</v>
       </c>
       <c r="MF8" s="3"/>
-      <c r="MG8" s="3"/>
+      <c r="MG8" s="6" t="s">
+        <v>6</v>
+      </c>
       <c r="MH8" s="3"/>
       <c r="MI8" s="3"/>
       <c r="MJ8" s="2" t="s">
@@ -1365,14 +1386,15 @@
         <v>0</v>
       </c>
       <c r="IK9" s="3"/>
-      <c r="IL9" s="3"/>
+      <c r="IL9" s="6"/>
       <c r="IM9" s="3"/>
       <c r="IN9" s="3"/>
+      <c r="IV9" s="3"/>
       <c r="JX9" s="3"/>
-      <c r="JY9" s="3"/>
+      <c r="JY9" s="6"/>
       <c r="JZ9" s="3"/>
       <c r="MF9" s="3"/>
-      <c r="MG9" s="3"/>
+      <c r="MG9" s="6"/>
       <c r="MH9" s="3"/>
       <c r="MI9" s="3"/>
       <c r="MS9" s="2" t="s">
@@ -1390,11 +1412,106 @@
         <v>0</v>
       </c>
       <c r="IK10" s="3"/>
-      <c r="IL10" s="3"/>
-      <c r="IM10" s="3"/>
-      <c r="IN10" s="3"/>
-      <c r="MF10" s="3"/>
-      <c r="MG10" s="3"/>
+      <c r="IL10" s="6"/>
+      <c r="IM10" s="6"/>
+      <c r="IN10" s="6"/>
+      <c r="IO10" s="6"/>
+      <c r="IP10" s="6"/>
+      <c r="IQ10" s="6"/>
+      <c r="IR10" s="6"/>
+      <c r="IS10" s="6"/>
+      <c r="IT10" s="6"/>
+      <c r="IU10" s="6"/>
+      <c r="IV10" s="6"/>
+      <c r="IW10" s="6"/>
+      <c r="IX10" s="6"/>
+      <c r="IY10" s="6"/>
+      <c r="IZ10" s="6"/>
+      <c r="JA10" s="6"/>
+      <c r="JB10" s="6"/>
+      <c r="JC10" s="6"/>
+      <c r="JD10" s="6"/>
+      <c r="JE10" s="6"/>
+      <c r="JF10" s="6"/>
+      <c r="JG10" s="6"/>
+      <c r="JH10" s="6"/>
+      <c r="JI10" s="6"/>
+      <c r="JJ10" s="6"/>
+      <c r="JK10" s="6"/>
+      <c r="JL10" s="6"/>
+      <c r="JM10" s="6"/>
+      <c r="JN10" s="6"/>
+      <c r="JO10" s="6"/>
+      <c r="JP10" s="6"/>
+      <c r="JQ10" s="6"/>
+      <c r="JR10" s="6"/>
+      <c r="JS10" s="6"/>
+      <c r="JT10" s="6"/>
+      <c r="JU10" s="6"/>
+      <c r="JV10" s="6"/>
+      <c r="JW10" s="6"/>
+      <c r="JX10" s="6"/>
+      <c r="JY10" s="6"/>
+      <c r="JZ10" s="6"/>
+      <c r="KA10" s="6"/>
+      <c r="KB10" s="6"/>
+      <c r="KC10" s="6"/>
+      <c r="KD10" s="6"/>
+      <c r="KE10" s="6"/>
+      <c r="KF10" s="6"/>
+      <c r="KG10" s="6"/>
+      <c r="KH10" s="6"/>
+      <c r="KI10" s="6"/>
+      <c r="KJ10" s="6"/>
+      <c r="KK10" s="6"/>
+      <c r="KL10" s="6"/>
+      <c r="KM10" s="6"/>
+      <c r="KN10" s="6"/>
+      <c r="KO10" s="6"/>
+      <c r="KP10" s="6"/>
+      <c r="KQ10" s="6"/>
+      <c r="KR10" s="6"/>
+      <c r="KS10" s="6"/>
+      <c r="KT10" s="6"/>
+      <c r="KU10" s="6"/>
+      <c r="KV10" s="6"/>
+      <c r="KW10" s="6"/>
+      <c r="KX10" s="6"/>
+      <c r="KY10" s="6"/>
+      <c r="KZ10" s="6"/>
+      <c r="LA10" s="6"/>
+      <c r="LB10" s="6"/>
+      <c r="LC10" s="6"/>
+      <c r="LD10" s="6"/>
+      <c r="LE10" s="6"/>
+      <c r="LF10" s="6"/>
+      <c r="LG10" s="6"/>
+      <c r="LH10" s="6"/>
+      <c r="LI10" s="6"/>
+      <c r="LJ10" s="6"/>
+      <c r="LK10" s="6"/>
+      <c r="LL10" s="6"/>
+      <c r="LM10" s="6"/>
+      <c r="LN10" s="6"/>
+      <c r="LO10" s="6"/>
+      <c r="LP10" s="6"/>
+      <c r="LQ10" s="6"/>
+      <c r="LR10" s="6"/>
+      <c r="LS10" s="6"/>
+      <c r="LT10" s="6"/>
+      <c r="LU10" s="6"/>
+      <c r="LV10" s="6"/>
+      <c r="LW10" s="6"/>
+      <c r="LX10" s="6"/>
+      <c r="LY10" s="6"/>
+      <c r="LZ10" s="6"/>
+      <c r="MA10" s="6"/>
+      <c r="MB10" s="6"/>
+      <c r="MC10" s="6"/>
+      <c r="MD10" s="6"/>
+      <c r="ME10" s="6"/>
+      <c r="MF10" s="6"/>
+      <c r="MG10" s="6"/>
       <c r="MH10" s="3"/>
       <c r="MI10" s="3"/>
       <c r="MR10" s="2" t="s">
@@ -1414,8 +1531,9 @@
       <c r="IF11" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="IV11" s="6"/>
       <c r="MF11" s="3"/>
-      <c r="MG11" s="3"/>
+      <c r="MG11" s="6"/>
       <c r="MH11" s="3"/>
       <c r="MI11" s="3"/>
       <c r="MR11" s="2" t="s">
@@ -1432,6 +1550,8 @@
       <c r="IF12" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="IV12" s="6"/>
+      <c r="MG12" s="6"/>
       <c r="MR12" s="2" t="s">
         <v>0</v>
       </c>
@@ -1446,6 +1566,8 @@
       <c r="IF13" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="IV13" s="6"/>
+      <c r="MG13" s="6"/>
       <c r="MR13" s="2" t="s">
         <v>0</v>
       </c>
@@ -1460,6 +1582,8 @@
       <c r="IF14" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="IV14" s="6"/>
+      <c r="MG14" s="6"/>
       <c r="MR14" s="2" t="s">
         <v>0</v>
       </c>
@@ -1489,6 +1613,8 @@
       <c r="IF15" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="IV15" s="6"/>
+      <c r="MG15" s="6"/>
       <c r="MR15" s="2" t="s">
         <v>0</v>
       </c>
@@ -1506,6 +1632,8 @@
       <c r="IF16" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="IV16" s="6"/>
+      <c r="MG16" s="6"/>
       <c r="MR16" s="2" t="s">
         <v>0</v>
       </c>
@@ -1535,6 +1663,8 @@
       <c r="IF17" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="IV17" s="6"/>
+      <c r="MG17" s="6"/>
       <c r="MR17" s="2" t="s">
         <v>0</v>
       </c>
@@ -1552,6 +1682,8 @@
       <c r="IF18" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="IV18" s="6"/>
+      <c r="MG18" s="6"/>
       <c r="MR18" s="2" t="s">
         <v>0</v>
       </c>
@@ -1569,6 +1701,8 @@
       <c r="IF19" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="IV19" s="6"/>
+      <c r="MG19" s="6"/>
       <c r="MR19" s="2" t="s">
         <v>0</v>
       </c>
@@ -1598,6 +1732,8 @@
       <c r="IF20" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="IV20" s="6"/>
+      <c r="MG20" s="6"/>
       <c r="MR20" s="2" t="s">
         <v>0</v>
       </c>
@@ -1615,6 +1751,8 @@
       <c r="IF21" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="IV21" s="6"/>
+      <c r="MG21" s="6"/>
       <c r="MR21" s="2" t="s">
         <v>0</v>
       </c>
@@ -1644,6 +1782,8 @@
       <c r="IF22" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="IV22" s="6"/>
+      <c r="MG22" s="6"/>
       <c r="MR22" s="2" t="s">
         <v>0</v>
       </c>
@@ -1661,6 +1801,8 @@
       <c r="IF23" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="IV23" s="6"/>
+      <c r="MG23" s="6"/>
       <c r="MR23" s="2" t="s">
         <v>0</v>
       </c>
@@ -1681,6 +1823,8 @@
       <c r="IG24" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="IV24" s="6"/>
+      <c r="MG24" s="6"/>
       <c r="MQ24" s="2" t="s">
         <v>0</v>
       </c>
@@ -1716,6 +1860,8 @@
       <c r="IG25" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="IV25" s="6"/>
+      <c r="MG25" s="6"/>
       <c r="MQ25" s="2" t="s">
         <v>0</v>
       </c>
@@ -1736,6 +1882,8 @@
       <c r="IF26" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="IV26" s="6"/>
+      <c r="MG26" s="6"/>
       <c r="MR26" s="2" t="s">
         <v>0</v>
       </c>
@@ -1765,6 +1913,8 @@
       <c r="IF27" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="IV27" s="6"/>
+      <c r="MG27" s="6"/>
       <c r="MR27" s="2" t="s">
         <v>0</v>
       </c>
@@ -1782,6 +1932,8 @@
       <c r="IF28" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="IV28" s="6"/>
+      <c r="MG28" s="6"/>
       <c r="MR28" s="2" t="s">
         <v>0</v>
       </c>
@@ -1811,6 +1963,8 @@
       <c r="IF29" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="IV29" s="6"/>
+      <c r="MG29" s="6"/>
       <c r="MR29" s="2" t="s">
         <v>0</v>
       </c>
@@ -1828,6 +1982,8 @@
       <c r="IF30" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="IV30" s="6"/>
+      <c r="MG30" s="6"/>
       <c r="MR30" s="2" t="s">
         <v>0</v>
       </c>
@@ -1845,6 +2001,8 @@
       <c r="IF31" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="IV31" s="6"/>
+      <c r="MG31" s="6"/>
       <c r="MR31" s="2" t="s">
         <v>0</v>
       </c>
@@ -1874,6 +2032,8 @@
       <c r="IF32" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="IV32" s="6"/>
+      <c r="MG32" s="6"/>
       <c r="MR32" s="2" t="s">
         <v>0</v>
       </c>
@@ -1891,6 +2051,8 @@
       <c r="IF33" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="IV33" s="6"/>
+      <c r="MG33" s="6"/>
       <c r="MR33" s="2" t="s">
         <v>0</v>
       </c>
@@ -1920,6 +2082,8 @@
       <c r="IF34" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="IV34" s="6"/>
+      <c r="MG34" s="6"/>
       <c r="MR34" s="2" t="s">
         <v>0</v>
       </c>
@@ -1937,6 +2101,8 @@
       <c r="IF35" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="IV35" s="6"/>
+      <c r="MG35" s="6"/>
       <c r="MR35" s="2" t="s">
         <v>0</v>
       </c>
@@ -1954,6 +2120,8 @@
       <c r="IF36" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="IV36" s="6"/>
+      <c r="MG36" s="6"/>
       <c r="MR36" s="2" t="s">
         <v>0</v>
       </c>
@@ -1983,6 +2151,8 @@
       <c r="IF37" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="IV37" s="6"/>
+      <c r="MG37" s="6"/>
       <c r="MR37" s="2" t="s">
         <v>0</v>
       </c>
@@ -2000,6 +2170,8 @@
       <c r="IF38" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="IV38" s="6"/>
+      <c r="MG38" s="6"/>
       <c r="MR38" s="2" t="s">
         <v>0</v>
       </c>
@@ -2029,6 +2201,8 @@
       <c r="IF39" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="IV39" s="6"/>
+      <c r="MG39" s="6"/>
       <c r="MR39" s="2" t="s">
         <v>0</v>
       </c>
@@ -2046,6 +2220,8 @@
       <c r="IF40" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="IV40" s="6"/>
+      <c r="MG40" s="6"/>
       <c r="MR40" s="2" t="s">
         <v>0</v>
       </c>
@@ -2075,6 +2251,8 @@
       <c r="IF41" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="IV41" s="6"/>
+      <c r="MG41" s="6"/>
       <c r="MR41" s="2" t="s">
         <v>0</v>
       </c>
@@ -2092,6 +2270,8 @@
       <c r="IF42" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="IV42" s="6"/>
+      <c r="MG42" s="6"/>
       <c r="MR42" s="2" t="s">
         <v>0</v>
       </c>
@@ -2112,6 +2292,7 @@
       <c r="IG43" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="IV43" s="6"/>
       <c r="IY43" s="2" t="s">
         <v>0</v>
       </c>
@@ -2142,6 +2323,7 @@
       <c r="LY43" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="MG43" s="6"/>
       <c r="MQ43" s="2" t="s">
         <v>0</v>
       </c>
@@ -2177,6 +2359,7 @@
       <c r="IG44" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="IV44" s="6"/>
       <c r="IY44" s="2" t="s">
         <v>0</v>
       </c>
@@ -2210,6 +2393,7 @@
       <c r="LY44" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="MG44" s="6"/>
       <c r="MQ44" s="2" t="s">
         <v>0</v>
       </c>
@@ -2230,6 +2414,8 @@
       <c r="IF45" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="IV45" s="6"/>
+      <c r="MG45" s="6"/>
       <c r="MR45" s="2" t="s">
         <v>0</v>
       </c>
@@ -2259,6 +2445,8 @@
       <c r="IF46" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="IV46" s="6"/>
+      <c r="MG46" s="6"/>
       <c r="MR46" s="2" t="s">
         <v>0</v>
       </c>
@@ -2276,6 +2464,8 @@
       <c r="IF47" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="IV47" s="6"/>
+      <c r="MG47" s="6"/>
       <c r="MR47" s="2" t="s">
         <v>0</v>
       </c>
@@ -2295,8 +2485,9 @@
       </c>
       <c r="IT48" s="3"/>
       <c r="IU48" s="3"/>
-      <c r="IV48" s="3"/>
+      <c r="IV48" s="6"/>
       <c r="IW48" s="3"/>
+      <c r="MG48" s="6"/>
       <c r="MR48" s="2" t="s">
         <v>0</v>
       </c>
@@ -2328,8 +2519,9 @@
       </c>
       <c r="IT49" s="3"/>
       <c r="IU49" s="3"/>
-      <c r="IV49" s="3"/>
+      <c r="IV49" s="6"/>
       <c r="IW49" s="3"/>
+      <c r="MG49" s="6"/>
       <c r="MR49" s="2" t="s">
         <v>0</v>
       </c>
@@ -2349,8 +2541,9 @@
       </c>
       <c r="IT50" s="3"/>
       <c r="IU50" s="3"/>
-      <c r="IV50" s="3"/>
+      <c r="IV50" s="6"/>
       <c r="IW50" s="3"/>
+      <c r="MG50" s="6"/>
       <c r="MR50" s="2" t="s">
         <v>0</v>
       </c>
@@ -2382,8 +2575,9 @@
       </c>
       <c r="IT51" s="3"/>
       <c r="IU51" s="3"/>
-      <c r="IV51" s="3"/>
+      <c r="IV51" s="6"/>
       <c r="IW51" s="3"/>
+      <c r="MG51" s="6"/>
       <c r="MR51" s="2" t="s">
         <v>0</v>
       </c>
@@ -2403,8 +2597,9 @@
       </c>
       <c r="IT52" s="3"/>
       <c r="IU52" s="3"/>
-      <c r="IV52" s="3"/>
+      <c r="IV52" s="6"/>
       <c r="IW52" s="3"/>
+      <c r="MG52" s="6"/>
       <c r="MR52" s="2" t="s">
         <v>0</v>
       </c>
@@ -2436,8 +2631,9 @@
       </c>
       <c r="IT53" s="3"/>
       <c r="IU53" s="3"/>
-      <c r="IV53" s="3"/>
+      <c r="IV53" s="6"/>
       <c r="IW53" s="3"/>
+      <c r="MG53" s="6"/>
       <c r="MR53" s="2" t="s">
         <v>0</v>
       </c>
@@ -2457,8 +2653,9 @@
       </c>
       <c r="IT54" s="3"/>
       <c r="IU54" s="3"/>
-      <c r="IV54" s="3"/>
+      <c r="IV54" s="6"/>
       <c r="IW54" s="3"/>
+      <c r="MG54" s="6"/>
       <c r="MR54" s="2" t="s">
         <v>0</v>
       </c>
@@ -2478,8 +2675,9 @@
       </c>
       <c r="IT55" s="3"/>
       <c r="IU55" s="3"/>
-      <c r="IV55" s="3"/>
+      <c r="IV55" s="6"/>
       <c r="IW55" s="3"/>
+      <c r="MG55" s="6"/>
       <c r="MR55" s="2" t="s">
         <v>0</v>
       </c>
@@ -2511,8 +2709,9 @@
       </c>
       <c r="IT56" s="3"/>
       <c r="IU56" s="3"/>
-      <c r="IV56" s="3"/>
+      <c r="IV56" s="6"/>
       <c r="IW56" s="3"/>
+      <c r="MG56" s="6"/>
       <c r="MR56" s="2" t="s">
         <v>0</v>
       </c>
@@ -2532,11 +2731,9 @@
       </c>
       <c r="IT57" s="3"/>
       <c r="IU57" s="3"/>
-      <c r="IV57" s="3"/>
+      <c r="IV57" s="6"/>
       <c r="IW57" s="3"/>
-      <c r="KL57" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="MG57" s="6"/>
       <c r="MR57" s="2" t="s">
         <v>0</v>
       </c>
@@ -2568,8 +2765,9 @@
       </c>
       <c r="IT58" s="3"/>
       <c r="IU58" s="3"/>
-      <c r="IV58" s="3"/>
+      <c r="IV58" s="6"/>
       <c r="IW58" s="3"/>
+      <c r="MG58" s="6"/>
       <c r="MR58" s="2" t="s">
         <v>0</v>
       </c>
@@ -2589,8 +2787,9 @@
       </c>
       <c r="IT59" s="3"/>
       <c r="IU59" s="3"/>
-      <c r="IV59" s="3"/>
+      <c r="IV59" s="6"/>
       <c r="IW59" s="3"/>
+      <c r="MG59" s="6"/>
       <c r="MR59" s="2" t="s">
         <v>0</v>
       </c>
@@ -2610,8 +2809,9 @@
       </c>
       <c r="IT60" s="3"/>
       <c r="IU60" s="3"/>
-      <c r="IV60" s="3"/>
+      <c r="IV60" s="6"/>
       <c r="IW60" s="3"/>
+      <c r="MG60" s="6"/>
       <c r="MR60" s="2" t="s">
         <v>0</v>
       </c>
@@ -2643,8 +2843,9 @@
       </c>
       <c r="IT61" s="3"/>
       <c r="IU61" s="3"/>
-      <c r="IV61" s="3"/>
+      <c r="IV61" s="6"/>
       <c r="IW61" s="3"/>
+      <c r="MG61" s="6"/>
       <c r="MR61" s="2" t="s">
         <v>0</v>
       </c>
@@ -2667,8 +2868,9 @@
       </c>
       <c r="IT62" s="3"/>
       <c r="IU62" s="3"/>
-      <c r="IV62" s="3"/>
+      <c r="IV62" s="6"/>
       <c r="IW62" s="3"/>
+      <c r="MG62" s="6"/>
       <c r="MQ62" s="2" t="s">
         <v>0</v>
       </c>
@@ -2796,8 +2998,9 @@
       </c>
       <c r="IT63" s="3"/>
       <c r="IU63" s="3"/>
-      <c r="IV63" s="3"/>
+      <c r="IV63" s="6"/>
       <c r="IW63" s="3"/>
+      <c r="MG63" s="6"/>
       <c r="MQ63" s="2" t="s">
         <v>0</v>
       </c>
@@ -2837,8 +3040,9 @@
       <c r="IR64" s="3"/>
       <c r="IT64" s="3"/>
       <c r="IU64" s="3"/>
-      <c r="IV64" s="3"/>
+      <c r="IV64" s="6"/>
       <c r="IW64" s="3"/>
+      <c r="MG64" s="6"/>
       <c r="MQ64" s="2" t="s">
         <v>0</v>
       </c>
@@ -2883,12 +3087,16 @@
       <c r="IN65" s="3"/>
       <c r="IO65" s="3"/>
       <c r="IP65" s="3"/>
-      <c r="IQ65" s="3"/>
-      <c r="IR65" s="3"/>
-      <c r="IT65" s="3"/>
-      <c r="IU65" s="3"/>
-      <c r="IV65" s="3"/>
+      <c r="IQ65" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="IR65" s="6"/>
+      <c r="IS65" s="6"/>
+      <c r="IT65" s="6"/>
+      <c r="IU65" s="6"/>
+      <c r="IV65" s="6"/>
       <c r="IW65" s="3"/>
+      <c r="MG65" s="6"/>
       <c r="MR65" s="2" t="s">
         <v>0</v>
       </c>
@@ -2923,9 +3131,98 @@
       <c r="IS66" s="3"/>
       <c r="IT66" s="3"/>
       <c r="IU66" s="3"/>
-      <c r="IV66" s="3"/>
-      <c r="IW66" s="3"/>
-      <c r="IX66" s="3"/>
+      <c r="IV66" s="6"/>
+      <c r="IW66" s="6"/>
+      <c r="IX66" s="6"/>
+      <c r="IY66" s="6"/>
+      <c r="IZ66" s="6"/>
+      <c r="JA66" s="6"/>
+      <c r="JB66" s="6"/>
+      <c r="JC66" s="6"/>
+      <c r="JD66" s="6"/>
+      <c r="JE66" s="6"/>
+      <c r="JF66" s="6"/>
+      <c r="JG66" s="6"/>
+      <c r="JH66" s="6"/>
+      <c r="JI66" s="6"/>
+      <c r="JJ66" s="6"/>
+      <c r="JK66" s="6"/>
+      <c r="JL66" s="6"/>
+      <c r="JM66" s="6"/>
+      <c r="JN66" s="6"/>
+      <c r="JO66" s="6"/>
+      <c r="JP66" s="6"/>
+      <c r="JQ66" s="6"/>
+      <c r="JR66" s="6"/>
+      <c r="JS66" s="6"/>
+      <c r="JT66" s="6"/>
+      <c r="JU66" s="6"/>
+      <c r="JV66" s="6"/>
+      <c r="JW66" s="6"/>
+      <c r="JX66" s="6"/>
+      <c r="JY66" s="6"/>
+      <c r="JZ66" s="6"/>
+      <c r="KA66" s="6"/>
+      <c r="KB66" s="6"/>
+      <c r="KC66" s="6"/>
+      <c r="KD66" s="6"/>
+      <c r="KE66" s="6"/>
+      <c r="KF66" s="6"/>
+      <c r="KG66" s="6"/>
+      <c r="KH66" s="6"/>
+      <c r="KI66" s="6"/>
+      <c r="KJ66" s="6"/>
+      <c r="KK66" s="6"/>
+      <c r="KL66" s="6"/>
+      <c r="KM66" s="6"/>
+      <c r="KN66" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="KO66" s="6"/>
+      <c r="KP66" s="6"/>
+      <c r="KQ66" s="6"/>
+      <c r="KR66" s="6"/>
+      <c r="KS66" s="6"/>
+      <c r="KT66" s="6"/>
+      <c r="KU66" s="6"/>
+      <c r="KV66" s="6"/>
+      <c r="KW66" s="6"/>
+      <c r="KX66" s="6"/>
+      <c r="KY66" s="6"/>
+      <c r="KZ66" s="6"/>
+      <c r="LA66" s="6"/>
+      <c r="LB66" s="6"/>
+      <c r="LC66" s="6"/>
+      <c r="LD66" s="6"/>
+      <c r="LE66" s="6"/>
+      <c r="LF66" s="6"/>
+      <c r="LG66" s="6"/>
+      <c r="LH66" s="6"/>
+      <c r="LI66" s="6"/>
+      <c r="LJ66" s="6"/>
+      <c r="LK66" s="6"/>
+      <c r="LL66" s="6"/>
+      <c r="LM66" s="6"/>
+      <c r="LN66" s="6"/>
+      <c r="LO66" s="6"/>
+      <c r="LP66" s="6"/>
+      <c r="LQ66" s="6"/>
+      <c r="LR66" s="6"/>
+      <c r="LS66" s="6"/>
+      <c r="LT66" s="6"/>
+      <c r="LU66" s="6"/>
+      <c r="LV66" s="6"/>
+      <c r="LW66" s="6"/>
+      <c r="LX66" s="6"/>
+      <c r="LY66" s="6"/>
+      <c r="LZ66" s="6"/>
+      <c r="MA66" s="6"/>
+      <c r="MB66" s="6"/>
+      <c r="MC66" s="6"/>
+      <c r="MD66" s="6"/>
+      <c r="ME66" s="6"/>
+      <c r="MF66" s="6"/>
+      <c r="MG66" s="6"/>
       <c r="MR66" s="2" t="s">
         <v>0</v>
       </c>
@@ -2959,9 +3256,14 @@
       <c r="IS67" s="3"/>
       <c r="IT67" s="3"/>
       <c r="IU67" s="3"/>
-      <c r="IV67" s="3"/>
+      <c r="IV67" s="6"/>
       <c r="IW67" s="3"/>
       <c r="IX67" s="3"/>
+      <c r="KG67" s="6"/>
+      <c r="KN67" s="6"/>
+      <c r="KV67" s="6"/>
+      <c r="LM67" s="6"/>
+      <c r="MB67" s="6"/>
       <c r="MR67" s="2" t="s">
         <v>0</v>
       </c>
@@ -2999,9 +3301,6 @@
       </c>
       <c r="IF68" s="2" t="s">
         <v>0</v>
-      </c>
-      <c r="IJ68" s="1" t="s">
-        <v>1</v>
       </c>
       <c r="IQ68" s="2" t="s">
         <v>0</v>
@@ -3010,7 +3309,7 @@
       <c r="IS68" s="3"/>
       <c r="IT68" s="3"/>
       <c r="IU68" s="3"/>
-      <c r="IV68" s="3"/>
+      <c r="IV68" s="6"/>
       <c r="IW68" s="3"/>
       <c r="IX68" s="3"/>
       <c r="IY68" s="2" t="s">
@@ -3073,6 +3372,11 @@
       <c r="JR68" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="KG68" s="6"/>
+      <c r="KN68" s="6"/>
+      <c r="KV68" s="6"/>
+      <c r="LM68" s="6"/>
+      <c r="MB68" s="6"/>
       <c r="MR68" s="2" t="s">
         <v>0</v>
       </c>
@@ -3106,12 +3410,17 @@
       <c r="IS69" s="3"/>
       <c r="IT69" s="3"/>
       <c r="IU69" s="3"/>
-      <c r="IV69" s="3"/>
+      <c r="IV69" s="6"/>
       <c r="IW69" s="3"/>
       <c r="IX69" s="3"/>
       <c r="JR69" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="KG69" s="6"/>
+      <c r="KN69" s="6"/>
+      <c r="KV69" s="6"/>
+      <c r="LM69" s="6"/>
+      <c r="MB69" s="6"/>
       <c r="MR69" s="2" t="s">
         <v>0</v>
       </c>
@@ -3157,12 +3466,17 @@
       <c r="IS70" s="3"/>
       <c r="IT70" s="3"/>
       <c r="IU70" s="3"/>
-      <c r="IV70" s="3"/>
+      <c r="IV70" s="6"/>
       <c r="IW70" s="3"/>
       <c r="IX70" s="3"/>
       <c r="JR70" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="KG70" s="6"/>
+      <c r="KN70" s="6"/>
+      <c r="KV70" s="6"/>
+      <c r="LM70" s="6"/>
+      <c r="MB70" s="6"/>
       <c r="MR70" s="2" t="s">
         <v>0</v>
       </c>
@@ -3196,12 +3510,17 @@
       <c r="IS71" s="3"/>
       <c r="IT71" s="3"/>
       <c r="IU71" s="3"/>
-      <c r="IV71" s="3"/>
+      <c r="IV71" s="6"/>
       <c r="IW71" s="3"/>
       <c r="IX71" s="3"/>
       <c r="JR71" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="KG71" s="6"/>
+      <c r="KN71" s="6"/>
+      <c r="KV71" s="6"/>
+      <c r="LM71" s="6"/>
+      <c r="MB71" s="6"/>
       <c r="MR71" s="2" t="s">
         <v>0</v>
       </c>
@@ -3235,18 +3554,21 @@
       <c r="IS72" s="3"/>
       <c r="IT72" s="3"/>
       <c r="IU72" s="3"/>
-      <c r="IV72" s="3"/>
+      <c r="IV72" s="6"/>
       <c r="IW72" s="3"/>
       <c r="IX72" s="3"/>
       <c r="JR72" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="KG72" s="6"/>
+      <c r="KN72" s="6"/>
       <c r="KU72" s="3"/>
-      <c r="KV72" s="3"/>
+      <c r="KV72" s="6"/>
       <c r="KW72" s="3"/>
       <c r="LL72" s="3"/>
-      <c r="LM72" s="3"/>
+      <c r="LM72" s="6"/>
       <c r="LN72" s="3"/>
+      <c r="MB72" s="6"/>
       <c r="MR72" s="2" t="s">
         <v>0</v>
       </c>
@@ -3322,7 +3644,7 @@
       <c r="IS73" s="3"/>
       <c r="IT73" s="3"/>
       <c r="IU73" s="3"/>
-      <c r="IV73" s="3"/>
+      <c r="IV73" s="6"/>
       <c r="IW73" s="3"/>
       <c r="IX73" s="3"/>
       <c r="IY73" s="2" t="s">
@@ -3427,7 +3749,7 @@
       <c r="KF73" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="KG73" s="3"/>
+      <c r="KG73" s="6"/>
       <c r="KH73" s="3"/>
       <c r="KI73" s="2" t="s">
         <v>0</v>
@@ -3444,6 +3766,7 @@
       <c r="KM73" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="KN73" s="6"/>
       <c r="KP73" s="2" t="s">
         <v>0</v>
       </c>
@@ -3460,7 +3783,7 @@
         <v>0</v>
       </c>
       <c r="KU73" s="3"/>
-      <c r="KV73" s="3"/>
+      <c r="KV73" s="6"/>
       <c r="KW73" s="3"/>
       <c r="KX73" s="2" t="s">
         <v>0</v>
@@ -3505,7 +3828,7 @@
         <v>0</v>
       </c>
       <c r="LL73" s="3"/>
-      <c r="LM73" s="3"/>
+      <c r="LM73" s="6"/>
       <c r="LN73" s="3"/>
       <c r="LO73" s="2" t="s">
         <v>0</v>
@@ -3537,6 +3860,7 @@
       <c r="LX73" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="MB73" s="6"/>
       <c r="MR73" s="2" t="s">
         <v>0</v>
       </c>
@@ -3564,7 +3888,7 @@
       <c r="IS74" s="3"/>
       <c r="IT74" s="3"/>
       <c r="IU74" s="3"/>
-      <c r="IV74" s="3"/>
+      <c r="IV74" s="6"/>
       <c r="IW74" s="3"/>
       <c r="IX74" s="3"/>
       <c r="IY74" s="2" t="s">
@@ -3628,6 +3952,7 @@
       <c r="LX74" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="MB74" s="6"/>
       <c r="MR74" s="2" t="s">
         <v>0</v>
       </c>
@@ -3655,7 +3980,7 @@
       <c r="IS75" s="3"/>
       <c r="IT75" s="3"/>
       <c r="IU75" s="3"/>
-      <c r="IV75" s="3"/>
+      <c r="IV75" s="6"/>
       <c r="IW75" s="3"/>
       <c r="IX75" s="3"/>
       <c r="IY75" s="2" t="s">
@@ -3719,6 +4044,7 @@
       <c r="LX75" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="MB75" s="6"/>
       <c r="MR75" s="2" t="s">
         <v>0</v>
       </c>
@@ -3744,7 +4070,7 @@
       </c>
       <c r="IT76" s="3"/>
       <c r="IU76" s="3"/>
-      <c r="IV76" s="3"/>
+      <c r="IV76" s="6"/>
       <c r="IW76" s="3"/>
       <c r="IY76" s="2" t="s">
         <v>0</v>
@@ -3804,6 +4130,7 @@
       <c r="LX76" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="MB76" s="6"/>
       <c r="MR76" s="2" t="s">
         <v>0</v>
       </c>
@@ -3829,7 +4156,7 @@
       </c>
       <c r="IT77" s="3"/>
       <c r="IU77" s="3"/>
-      <c r="IV77" s="3"/>
+      <c r="IV77" s="6"/>
       <c r="IW77" s="3"/>
       <c r="IY77" s="3"/>
       <c r="IZ77" s="3"/>
@@ -3887,6 +4214,7 @@
       <c r="LX77" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="MB77" s="6"/>
       <c r="MR77" s="2" t="s">
         <v>0</v>
       </c>
@@ -3921,9 +4249,10 @@
       </c>
       <c r="IT78" s="3"/>
       <c r="IU78" s="3"/>
-      <c r="IV78" s="3"/>
-      <c r="IW78" s="3"/>
-      <c r="IY78" s="3"/>
+      <c r="IV78" s="6"/>
+      <c r="IW78" s="6"/>
+      <c r="IX78" s="6"/>
+      <c r="IY78" s="6"/>
       <c r="IZ78" s="3"/>
       <c r="JA78" s="3"/>
       <c r="JB78" s="3"/>
@@ -3979,6 +4308,7 @@
       <c r="LX78" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="MB78" s="6"/>
       <c r="MR78" s="2" t="s">
         <v>0</v>
       </c>
@@ -4014,7 +4344,7 @@
       </c>
       <c r="IT79" s="3"/>
       <c r="IU79" s="3"/>
-      <c r="IV79" s="3"/>
+      <c r="IV79" s="6"/>
       <c r="IW79" s="3"/>
       <c r="IY79" s="3"/>
       <c r="IZ79" s="3"/>
@@ -4072,6 +4402,7 @@
       <c r="LX79" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="MB79" s="6"/>
       <c r="MR79" s="2" t="s">
         <v>0</v>
       </c>
@@ -4093,7 +4424,7 @@
         <v>0</v>
       </c>
       <c r="GM80" s="3"/>
-      <c r="GN80" s="3"/>
+      <c r="GN80" s="6"/>
       <c r="GO80" s="3"/>
       <c r="GP80" s="3"/>
       <c r="GQ80" s="2" t="s">
@@ -4122,7 +4453,7 @@
       </c>
       <c r="IT80" s="3"/>
       <c r="IU80" s="3"/>
-      <c r="IV80" s="3"/>
+      <c r="IV80" s="6"/>
       <c r="IW80" s="3"/>
       <c r="IY80" s="2" t="s">
         <v>0</v>
@@ -4179,6 +4510,7 @@
       <c r="LX80" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="MB80" s="6"/>
       <c r="MR80" s="2" t="s">
         <v>0</v>
       </c>
@@ -4197,7 +4529,7 @@
         <v>0</v>
       </c>
       <c r="GM81" s="3"/>
-      <c r="GN81" s="3"/>
+      <c r="GN81" s="6"/>
       <c r="GO81" s="3"/>
       <c r="GP81" s="3"/>
       <c r="GQ81" s="2" t="s">
@@ -4223,7 +4555,7 @@
       </c>
       <c r="IT81" s="3"/>
       <c r="IU81" s="3"/>
-      <c r="IV81" s="3"/>
+      <c r="IV81" s="6"/>
       <c r="IW81" s="3"/>
       <c r="IY81" s="2" t="s">
         <v>0</v>
@@ -4283,7 +4615,7 @@
       <c r="LY81" s="3"/>
       <c r="LZ81" s="3"/>
       <c r="MA81" s="3"/>
-      <c r="MB81" s="3"/>
+      <c r="MB81" s="6"/>
       <c r="MC81" s="3"/>
       <c r="MD81" s="3"/>
       <c r="ME81" s="3"/>
@@ -4309,7 +4641,7 @@
         <v>0</v>
       </c>
       <c r="GM82" s="3"/>
-      <c r="GN82" s="3"/>
+      <c r="GN82" s="6"/>
       <c r="GO82" s="3"/>
       <c r="GP82" s="3"/>
       <c r="GQ82" s="2" t="s">
@@ -4335,7 +4667,7 @@
       <c r="IS82" s="3"/>
       <c r="IT82" s="3"/>
       <c r="IU82" s="3"/>
-      <c r="IV82" s="3"/>
+      <c r="IV82" s="6"/>
       <c r="IW82" s="3"/>
       <c r="IX82" s="3"/>
       <c r="IY82" s="2" t="s">
@@ -4399,7 +4731,7 @@
       <c r="LY82" s="3"/>
       <c r="LZ82" s="3"/>
       <c r="MA82" s="3"/>
-      <c r="MB82" s="3"/>
+      <c r="MB82" s="6"/>
       <c r="MC82" s="3"/>
       <c r="MD82" s="3"/>
       <c r="ME82" s="3"/>
@@ -4803,7 +5135,7 @@
         <v>0</v>
       </c>
       <c r="GM83" s="3"/>
-      <c r="GN83" s="3"/>
+      <c r="GN83" s="6"/>
       <c r="GO83" s="3"/>
       <c r="GP83" s="3"/>
       <c r="GQ83" s="2" t="s">
@@ -4940,7 +5272,7 @@
       <c r="IS83" s="3"/>
       <c r="IT83" s="3"/>
       <c r="IU83" s="3"/>
-      <c r="IV83" s="3"/>
+      <c r="IV83" s="6"/>
       <c r="IW83" s="3"/>
       <c r="IX83" s="3"/>
       <c r="IY83" s="2" t="s">
@@ -5007,7 +5339,7 @@
       <c r="LY83" s="3"/>
       <c r="LZ83" s="3"/>
       <c r="MA83" s="3"/>
-      <c r="MB83" s="3"/>
+      <c r="MB83" s="6"/>
       <c r="MC83" s="3"/>
       <c r="MD83" s="3"/>
       <c r="ME83" s="3"/>
@@ -5467,6 +5799,7 @@
       <c r="GL84" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="GN84" s="6"/>
       <c r="GQ84" s="2" t="s">
         <v>0</v>
       </c>
@@ -5628,7 +5961,7 @@
       <c r="IS84" s="3"/>
       <c r="IT84" s="3"/>
       <c r="IU84" s="3"/>
-      <c r="IV84" s="3"/>
+      <c r="IV84" s="6"/>
       <c r="IW84" s="3"/>
       <c r="IX84" s="3"/>
       <c r="IY84" s="5" t="s">
@@ -5868,7 +6201,7 @@
       <c r="LY84" s="3"/>
       <c r="LZ84" s="3"/>
       <c r="MA84" s="3"/>
-      <c r="MB84" s="3"/>
+      <c r="MB84" s="6"/>
       <c r="MC84" s="3"/>
       <c r="MD84" s="3"/>
       <c r="ME84" s="3"/>
@@ -6010,6 +6343,7 @@
       <c r="GL85" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="GN85" s="6"/>
       <c r="GR85" s="2" t="s">
         <v>0</v>
       </c>
@@ -6057,7 +6391,7 @@
       <c r="IS85" s="3"/>
       <c r="IT85" s="3"/>
       <c r="IU85" s="3"/>
-      <c r="IV85" s="3"/>
+      <c r="IV85" s="6"/>
       <c r="IW85" s="3"/>
       <c r="IX85" s="3"/>
       <c r="IY85" s="5" t="s">
@@ -6099,7 +6433,7 @@
       <c r="LY85" s="3"/>
       <c r="LZ85" s="3"/>
       <c r="MA85" s="3"/>
-      <c r="MB85" s="3"/>
+      <c r="MB85" s="6"/>
       <c r="MC85" s="3"/>
       <c r="MD85" s="3"/>
       <c r="ME85" s="3"/>
@@ -6139,6 +6473,7 @@
       <c r="GL86" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="GN86" s="6"/>
       <c r="GR86" s="2" t="s">
         <v>0</v>
       </c>
@@ -6168,7 +6503,7 @@
       <c r="IS86" s="3"/>
       <c r="IT86" s="3"/>
       <c r="IU86" s="3"/>
-      <c r="IV86" s="3"/>
+      <c r="IV86" s="6"/>
       <c r="IW86" s="3"/>
       <c r="IX86" s="3"/>
       <c r="IY86" s="4" t="s">
@@ -6207,7 +6542,7 @@
       <c r="LY86" s="3"/>
       <c r="LZ86" s="3"/>
       <c r="MA86" s="3"/>
-      <c r="MB86" s="3"/>
+      <c r="MB86" s="6"/>
       <c r="MC86" s="3"/>
       <c r="MD86" s="3"/>
       <c r="ME86" s="3"/>
@@ -6241,6 +6576,7 @@
       <c r="GL87" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="GN87" s="6"/>
       <c r="GR87" s="2" t="s">
         <v>0</v>
       </c>
@@ -6270,7 +6606,7 @@
       <c r="IS87" s="3"/>
       <c r="IT87" s="3"/>
       <c r="IU87" s="3"/>
-      <c r="IV87" s="3"/>
+      <c r="IV87" s="6"/>
       <c r="IW87" s="3"/>
       <c r="IX87" s="3"/>
       <c r="IY87" s="4" t="s">
@@ -6309,7 +6645,7 @@
       <c r="LY87" s="3"/>
       <c r="LZ87" s="3"/>
       <c r="MA87" s="3"/>
-      <c r="MB87" s="3"/>
+      <c r="MB87" s="6"/>
       <c r="MC87" s="3"/>
       <c r="MD87" s="3"/>
       <c r="ME87" s="3"/>
@@ -6343,6 +6679,7 @@
       <c r="GL88" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="GN88" s="6"/>
       <c r="GR88" s="2" t="s">
         <v>0</v>
       </c>
@@ -6372,7 +6709,7 @@
       <c r="IS88" s="3"/>
       <c r="IT88" s="3"/>
       <c r="IU88" s="3"/>
-      <c r="IV88" s="3"/>
+      <c r="IV88" s="6"/>
       <c r="IW88" s="3"/>
       <c r="IX88" s="3"/>
       <c r="IY88" s="5" t="s">
@@ -6438,6 +6775,7 @@
       <c r="LE88" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="MB88" s="6"/>
       <c r="NJ88" s="2" t="s">
         <v>0</v>
       </c>
@@ -6491,6 +6829,7 @@
       <c r="GL89" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="GN89" s="6"/>
       <c r="GR89" s="2" t="s">
         <v>0</v>
       </c>
@@ -6547,7 +6886,7 @@
       <c r="IS89" s="3"/>
       <c r="IT89" s="3"/>
       <c r="IU89" s="3"/>
-      <c r="IV89" s="3"/>
+      <c r="IV89" s="6"/>
       <c r="IW89" s="3"/>
       <c r="IX89" s="3"/>
       <c r="IY89" s="2" t="s">
@@ -6619,6 +6958,7 @@
       <c r="LE89" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="MB89" s="6"/>
       <c r="NJ89" s="2" t="s">
         <v>0</v>
       </c>
@@ -6672,6 +7012,7 @@
       <c r="GL90" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="GN90" s="6"/>
       <c r="GR90" s="2" t="s">
         <v>0</v>
       </c>
@@ -6731,7 +7072,7 @@
       <c r="IS90" s="3"/>
       <c r="IT90" s="3"/>
       <c r="IU90" s="3"/>
-      <c r="IV90" s="3"/>
+      <c r="IV90" s="6"/>
       <c r="IW90" s="3"/>
       <c r="IX90" s="3"/>
       <c r="IY90" s="2" t="s">
@@ -6755,6 +7096,7 @@
       <c r="LE90" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="MB90" s="6"/>
       <c r="NJ90" s="2" t="s">
         <v>0</v>
       </c>
@@ -6778,6 +7120,7 @@
       <c r="GK91" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="GN91" s="6"/>
       <c r="GR91" s="2" t="s">
         <v>0</v>
       </c>
@@ -6798,7 +7141,7 @@
       <c r="IS91" s="3"/>
       <c r="IT91" s="3"/>
       <c r="IU91" s="3"/>
-      <c r="IV91" s="3"/>
+      <c r="IV91" s="6"/>
       <c r="IW91" s="3"/>
       <c r="IX91" s="3"/>
       <c r="IY91" s="2" t="s">
@@ -6822,6 +7165,7 @@
       <c r="LE91" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="MB91" s="6"/>
       <c r="NJ91" s="2" t="s">
         <v>0</v>
       </c>
@@ -6845,14 +7189,12 @@
       <c r="GK92" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="GN92" s="6"/>
       <c r="GR92" s="2" t="s">
         <v>0</v>
       </c>
       <c r="HD92" s="2" t="s">
         <v>0</v>
-      </c>
-      <c r="HG92" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="HM92" s="2" t="s">
         <v>0</v>
@@ -6865,7 +7207,7 @@
       </c>
       <c r="IT92" s="3"/>
       <c r="IU92" s="3"/>
-      <c r="IV92" s="3"/>
+      <c r="IV92" s="6"/>
       <c r="IW92" s="3"/>
       <c r="IY92" s="2" t="s">
         <v>0</v>
@@ -6888,6 +7230,7 @@
       <c r="LE92" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="MB92" s="6"/>
       <c r="NJ92" s="2" t="s">
         <v>0</v>
       </c>
@@ -6914,6 +7257,7 @@
       <c r="GK93" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="GN93" s="6"/>
       <c r="GR93" s="2" t="s">
         <v>0</v>
       </c>
@@ -6931,7 +7275,7 @@
       </c>
       <c r="IT93" s="3"/>
       <c r="IU93" s="3"/>
-      <c r="IV93" s="3"/>
+      <c r="IV93" s="6"/>
       <c r="IW93" s="3"/>
       <c r="IY93" s="2" t="s">
         <v>0</v>
@@ -6948,6 +7292,7 @@
       <c r="LE93" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="MB93" s="6"/>
       <c r="NJ93" s="2" t="s">
         <v>0</v>
       </c>
@@ -6974,6 +7319,7 @@
       <c r="GK94" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="GN94" s="6"/>
       <c r="GR94" s="2" t="s">
         <v>0</v>
       </c>
@@ -6991,7 +7337,7 @@
       </c>
       <c r="IT94" s="3"/>
       <c r="IU94" s="3"/>
-      <c r="IV94" s="3"/>
+      <c r="IV94" s="6"/>
       <c r="IW94" s="3"/>
       <c r="IY94" s="2" t="s">
         <v>0</v>
@@ -7065,6 +7411,7 @@
       <c r="LE94" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="MB94" s="6"/>
       <c r="NJ94" s="2" t="s">
         <v>0</v>
       </c>
@@ -7082,6 +7429,61 @@
       <c r="BP95" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="CF95" s="6"/>
+      <c r="CG95" s="6"/>
+      <c r="CH95" s="6"/>
+      <c r="CI95" s="6"/>
+      <c r="CJ95" s="6"/>
+      <c r="CK95" s="6"/>
+      <c r="CL95" s="6"/>
+      <c r="CM95" s="6"/>
+      <c r="CN95" s="6"/>
+      <c r="CO95" s="6"/>
+      <c r="CP95" s="6"/>
+      <c r="CQ95" s="6"/>
+      <c r="CR95" s="6"/>
+      <c r="CS95" s="6"/>
+      <c r="CT95" s="6"/>
+      <c r="CU95" s="6"/>
+      <c r="CV95" s="6"/>
+      <c r="CW95" s="6"/>
+      <c r="CX95" s="6"/>
+      <c r="CY95" s="6"/>
+      <c r="CZ95" s="6"/>
+      <c r="DA95" s="6"/>
+      <c r="DB95" s="6"/>
+      <c r="DC95" s="6"/>
+      <c r="DD95" s="6"/>
+      <c r="DE95" s="6"/>
+      <c r="DF95" s="6"/>
+      <c r="DG95" s="6"/>
+      <c r="DH95" s="6"/>
+      <c r="DI95" s="6"/>
+      <c r="DJ95" s="6"/>
+      <c r="DK95" s="6"/>
+      <c r="DL95" s="6"/>
+      <c r="DM95" s="6"/>
+      <c r="DN95" s="6"/>
+      <c r="DO95" s="6"/>
+      <c r="DP95" s="6"/>
+      <c r="DQ95" s="6"/>
+      <c r="DR95" s="6"/>
+      <c r="DS95" s="6"/>
+      <c r="DT95" s="6"/>
+      <c r="DU95" s="6"/>
+      <c r="DV95" s="6"/>
+      <c r="DW95" s="6"/>
+      <c r="DX95" s="6"/>
+      <c r="DY95" s="6"/>
+      <c r="DZ95" s="6"/>
+      <c r="EA95" s="6"/>
+      <c r="EB95" s="6"/>
+      <c r="EC95" s="6"/>
+      <c r="ED95" s="6"/>
+      <c r="EE95" s="6"/>
+      <c r="EF95" s="6"/>
+      <c r="EG95" s="6"/>
+      <c r="EH95" s="6"/>
       <c r="EN95" s="2" t="s">
         <v>0</v>
       </c>
@@ -7091,6 +7493,7 @@
       <c r="GK95" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="GN95" s="6"/>
       <c r="GR95" s="2" t="s">
         <v>0</v>
       </c>
@@ -7117,7 +7520,7 @@
       </c>
       <c r="IT95" s="3"/>
       <c r="IU95" s="3"/>
-      <c r="IV95" s="3"/>
+      <c r="IV95" s="6"/>
       <c r="IW95" s="3"/>
       <c r="IY95" s="2" t="s">
         <v>0</v>
@@ -7134,6 +7537,7 @@
       <c r="LE95" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="MB95" s="6"/>
       <c r="NJ95" s="2" t="s">
         <v>0</v>
       </c>
@@ -7151,6 +7555,8 @@
       <c r="BP96" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="CF96" s="6"/>
+      <c r="EH96" s="6"/>
       <c r="EN96" s="2" t="s">
         <v>0</v>
       </c>
@@ -7160,6 +7566,7 @@
       <c r="GK96" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="GN96" s="6"/>
       <c r="GR96" s="2" t="s">
         <v>0</v>
       </c>
@@ -7189,7 +7596,7 @@
       </c>
       <c r="IT96" s="3"/>
       <c r="IU96" s="3"/>
-      <c r="IV96" s="3"/>
+      <c r="IV96" s="6"/>
       <c r="IW96" s="3"/>
       <c r="IY96" s="2" t="s">
         <v>0</v>
@@ -7206,6 +7613,7 @@
       <c r="LE96" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="MB96" s="6"/>
       <c r="NJ96" s="2" t="s">
         <v>0</v>
       </c>
@@ -7220,18 +7628,18 @@
       <c r="BP97" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="CF97" s="6"/>
+      <c r="EH97" s="6"/>
       <c r="EN97" s="2" t="s">
         <v>0</v>
       </c>
       <c r="GA97" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="GF97" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="GK97" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="GN97" s="6"/>
       <c r="GR97" s="2" t="s">
         <v>0</v>
       </c>
@@ -7263,7 +7671,7 @@
         <v>0</v>
       </c>
       <c r="HS97" s="3"/>
-      <c r="HT97" s="3"/>
+      <c r="HT97" s="6"/>
       <c r="HU97" s="3"/>
       <c r="HV97" s="2" t="s">
         <v>0</v>
@@ -7302,7 +7710,7 @@
         <v>0</v>
       </c>
       <c r="IH97" s="3"/>
-      <c r="II97" s="3"/>
+      <c r="II97" s="6"/>
       <c r="IJ97" s="3"/>
       <c r="IK97" s="2" t="s">
         <v>0</v>
@@ -7324,7 +7732,7 @@
       </c>
       <c r="IT97" s="3"/>
       <c r="IU97" s="3"/>
-      <c r="IV97" s="3"/>
+      <c r="IV97" s="6"/>
       <c r="IW97" s="3"/>
       <c r="IY97" s="2" t="s">
         <v>0</v>
@@ -7341,6 +7749,7 @@
       <c r="LE97" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="MB97" s="6"/>
       <c r="NJ97" s="2" t="s">
         <v>0</v>
       </c>
@@ -7355,12 +7764,15 @@
       <c r="BP98" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="CF98" s="6"/>
+      <c r="EH98" s="6"/>
       <c r="GA98" s="2" t="s">
         <v>0</v>
       </c>
       <c r="GK98" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="GN98" s="6"/>
       <c r="GR98" s="2" t="s">
         <v>0</v>
       </c>
@@ -7368,7 +7780,9 @@
         <v>0</v>
       </c>
       <c r="HI98" s="3"/>
-      <c r="HJ98" s="3"/>
+      <c r="HJ98" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="HK98" s="3"/>
       <c r="HL98" s="2" t="s">
         <v>0</v>
@@ -7376,6 +7790,8 @@
       <c r="HM98" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="HT98" s="6"/>
+      <c r="II98" s="6"/>
       <c r="IL98" s="3"/>
       <c r="IM98" s="3"/>
       <c r="IN98" s="3"/>
@@ -7384,7 +7800,7 @@
       <c r="IQ98" s="3"/>
       <c r="IT98" s="3"/>
       <c r="IU98" s="3"/>
-      <c r="IV98" s="3"/>
+      <c r="IV98" s="6"/>
       <c r="IW98" s="3"/>
       <c r="IY98" s="2" t="s">
         <v>0</v>
@@ -7401,6 +7817,7 @@
       <c r="LE98" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="MB98" s="6"/>
       <c r="NJ98" s="2" t="s">
         <v>0</v>
       </c>
@@ -7415,6 +7832,8 @@
       <c r="BP99" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="CF99" s="6"/>
+      <c r="EH99" s="6"/>
       <c r="GA99" s="2" t="s">
         <v>0</v>
       </c>
@@ -7424,6 +7843,7 @@
       <c r="GK99" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="GN99" s="6"/>
       <c r="GR99" s="2" t="s">
         <v>0</v>
       </c>
@@ -7438,7 +7858,7 @@
         <v>0</v>
       </c>
       <c r="HI99" s="3"/>
-      <c r="HJ99" s="3"/>
+      <c r="HJ99" s="6"/>
       <c r="HK99" s="3"/>
       <c r="HL99" s="3"/>
       <c r="HM99" s="3"/>
@@ -7447,6 +7867,8 @@
       <c r="HP99" s="3"/>
       <c r="HQ99" s="3"/>
       <c r="HR99" s="3"/>
+      <c r="HT99" s="6"/>
+      <c r="II99" s="6"/>
       <c r="IL99" s="3"/>
       <c r="IM99" s="3"/>
       <c r="IN99" s="3"/>
@@ -7455,7 +7877,7 @@
       <c r="IQ99" s="3"/>
       <c r="IT99" s="3"/>
       <c r="IU99" s="3"/>
-      <c r="IV99" s="3"/>
+      <c r="IV99" s="6"/>
       <c r="IW99" s="3"/>
       <c r="IY99" s="2" t="s">
         <v>0</v>
@@ -7472,6 +7894,7 @@
       <c r="LE99" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="MB99" s="6"/>
       <c r="NJ99" s="2" t="s">
         <v>0</v>
       </c>
@@ -7486,6 +7909,8 @@
       <c r="BP100" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="CF100" s="6"/>
+      <c r="EH100" s="6"/>
       <c r="GA100" s="2" t="s">
         <v>0</v>
       </c>
@@ -7495,6 +7920,7 @@
       <c r="GK100" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="GN100" s="6"/>
       <c r="GR100" s="2" t="s">
         <v>0</v>
       </c>
@@ -7512,29 +7938,45 @@
         <v>0</v>
       </c>
       <c r="HI100" s="3"/>
-      <c r="HJ100" s="3"/>
-      <c r="HK100" s="3"/>
-      <c r="HL100" s="3"/>
-      <c r="HM100" s="3"/>
-      <c r="HN100" s="3"/>
-      <c r="HO100" s="3"/>
-      <c r="HP100" s="3"/>
-      <c r="HQ100" s="3"/>
-      <c r="HR100" s="3"/>
-      <c r="IE100" s="3"/>
-      <c r="IF100" s="3"/>
-      <c r="IG100" s="3"/>
-      <c r="IH100" s="3"/>
-      <c r="II100" s="3"/>
-      <c r="IL100" s="3"/>
-      <c r="IM100" s="3"/>
-      <c r="IN100" s="3"/>
-      <c r="IO100" s="3"/>
-      <c r="IP100" s="3"/>
-      <c r="IQ100" s="3"/>
-      <c r="IT100" s="3"/>
-      <c r="IU100" s="3"/>
-      <c r="IV100" s="3"/>
+      <c r="HJ100" s="6"/>
+      <c r="HK100" s="6"/>
+      <c r="HL100" s="6"/>
+      <c r="HM100" s="6"/>
+      <c r="HN100" s="6"/>
+      <c r="HO100" s="6"/>
+      <c r="HP100" s="6"/>
+      <c r="HQ100" s="6"/>
+      <c r="HR100" s="6"/>
+      <c r="HS100" s="6"/>
+      <c r="HT100" s="6"/>
+      <c r="HU100" s="6"/>
+      <c r="HV100" s="6"/>
+      <c r="HW100" s="6"/>
+      <c r="HX100" s="6"/>
+      <c r="HY100" s="6"/>
+      <c r="HZ100" s="6"/>
+      <c r="IA100" s="6"/>
+      <c r="IB100" s="6"/>
+      <c r="IC100" s="6"/>
+      <c r="ID100" s="6"/>
+      <c r="IE100" s="6"/>
+      <c r="IF100" s="6"/>
+      <c r="IG100" s="6"/>
+      <c r="IH100" s="6"/>
+      <c r="II100" s="6"/>
+      <c r="IJ100" s="6"/>
+      <c r="IK100" s="6"/>
+      <c r="IL100" s="6"/>
+      <c r="IM100" s="6"/>
+      <c r="IN100" s="6"/>
+      <c r="IO100" s="6"/>
+      <c r="IP100" s="6"/>
+      <c r="IQ100" s="6"/>
+      <c r="IR100" s="6"/>
+      <c r="IS100" s="6"/>
+      <c r="IT100" s="6"/>
+      <c r="IU100" s="6"/>
+      <c r="IV100" s="6"/>
       <c r="IW100" s="3"/>
       <c r="IY100" s="2" t="s">
         <v>0</v>
@@ -7555,6 +7997,7 @@
       <c r="LE100" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="MB100" s="6"/>
       <c r="NJ100" s="2" t="s">
         <v>0</v>
       </c>
@@ -7572,6 +8015,7 @@
       <c r="BP101" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="CF101" s="6"/>
       <c r="CI101" s="2" t="s">
         <v>0</v>
       </c>
@@ -7581,6 +8025,7 @@
       <c r="DU101" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="EH101" s="6"/>
       <c r="EN101" s="2" t="s">
         <v>0</v>
       </c>
@@ -7599,6 +8044,7 @@
       <c r="GJ101" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="GN101" s="6"/>
       <c r="GR101" s="2" t="s">
         <v>0</v>
       </c>
@@ -7618,6 +8064,8 @@
       <c r="HG101" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="HJ101" s="6"/>
+      <c r="HK101" s="6"/>
       <c r="HL101" s="3"/>
       <c r="HM101" s="3"/>
       <c r="HN101" s="3"/>
@@ -7638,7 +8086,7 @@
       <c r="IQ101" s="3"/>
       <c r="IT101" s="3"/>
       <c r="IU101" s="3"/>
-      <c r="IV101" s="3"/>
+      <c r="IV101" s="6"/>
       <c r="IW101" s="3"/>
       <c r="IY101" s="2" t="s">
         <v>0</v>
@@ -7665,6 +8113,7 @@
       <c r="LX101" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="MB101" s="6"/>
       <c r="MQ101" s="2" t="s">
         <v>0</v>
       </c>
@@ -7688,6 +8137,7 @@
       <c r="BP102" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="CF102" s="6"/>
       <c r="CH102" s="2" t="s">
         <v>0</v>
       </c>
@@ -7712,6 +8162,7 @@
       <c r="DV102" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="EH102" s="6"/>
       <c r="EN102" s="2" t="s">
         <v>0</v>
       </c>
@@ -7736,6 +8187,7 @@
       <c r="GI102" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="GN102" s="6"/>
       <c r="GR102" s="2" t="s">
         <v>0</v>
       </c>
@@ -7761,6 +8213,8 @@
       <c r="HF102" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="HI102" s="6"/>
+      <c r="HJ102" s="6"/>
       <c r="HL102" s="3"/>
       <c r="HM102" s="3"/>
       <c r="HN102" s="3"/>
@@ -7781,7 +8235,7 @@
       <c r="IQ102" s="3"/>
       <c r="IT102" s="3"/>
       <c r="IU102" s="3"/>
-      <c r="IV102" s="3"/>
+      <c r="IV102" s="6"/>
       <c r="IW102" s="3"/>
       <c r="IY102" s="2" t="s">
         <v>0</v>
@@ -7805,9 +8259,6 @@
         <v>0</v>
       </c>
       <c r="KT102" s="3"/>
-      <c r="KU102" s="3" t="s">
-        <v>7</v>
-      </c>
       <c r="KV102" s="3"/>
       <c r="KW102" s="3"/>
       <c r="LD102" s="2" t="s">
@@ -7825,6 +8276,7 @@
       <c r="LY102" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="MB102" s="6"/>
       <c r="MQ102" s="2" t="s">
         <v>0</v>
       </c>
@@ -7848,6 +8300,7 @@
       <c r="BP103" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="CF103" s="6"/>
       <c r="CH103" s="2" t="s">
         <v>0</v>
       </c>
@@ -7872,6 +8325,7 @@
       <c r="DV103" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="EH103" s="6"/>
       <c r="EN103" s="2" t="s">
         <v>0</v>
       </c>
@@ -7897,7 +8351,9 @@
         <v>0</v>
       </c>
       <c r="GD103" s="3"/>
-      <c r="GE103" s="3"/>
+      <c r="GE103" s="6" t="s">
+        <v>18</v>
+      </c>
       <c r="GF103" s="3"/>
       <c r="GG103" s="2" t="s">
         <v>0</v>
@@ -7905,6 +8361,7 @@
       <c r="GH103" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="GN103" s="6"/>
       <c r="GS103" s="2" t="s">
         <v>0</v>
       </c>
@@ -7925,7 +8382,7 @@
       </c>
       <c r="GY103" s="3"/>
       <c r="GZ103" s="3"/>
-      <c r="HA103" s="3"/>
+      <c r="HA103" s="6"/>
       <c r="HB103" s="3"/>
       <c r="HC103" s="2" t="s">
         <v>0</v>
@@ -7936,6 +8393,9 @@
       <c r="HE103" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="HH103" s="6"/>
+      <c r="HI103" s="6"/>
+      <c r="HJ103" s="6"/>
       <c r="HL103" s="2" t="s">
         <v>0</v>
       </c>
@@ -8037,7 +8497,7 @@
       </c>
       <c r="IT103" s="3"/>
       <c r="IU103" s="3"/>
-      <c r="IV103" s="3"/>
+      <c r="IV103" s="6"/>
       <c r="IW103" s="3"/>
       <c r="IY103" s="2" t="s">
         <v>0</v>
@@ -8082,6 +8542,7 @@
       <c r="LY103" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="MB103" s="6"/>
       <c r="MQ103" s="2" t="s">
         <v>0</v>
       </c>
@@ -8105,6 +8566,7 @@
       <c r="BP104" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="CF104" s="6"/>
       <c r="CH104" s="2" t="s">
         <v>0</v>
       </c>
@@ -8129,6 +8591,7 @@
       <c r="DV104" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="EH104" s="6"/>
       <c r="EN104" s="2" t="s">
         <v>0</v>
       </c>
@@ -8148,8 +8611,9 @@
         <v>0</v>
       </c>
       <c r="GD104" s="3"/>
-      <c r="GE104" s="3"/>
+      <c r="GE104" s="6"/>
       <c r="GF104" s="3"/>
+      <c r="GN104" s="6"/>
       <c r="GS104" s="2" t="s">
         <v>0</v>
       </c>
@@ -8161,8 +8625,11 @@
       </c>
       <c r="GY104" s="3"/>
       <c r="GZ104" s="3"/>
-      <c r="HA104" s="3"/>
+      <c r="HA104" s="6"/>
       <c r="HB104" s="3"/>
+      <c r="HG104" s="6"/>
+      <c r="HH104" s="6"/>
+      <c r="HJ104" s="6"/>
       <c r="HM104" s="2" t="s">
         <v>0</v>
       </c>
@@ -8180,7 +8647,7 @@
       </c>
       <c r="IT104" s="3"/>
       <c r="IU104" s="3"/>
-      <c r="IV104" s="3"/>
+      <c r="IV104" s="6"/>
       <c r="IW104" s="3"/>
       <c r="IY104" s="2" t="s">
         <v>0</v>
@@ -8214,7 +8681,9 @@
       </c>
       <c r="KT104" s="3"/>
       <c r="KU104" s="3"/>
-      <c r="KV104" s="3"/>
+      <c r="KV104" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="KW104" s="3"/>
       <c r="KX104" s="2" t="s">
         <v>0</v>
@@ -8249,6 +8718,7 @@
       <c r="LY104" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="MB104" s="6"/>
       <c r="MQ104" s="2" t="s">
         <v>0</v>
       </c>
@@ -8272,13 +8742,20 @@
       <c r="BP105" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="CF105" s="6"/>
       <c r="DB105" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="EH105" s="6"/>
+      <c r="GE105" s="6"/>
+      <c r="GN105" s="6"/>
       <c r="GY105" s="3"/>
       <c r="GZ105" s="3"/>
-      <c r="HA105" s="3"/>
+      <c r="HA105" s="6"/>
       <c r="HB105" s="3"/>
+      <c r="HF105" s="6"/>
+      <c r="HG105" s="6"/>
+      <c r="HJ105" s="6"/>
       <c r="HM105" s="2" t="s">
         <v>0</v>
       </c>
@@ -8290,7 +8767,7 @@
       </c>
       <c r="IT105" s="3"/>
       <c r="IU105" s="3"/>
-      <c r="IV105" s="3"/>
+      <c r="IV105" s="6"/>
       <c r="IW105" s="3"/>
       <c r="IX105" s="3"/>
       <c r="IY105" s="3"/>
@@ -8305,11 +8782,12 @@
       </c>
       <c r="KT105" s="3"/>
       <c r="KU105" s="3"/>
-      <c r="KV105" s="3"/>
+      <c r="KV105" s="6"/>
       <c r="KW105" s="3"/>
       <c r="LE105" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="MB105" s="6"/>
       <c r="NJ105" s="2" t="s">
         <v>0</v>
       </c>
@@ -8327,13 +8805,91 @@
       <c r="BP106" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="CF106" s="6"/>
       <c r="DB106" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="GY106" s="3"/>
-      <c r="GZ106" s="3"/>
-      <c r="HA106" s="3"/>
-      <c r="HB106" s="3"/>
+      <c r="EH106" s="6"/>
+      <c r="EI106" s="6"/>
+      <c r="EJ106" s="6"/>
+      <c r="EK106" s="6"/>
+      <c r="EL106" s="6"/>
+      <c r="EM106" s="6"/>
+      <c r="EN106" s="6"/>
+      <c r="EO106" s="6"/>
+      <c r="EP106" s="6"/>
+      <c r="EQ106" s="6"/>
+      <c r="ER106" s="6"/>
+      <c r="ES106" s="6"/>
+      <c r="ET106" s="6"/>
+      <c r="EU106" s="6"/>
+      <c r="EV106" s="6"/>
+      <c r="EW106" s="6"/>
+      <c r="EX106" s="6"/>
+      <c r="EY106" s="6"/>
+      <c r="EZ106" s="6"/>
+      <c r="FA106" s="6"/>
+      <c r="FB106" s="6"/>
+      <c r="FC106" s="6"/>
+      <c r="FD106" s="6"/>
+      <c r="FE106" s="6"/>
+      <c r="FF106" s="6"/>
+      <c r="FG106" s="6"/>
+      <c r="FH106" s="6"/>
+      <c r="FI106" s="6"/>
+      <c r="FJ106" s="6"/>
+      <c r="FK106" s="6"/>
+      <c r="FL106" s="6"/>
+      <c r="FM106" s="6"/>
+      <c r="FN106" s="6"/>
+      <c r="FO106" s="6"/>
+      <c r="FP106" s="6"/>
+      <c r="FQ106" s="6"/>
+      <c r="FR106" s="6"/>
+      <c r="FS106" s="6"/>
+      <c r="FT106" s="6"/>
+      <c r="FU106" s="6"/>
+      <c r="FV106" s="6"/>
+      <c r="FW106" s="6"/>
+      <c r="FX106" s="6"/>
+      <c r="FY106" s="6"/>
+      <c r="FZ106" s="6"/>
+      <c r="GA106" s="6"/>
+      <c r="GB106" s="6"/>
+      <c r="GC106" s="6"/>
+      <c r="GD106" s="6"/>
+      <c r="GE106" s="6"/>
+      <c r="GF106" s="6"/>
+      <c r="GG106" s="6"/>
+      <c r="GH106" s="6"/>
+      <c r="GI106" s="6"/>
+      <c r="GJ106" s="6"/>
+      <c r="GK106" s="6"/>
+      <c r="GL106" s="6"/>
+      <c r="GM106" s="6"/>
+      <c r="GN106" s="6"/>
+      <c r="GO106" s="6"/>
+      <c r="GP106" s="6"/>
+      <c r="GQ106" s="6"/>
+      <c r="GR106" s="6"/>
+      <c r="GS106" s="6"/>
+      <c r="GT106" s="6"/>
+      <c r="GU106" s="6"/>
+      <c r="GV106" s="6"/>
+      <c r="GW106" s="6"/>
+      <c r="GX106" s="6"/>
+      <c r="GY106" s="6"/>
+      <c r="GZ106" s="6"/>
+      <c r="HA106" s="6"/>
+      <c r="HB106" s="6"/>
+      <c r="HC106" s="6"/>
+      <c r="HD106" s="6"/>
+      <c r="HE106" s="6"/>
+      <c r="HF106" s="6"/>
+      <c r="HG106" s="6"/>
+      <c r="HH106" s="6"/>
+      <c r="HI106" s="6"/>
+      <c r="HJ106" s="6"/>
       <c r="HM106" s="2" t="s">
         <v>0</v>
       </c>
@@ -8345,10 +8901,10 @@
       </c>
       <c r="IT106" s="3"/>
       <c r="IU106" s="3"/>
-      <c r="IV106" s="3"/>
-      <c r="IW106" s="3"/>
-      <c r="IX106" s="3"/>
-      <c r="IY106" s="3"/>
+      <c r="IV106" s="6"/>
+      <c r="IW106" s="6"/>
+      <c r="IX106" s="6"/>
+      <c r="IY106" s="6"/>
       <c r="IZ106" s="3"/>
       <c r="JA106" s="3"/>
       <c r="JB106" s="3"/>
@@ -8360,11 +8916,15 @@
       </c>
       <c r="KT106" s="3"/>
       <c r="KU106" s="3"/>
-      <c r="KV106" s="3"/>
-      <c r="KW106" s="3"/>
+      <c r="KV106" s="6"/>
+      <c r="KW106" s="6"/>
+      <c r="KX106" s="6"/>
+      <c r="KY106" s="6"/>
+      <c r="KZ106" s="6"/>
       <c r="LE106" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="MB106" s="6"/>
       <c r="NJ106" s="2" t="s">
         <v>0</v>
       </c>
@@ -8382,9 +8942,14 @@
       <c r="BP107" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="CF107" s="6"/>
       <c r="DB107" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="EH107" s="6"/>
+      <c r="HA107" s="6"/>
+      <c r="HJ107" s="6"/>
+      <c r="HK107" s="6"/>
       <c r="HM107" s="2" t="s">
         <v>0</v>
       </c>
@@ -8396,7 +8961,7 @@
       </c>
       <c r="IT107" s="3"/>
       <c r="IU107" s="3"/>
-      <c r="IV107" s="3"/>
+      <c r="IV107" s="6"/>
       <c r="IW107" s="3"/>
       <c r="IX107" s="3"/>
       <c r="IY107" s="3"/>
@@ -8409,9 +8974,11 @@
       <c r="KL107" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="KZ107" s="6"/>
       <c r="LE107" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="MB107" s="6"/>
       <c r="NJ107" s="2" t="s">
         <v>0</v>
       </c>
@@ -8426,12 +8993,15 @@
       <c r="BP108" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="CF108" s="6"/>
       <c r="DB108" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="EH108" s="6"/>
       <c r="GZ108" s="3"/>
-      <c r="HA108" s="3"/>
+      <c r="HA108" s="6"/>
       <c r="HB108" s="3"/>
+      <c r="HK108" s="6"/>
       <c r="HM108" s="2" t="s">
         <v>0</v>
       </c>
@@ -8443,7 +9013,7 @@
       </c>
       <c r="IT108" s="3"/>
       <c r="IU108" s="3"/>
-      <c r="IV108" s="3"/>
+      <c r="IV108" s="6"/>
       <c r="IW108" s="3"/>
       <c r="IX108" s="3"/>
       <c r="IY108" s="3"/>
@@ -8456,9 +9026,11 @@
       <c r="KL108" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="KZ108" s="6"/>
       <c r="LE108" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="MB108" s="6"/>
       <c r="NJ108" s="2" t="s">
         <v>0</v>
       </c>
@@ -8473,9 +9045,11 @@
       <c r="BP109" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="CF109" s="6"/>
       <c r="DB109" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="EH109" s="6"/>
       <c r="EN109" s="2" t="s">
         <v>0</v>
       </c>
@@ -8555,7 +9129,9 @@
         <v>0</v>
       </c>
       <c r="GZ109" s="3"/>
-      <c r="HA109" s="3"/>
+      <c r="HA109" s="6" t="s">
+        <v>15</v>
+      </c>
       <c r="HB109" s="3"/>
       <c r="HC109" s="2" t="s">
         <v>0</v>
@@ -8579,7 +9155,9 @@
         <v>0</v>
       </c>
       <c r="HJ109" s="3"/>
-      <c r="HK109" s="3"/>
+      <c r="HK109" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="HL109" s="3"/>
       <c r="HM109" s="2" t="s">
         <v>0</v>
@@ -8592,7 +9170,7 @@
       </c>
       <c r="IT109" s="3"/>
       <c r="IU109" s="3"/>
-      <c r="IV109" s="3"/>
+      <c r="IV109" s="6"/>
       <c r="IW109" s="3"/>
       <c r="IY109" s="2" t="s">
         <v>0</v>
@@ -8603,9 +9181,11 @@
       <c r="KL109" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="KZ109" s="6"/>
       <c r="LE109" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="MB109" s="6"/>
       <c r="NJ109" s="2" t="s">
         <v>0</v>
       </c>
@@ -8620,9 +9200,11 @@
       <c r="BP110" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="CF110" s="6"/>
       <c r="DB110" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="EH110" s="6"/>
       <c r="EN110" s="2" t="s">
         <v>0</v>
       </c>
@@ -8655,7 +9237,7 @@
       </c>
       <c r="IT110" s="3"/>
       <c r="IU110" s="3"/>
-      <c r="IV110" s="3"/>
+      <c r="IV110" s="6"/>
       <c r="IW110" s="3"/>
       <c r="IY110" s="2" t="s">
         <v>0</v>
@@ -8666,9 +9248,11 @@
       <c r="KL110" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="KZ110" s="6"/>
       <c r="LE110" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="MB110" s="6"/>
       <c r="NJ110" s="2" t="s">
         <v>0</v>
       </c>
@@ -8683,9 +9267,11 @@
       <c r="BP111" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="CF111" s="6"/>
       <c r="DB111" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="EH111" s="6"/>
       <c r="EN111" s="2" t="s">
         <v>0</v>
       </c>
@@ -8715,7 +9301,7 @@
       </c>
       <c r="IT111" s="3"/>
       <c r="IU111" s="3"/>
-      <c r="IV111" s="3"/>
+      <c r="IV111" s="6"/>
       <c r="IW111" s="3"/>
       <c r="IY111" s="2" t="s">
         <v>0</v>
@@ -8726,9 +9312,11 @@
       <c r="KL111" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="KZ111" s="6"/>
       <c r="LE111" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="MB111" s="6"/>
       <c r="NJ111" s="2" t="s">
         <v>0</v>
       </c>
@@ -8746,9 +9334,11 @@
       <c r="BP112" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="CF112" s="6"/>
       <c r="DB112" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="EH112" s="6"/>
       <c r="EN112" s="2" t="s">
         <v>0</v>
       </c>
@@ -8778,7 +9368,7 @@
       </c>
       <c r="IT112" s="3"/>
       <c r="IU112" s="3"/>
-      <c r="IV112" s="3"/>
+      <c r="IV112" s="6"/>
       <c r="IW112" s="3"/>
       <c r="IY112" s="2" t="s">
         <v>0</v>
@@ -8789,9 +9379,11 @@
       <c r="KL112" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="KZ112" s="6"/>
       <c r="LE112" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="MB112" s="6"/>
       <c r="NJ112" s="2" t="s">
         <v>0</v>
       </c>
@@ -8809,9 +9401,11 @@
       <c r="BP113" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="CF113" s="6"/>
       <c r="DB113" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="EH113" s="6"/>
       <c r="EN113" s="2" t="s">
         <v>0</v>
       </c>
@@ -8841,7 +9435,7 @@
       </c>
       <c r="IT113" s="3"/>
       <c r="IU113" s="3"/>
-      <c r="IV113" s="3"/>
+      <c r="IV113" s="6"/>
       <c r="IW113" s="3"/>
       <c r="IY113" s="2" t="s">
         <v>0</v>
@@ -8852,9 +9446,11 @@
       <c r="KL113" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="KZ113" s="6"/>
       <c r="LE113" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="MB113" s="6"/>
       <c r="NJ113" s="2" t="s">
         <v>0</v>
       </c>
@@ -8872,9 +9468,11 @@
       <c r="BP114" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="CF114" s="6"/>
       <c r="DB114" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="EH114" s="6"/>
       <c r="EN114" s="2" t="s">
         <v>0</v>
       </c>
@@ -8896,15 +9494,12 @@
       <c r="IF114" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="IJ114" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="IR114" s="2" t="s">
         <v>0</v>
       </c>
       <c r="IT114" s="3"/>
       <c r="IU114" s="3"/>
-      <c r="IV114" s="3"/>
+      <c r="IV114" s="6"/>
       <c r="IW114" s="3"/>
       <c r="IY114" s="2" t="s">
         <v>0</v>
@@ -8915,9 +9510,11 @@
       <c r="KL114" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="KZ114" s="6"/>
       <c r="LE114" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="MB114" s="6"/>
       <c r="NJ114" s="2" t="s">
         <v>0</v>
       </c>
@@ -8935,29 +9532,22 @@
       <c r="BP115" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="CF115" s="6"/>
       <c r="DB115" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="EH115" s="6"/>
       <c r="EN115" s="2" t="s">
         <v>0</v>
       </c>
       <c r="GA115" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="GH115" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="GT115" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="GX115" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="HC115" s="2" t="s">
         <v>0</v>
-      </c>
-      <c r="HH115" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="HJ115" s="3"/>
       <c r="HK115" s="3"/>
@@ -8965,9 +9555,6 @@
       <c r="HM115" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="HS115" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="IF115" s="2" t="s">
         <v>0</v>
       </c>
@@ -8976,7 +9563,7 @@
       </c>
       <c r="IT115" s="3"/>
       <c r="IU115" s="3"/>
-      <c r="IV115" s="3"/>
+      <c r="IV115" s="6"/>
       <c r="IW115" s="3"/>
       <c r="IY115" s="2" t="s">
         <v>0</v>
@@ -8987,9 +9574,11 @@
       <c r="KL115" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="KZ115" s="6"/>
       <c r="LE115" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="MB115" s="6"/>
       <c r="NJ115" s="2" t="s">
         <v>0</v>
       </c>
@@ -9004,9 +9593,11 @@
       <c r="BP116" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="CF116" s="6"/>
       <c r="DB116" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="EH116" s="6"/>
       <c r="EN116" s="2" t="s">
         <v>0</v>
       </c>
@@ -9033,7 +9624,7 @@
       </c>
       <c r="IT116" s="3"/>
       <c r="IU116" s="3"/>
-      <c r="IV116" s="3"/>
+      <c r="IV116" s="6"/>
       <c r="IW116" s="3"/>
       <c r="IY116" s="2" t="s">
         <v>0</v>
@@ -9044,9 +9635,11 @@
       <c r="KL116" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="KZ116" s="6"/>
       <c r="LE116" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="MB116" s="6"/>
       <c r="NJ116" s="2" t="s">
         <v>0</v>
       </c>
@@ -9061,9 +9654,11 @@
       <c r="BP117" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="CF117" s="6"/>
       <c r="DB117" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="EH117" s="6"/>
       <c r="EN117" s="2" t="s">
         <v>0</v>
       </c>
@@ -9087,7 +9682,7 @@
       </c>
       <c r="IT117" s="3"/>
       <c r="IU117" s="3"/>
-      <c r="IV117" s="3"/>
+      <c r="IV117" s="6"/>
       <c r="IW117" s="3"/>
       <c r="IY117" s="2" t="s">
         <v>0</v>
@@ -9098,9 +9693,11 @@
       <c r="KL117" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="KZ117" s="6"/>
       <c r="LE117" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="MB117" s="6"/>
       <c r="NJ117" s="2" t="s">
         <v>0</v>
       </c>
@@ -9115,9 +9712,11 @@
       <c r="BP118" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="CF118" s="6"/>
       <c r="DB118" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="EH118" s="6"/>
       <c r="EN118" s="2" t="s">
         <v>0</v>
       </c>
@@ -9141,7 +9740,7 @@
       </c>
       <c r="IT118" s="3"/>
       <c r="IU118" s="3"/>
-      <c r="IV118" s="3"/>
+      <c r="IV118" s="6"/>
       <c r="IW118" s="3"/>
       <c r="IY118" s="2" t="s">
         <v>0</v>
@@ -9152,9 +9751,11 @@
       <c r="KL118" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="KZ118" s="6"/>
       <c r="LE118" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="MB118" s="6"/>
       <c r="NJ118" s="2" t="s">
         <v>0</v>
       </c>
@@ -9169,9 +9770,11 @@
       <c r="BP119" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="CF119" s="6"/>
       <c r="DB119" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="EH119" s="6"/>
       <c r="EN119" s="2" t="s">
         <v>0</v>
       </c>
@@ -9195,7 +9798,7 @@
       </c>
       <c r="IT119" s="3"/>
       <c r="IU119" s="3"/>
-      <c r="IV119" s="3"/>
+      <c r="IV119" s="6"/>
       <c r="IW119" s="3"/>
       <c r="IY119" s="2" t="s">
         <v>0</v>
@@ -9213,11 +9816,12 @@
         <v>0</v>
       </c>
       <c r="KY119" s="3"/>
-      <c r="KZ119" s="3"/>
+      <c r="KZ119" s="6"/>
       <c r="LA119" s="3"/>
       <c r="LE119" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="MB119" s="6"/>
       <c r="NJ119" s="2" t="s">
         <v>0</v>
       </c>
@@ -9235,9 +9839,11 @@
       <c r="BP120" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="CF120" s="6"/>
       <c r="DB120" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="EH120" s="6"/>
       <c r="EN120" s="2" t="s">
         <v>0</v>
       </c>
@@ -9264,7 +9870,7 @@
       </c>
       <c r="IT120" s="3"/>
       <c r="IU120" s="3"/>
-      <c r="IV120" s="3"/>
+      <c r="IV120" s="6"/>
       <c r="IW120" s="3"/>
       <c r="IX120" s="2" t="s">
         <v>0</v>
@@ -9285,11 +9891,12 @@
         <v>0</v>
       </c>
       <c r="KY120" s="3"/>
-      <c r="KZ120" s="3"/>
+      <c r="KZ120" s="6"/>
       <c r="LA120" s="3"/>
       <c r="LE120" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="MB120" s="6"/>
       <c r="NJ120" s="2" t="s">
         <v>0</v>
       </c>
@@ -9307,6 +9914,7 @@
       <c r="BP121" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="CF121" s="6"/>
       <c r="CH121" s="2" t="s">
         <v>0</v>
       </c>
@@ -9331,6 +9939,7 @@
       <c r="DV121" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="EH121" s="6"/>
       <c r="EN121" s="2" t="s">
         <v>0</v>
       </c>
@@ -9381,7 +9990,7 @@
       </c>
       <c r="IT121" s="3"/>
       <c r="IU121" s="3"/>
-      <c r="IV121" s="3"/>
+      <c r="IV121" s="6"/>
       <c r="IW121" s="3"/>
       <c r="IX121" s="2" t="s">
         <v>0</v>
@@ -9408,7 +10017,7 @@
         <v>0</v>
       </c>
       <c r="KY121" s="3"/>
-      <c r="KZ121" s="3"/>
+      <c r="KZ121" s="6"/>
       <c r="LA121" s="3"/>
       <c r="LD121" s="2" t="s">
         <v>0</v>
@@ -9425,6 +10034,7 @@
       <c r="LY121" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="MB121" s="6"/>
       <c r="MQ121" s="2" t="s">
         <v>0</v>
       </c>
@@ -9490,6 +10100,7 @@
       <c r="CD122" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="CF122" s="6"/>
       <c r="CH122" s="2" t="s">
         <v>0</v>
       </c>
@@ -9640,7 +10251,7 @@
       <c r="EE122" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="EH122" s="3"/>
+      <c r="EH122" s="6"/>
       <c r="EJ122" s="2" t="s">
         <v>0</v>
       </c>
@@ -9797,7 +10408,9 @@
       <c r="GN122" s="3"/>
       <c r="GO122" s="3"/>
       <c r="GP122" s="3"/>
-      <c r="GQ122" s="3"/>
+      <c r="GQ122" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="GR122" s="3"/>
       <c r="GS122" s="2" t="s">
         <v>0</v>
@@ -9901,6 +10514,9 @@
       <c r="HZ122" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="IC122" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="IE122" s="2" t="s">
         <v>0</v>
       </c>
@@ -9914,7 +10530,9 @@
         <v>0</v>
       </c>
       <c r="II122" s="3"/>
-      <c r="IJ122" s="3"/>
+      <c r="IJ122" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="IK122" s="3"/>
       <c r="IL122" s="2" t="s">
         <v>0</v>
@@ -9942,7 +10560,7 @@
       </c>
       <c r="IT122" s="3"/>
       <c r="IU122" s="3"/>
-      <c r="IV122" s="3"/>
+      <c r="IV122" s="6"/>
       <c r="IW122" s="3"/>
       <c r="IX122" s="2" t="s">
         <v>0</v>
@@ -10037,7 +10655,7 @@
       <c r="KD122" s="3"/>
       <c r="KE122" s="3"/>
       <c r="KF122" s="3"/>
-      <c r="KG122" s="3"/>
+      <c r="KG122" s="6"/>
       <c r="KH122" s="3"/>
       <c r="KI122" s="3"/>
       <c r="KJ122" s="2" t="s">
@@ -10086,7 +10704,7 @@
         <v>0</v>
       </c>
       <c r="KY122" s="3"/>
-      <c r="KZ122" s="3"/>
+      <c r="KZ122" s="6"/>
       <c r="LA122" s="3"/>
       <c r="LB122" s="2" t="s">
         <v>0</v>
@@ -10109,6 +10727,7 @@
       <c r="LY122" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="MB122" s="6"/>
       <c r="MQ122" s="2" t="s">
         <v>0</v>
       </c>
@@ -10135,6 +10754,7 @@
       <c r="CD123" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="CF123" s="6"/>
       <c r="CH123" s="2" t="s">
         <v>0</v>
       </c>
@@ -10249,7 +10869,7 @@
       <c r="EE123" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="EH123" s="3"/>
+      <c r="EH123" s="6"/>
       <c r="EJ123" s="2" t="s">
         <v>0</v>
       </c>
@@ -10421,7 +11041,7 @@
       <c r="GN123" s="3"/>
       <c r="GO123" s="3"/>
       <c r="GP123" s="3"/>
-      <c r="GQ123" s="3"/>
+      <c r="GQ123" s="6"/>
       <c r="GR123" s="3"/>
       <c r="GS123" s="2" t="s">
         <v>0</v>
@@ -10525,6 +11145,7 @@
       <c r="HZ123" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="IC123" s="6"/>
       <c r="IE123" s="2" t="s">
         <v>0</v>
       </c>
@@ -10538,7 +11159,7 @@
         <v>0</v>
       </c>
       <c r="II123" s="3"/>
-      <c r="IJ123" s="3"/>
+      <c r="IJ123" s="6"/>
       <c r="IK123" s="3"/>
       <c r="IL123" s="2" t="s">
         <v>0</v>
@@ -10566,7 +11187,7 @@
       </c>
       <c r="IT123" s="3"/>
       <c r="IU123" s="3"/>
-      <c r="IV123" s="3"/>
+      <c r="IV123" s="6"/>
       <c r="IW123" s="3"/>
       <c r="IX123" s="2" t="s">
         <v>0</v>
@@ -10667,7 +11288,7 @@
       <c r="KD123" s="3"/>
       <c r="KE123" s="3"/>
       <c r="KF123" s="3"/>
-      <c r="KG123" s="3"/>
+      <c r="KG123" s="6"/>
       <c r="KH123" s="3"/>
       <c r="KI123" s="3"/>
       <c r="KJ123" s="2" t="s">
@@ -10686,7 +11307,7 @@
         <v>0</v>
       </c>
       <c r="KY123" s="3"/>
-      <c r="KZ123" s="3"/>
+      <c r="KZ123" s="6"/>
       <c r="LA123" s="3"/>
       <c r="LD123" s="2" t="s">
         <v>0</v>
@@ -10703,6 +11324,7 @@
       <c r="LY123" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="MB123" s="6"/>
       <c r="MQ123" s="2" t="s">
         <v>0</v>
       </c>
@@ -10729,6 +11351,7 @@
       <c r="CD124" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="CF124" s="6"/>
       <c r="CI124" s="2" t="s">
         <v>0</v>
       </c>
@@ -10766,7 +11389,7 @@
       <c r="EE124" s="3"/>
       <c r="EF124" s="3"/>
       <c r="EG124" s="3"/>
-      <c r="EH124" s="3"/>
+      <c r="EH124" s="6"/>
       <c r="EI124" s="3"/>
       <c r="EJ124" s="3"/>
       <c r="EK124" s="3"/>
@@ -10827,7 +11450,7 @@
       <c r="GN124" s="3"/>
       <c r="GO124" s="3"/>
       <c r="GP124" s="3"/>
-      <c r="GQ124" s="3"/>
+      <c r="GQ124" s="6"/>
       <c r="GR124" s="3"/>
       <c r="GS124" s="3"/>
       <c r="GT124" s="3"/>
@@ -10865,14 +11488,14 @@
       <c r="HZ124" s="3"/>
       <c r="IA124" s="3"/>
       <c r="IB124" s="3"/>
-      <c r="IC124" s="3"/>
+      <c r="IC124" s="6"/>
       <c r="ID124" s="3"/>
       <c r="IE124" s="3"/>
       <c r="IF124" s="3"/>
       <c r="IG124" s="3"/>
       <c r="IH124" s="3"/>
       <c r="II124" s="3"/>
-      <c r="IJ124" s="3"/>
+      <c r="IJ124" s="6"/>
       <c r="IK124" s="3"/>
       <c r="IL124" s="3"/>
       <c r="IM124" s="3"/>
@@ -10884,7 +11507,7 @@
       <c r="IS124" s="3"/>
       <c r="IT124" s="3"/>
       <c r="IU124" s="3"/>
-      <c r="IV124" s="3"/>
+      <c r="IV124" s="6"/>
       <c r="IW124" s="3"/>
       <c r="JD124" s="3"/>
       <c r="JE124" s="3"/>
@@ -10907,7 +11530,7 @@
       <c r="KD124" s="3"/>
       <c r="KE124" s="3"/>
       <c r="KF124" s="3"/>
-      <c r="KG124" s="3"/>
+      <c r="KG124" s="6"/>
       <c r="KH124" s="3"/>
       <c r="KI124" s="3"/>
       <c r="KL124" s="2" t="s">
@@ -10920,7 +11543,7 @@
       <c r="KW124" s="3"/>
       <c r="KX124" s="3"/>
       <c r="KY124" s="3"/>
-      <c r="KZ124" s="3"/>
+      <c r="KZ124" s="6"/>
       <c r="LA124" s="3"/>
       <c r="LB124" s="3"/>
       <c r="LC124" s="3"/>
@@ -10930,6 +11553,7 @@
       <c r="LX124" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="MB124" s="6"/>
       <c r="MQ124" s="2" t="s">
         <v>0</v>
       </c>
@@ -10956,6 +11580,7 @@
       <c r="CD125" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="CF125" s="6"/>
       <c r="CI125" s="2" t="s">
         <v>0</v>
       </c>
@@ -10993,7 +11618,7 @@
       <c r="EE125" s="3"/>
       <c r="EF125" s="3"/>
       <c r="EG125" s="3"/>
-      <c r="EH125" s="3"/>
+      <c r="EH125" s="6"/>
       <c r="EI125" s="3"/>
       <c r="EJ125" s="3"/>
       <c r="EK125" s="3"/>
@@ -11054,7 +11679,7 @@
       <c r="GN125" s="3"/>
       <c r="GO125" s="3"/>
       <c r="GP125" s="3"/>
-      <c r="GQ125" s="3"/>
+      <c r="GQ125" s="6"/>
       <c r="GR125" s="3"/>
       <c r="GS125" s="3"/>
       <c r="GT125" s="3"/>
@@ -11092,14 +11717,14 @@
       <c r="HZ125" s="3"/>
       <c r="IA125" s="3"/>
       <c r="IB125" s="3"/>
-      <c r="IC125" s="3"/>
+      <c r="IC125" s="6"/>
       <c r="ID125" s="3"/>
       <c r="IE125" s="3"/>
       <c r="IF125" s="3"/>
       <c r="IG125" s="3"/>
       <c r="IH125" s="3"/>
       <c r="II125" s="3"/>
-      <c r="IJ125" s="3"/>
+      <c r="IJ125" s="6"/>
       <c r="IK125" s="3"/>
       <c r="IL125" s="3"/>
       <c r="IM125" s="3"/>
@@ -11111,7 +11736,7 @@
       <c r="IS125" s="3"/>
       <c r="IT125" s="3"/>
       <c r="IU125" s="3"/>
-      <c r="IV125" s="3"/>
+      <c r="IV125" s="6"/>
       <c r="IW125" s="3"/>
       <c r="JD125" s="3"/>
       <c r="JE125" s="3"/>
@@ -11131,6 +11756,7 @@
       <c r="JS125" s="3"/>
       <c r="JT125" s="3"/>
       <c r="JU125" s="3"/>
+      <c r="KG125" s="6"/>
       <c r="KS125" s="3"/>
       <c r="KT125" s="3"/>
       <c r="KU125" s="3"/>
@@ -11138,16 +11764,14 @@
       <c r="KW125" s="3"/>
       <c r="KX125" s="3"/>
       <c r="KY125" s="3"/>
-      <c r="KZ125" s="3"/>
+      <c r="KZ125" s="6"/>
       <c r="LA125" s="3"/>
       <c r="LB125" s="3"/>
       <c r="LC125" s="3"/>
       <c r="LD125" s="3"/>
       <c r="LE125" s="3"/>
       <c r="LF125" s="3"/>
-      <c r="MG125" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="MB125" s="6"/>
       <c r="NJ125" s="2" t="s">
         <v>0</v>
       </c>
@@ -11168,6 +11792,7 @@
       <c r="CD126" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="CF126" s="6"/>
       <c r="CI126" s="2" t="s">
         <v>0</v>
       </c>
@@ -11205,7 +11830,7 @@
       <c r="EE126" s="3"/>
       <c r="EF126" s="3"/>
       <c r="EG126" s="3"/>
-      <c r="EH126" s="3"/>
+      <c r="EH126" s="6"/>
       <c r="EI126" s="3"/>
       <c r="EJ126" s="3"/>
       <c r="EK126" s="3"/>
@@ -11266,7 +11891,7 @@
       <c r="GN126" s="3"/>
       <c r="GO126" s="3"/>
       <c r="GP126" s="3"/>
-      <c r="GQ126" s="3"/>
+      <c r="GQ126" s="6"/>
       <c r="GR126" s="3"/>
       <c r="GS126" s="3"/>
       <c r="GT126" s="3"/>
@@ -11304,14 +11929,14 @@
       <c r="HZ126" s="3"/>
       <c r="IA126" s="3"/>
       <c r="IB126" s="3"/>
-      <c r="IC126" s="3"/>
+      <c r="IC126" s="6"/>
       <c r="ID126" s="3"/>
       <c r="IE126" s="3"/>
       <c r="IF126" s="3"/>
       <c r="IG126" s="3"/>
       <c r="IH126" s="3"/>
       <c r="II126" s="3"/>
-      <c r="IJ126" s="3"/>
+      <c r="IJ126" s="6"/>
       <c r="IK126" s="3"/>
       <c r="IL126" s="3"/>
       <c r="IM126" s="3"/>
@@ -11323,7 +11948,7 @@
       <c r="IS126" s="3"/>
       <c r="IT126" s="3"/>
       <c r="IU126" s="3"/>
-      <c r="IV126" s="3"/>
+      <c r="IV126" s="6"/>
       <c r="IW126" s="3"/>
       <c r="JD126" s="3"/>
       <c r="JE126" s="3"/>
@@ -11343,6 +11968,7 @@
       <c r="JS126" s="3"/>
       <c r="JT126" s="3"/>
       <c r="JU126" s="3"/>
+      <c r="KG126" s="6"/>
       <c r="KS126" s="3"/>
       <c r="KT126" s="3"/>
       <c r="KU126" s="3"/>
@@ -11350,13 +11976,14 @@
       <c r="KW126" s="3"/>
       <c r="KX126" s="3"/>
       <c r="KY126" s="3"/>
-      <c r="KZ126" s="3"/>
+      <c r="KZ126" s="6"/>
       <c r="LA126" s="3"/>
       <c r="LB126" s="3"/>
       <c r="LC126" s="3"/>
       <c r="LD126" s="3"/>
       <c r="LE126" s="3"/>
       <c r="LF126" s="3"/>
+      <c r="MB126" s="6"/>
       <c r="NJ126" s="2" t="s">
         <v>0</v>
       </c>
@@ -11371,17 +11998,12 @@
       <c r="BP127" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="BV127" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="CD127" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="CF127" s="6"/>
       <c r="CI127" s="2" t="s">
         <v>0</v>
-      </c>
-      <c r="CQ127" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="DB127" s="2" t="s">
         <v>0</v>
@@ -11417,7 +12039,7 @@
       <c r="EE127" s="3"/>
       <c r="EF127" s="3"/>
       <c r="EG127" s="3"/>
-      <c r="EH127" s="3"/>
+      <c r="EH127" s="6"/>
       <c r="EI127" s="3"/>
       <c r="EJ127" s="3"/>
       <c r="EK127" s="3"/>
@@ -11478,7 +12100,7 @@
       <c r="GN127" s="3"/>
       <c r="GO127" s="3"/>
       <c r="GP127" s="3"/>
-      <c r="GQ127" s="3"/>
+      <c r="GQ127" s="6"/>
       <c r="GR127" s="3"/>
       <c r="GS127" s="3"/>
       <c r="GT127" s="3"/>
@@ -11516,14 +12138,14 @@
       <c r="HZ127" s="3"/>
       <c r="IA127" s="3"/>
       <c r="IB127" s="3"/>
-      <c r="IC127" s="3"/>
+      <c r="IC127" s="6"/>
       <c r="ID127" s="3"/>
       <c r="IE127" s="3"/>
       <c r="IF127" s="3"/>
       <c r="IG127" s="3"/>
       <c r="IH127" s="3"/>
       <c r="II127" s="3"/>
-      <c r="IJ127" s="3"/>
+      <c r="IJ127" s="6"/>
       <c r="IK127" s="3"/>
       <c r="IL127" s="3"/>
       <c r="IM127" s="3"/>
@@ -11535,7 +12157,7 @@
       <c r="IS127" s="3"/>
       <c r="IT127" s="3"/>
       <c r="IU127" s="3"/>
-      <c r="IV127" s="3"/>
+      <c r="IV127" s="6"/>
       <c r="IW127" s="3"/>
       <c r="JD127" s="3"/>
       <c r="JE127" s="3"/>
@@ -11555,6 +12177,7 @@
       <c r="JS127" s="3"/>
       <c r="JT127" s="3"/>
       <c r="JU127" s="3"/>
+      <c r="KG127" s="6"/>
       <c r="KS127" s="3"/>
       <c r="KT127" s="3"/>
       <c r="KU127" s="3"/>
@@ -11562,13 +12185,14 @@
       <c r="KW127" s="3"/>
       <c r="KX127" s="3"/>
       <c r="KY127" s="3"/>
-      <c r="KZ127" s="3"/>
+      <c r="KZ127" s="6"/>
       <c r="LA127" s="3"/>
       <c r="LB127" s="3"/>
       <c r="LC127" s="3"/>
       <c r="LD127" s="3"/>
       <c r="LE127" s="3"/>
       <c r="LF127" s="3"/>
+      <c r="MB127" s="6"/>
       <c r="NJ127" s="2" t="s">
         <v>0</v>
       </c>
@@ -11586,6 +12210,7 @@
       <c r="CD128" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="CF128" s="6"/>
       <c r="CI128" s="2" t="s">
         <v>0</v>
       </c>
@@ -11607,173 +12232,236 @@
       <c r="DP128" s="3"/>
       <c r="DQ128" s="3"/>
       <c r="DR128" s="3"/>
-      <c r="DS128" s="3"/>
-      <c r="DT128" s="3"/>
-      <c r="DU128" s="3"/>
-      <c r="DV128" s="3"/>
-      <c r="DW128" s="3"/>
-      <c r="DX128" s="3"/>
-      <c r="DY128" s="3"/>
-      <c r="DZ128" s="3"/>
-      <c r="EA128" s="3"/>
-      <c r="EB128" s="3"/>
-      <c r="EC128" s="3"/>
-      <c r="ED128" s="3"/>
-      <c r="EE128" s="3"/>
-      <c r="EF128" s="3"/>
-      <c r="EG128" s="3"/>
-      <c r="EH128" s="3"/>
-      <c r="EI128" s="3"/>
-      <c r="EJ128" s="3"/>
-      <c r="EK128" s="3"/>
-      <c r="EL128" s="3"/>
-      <c r="EM128" s="3"/>
-      <c r="EN128" s="3"/>
-      <c r="EO128" s="3"/>
-      <c r="EP128" s="3"/>
-      <c r="EQ128" s="3"/>
-      <c r="ER128" s="3"/>
-      <c r="ES128" s="3"/>
-      <c r="ET128" s="3"/>
-      <c r="EU128" s="3"/>
-      <c r="EV128" s="3"/>
-      <c r="EW128" s="3"/>
-      <c r="EX128" s="3"/>
-      <c r="EY128" s="3"/>
-      <c r="EZ128" s="3"/>
-      <c r="FA128" s="3"/>
-      <c r="FB128" s="3"/>
-      <c r="FC128" s="3"/>
-      <c r="FD128" s="3"/>
-      <c r="FE128" s="3"/>
-      <c r="FF128" s="3"/>
-      <c r="FG128" s="3"/>
-      <c r="FH128" s="3"/>
-      <c r="FI128" s="3"/>
-      <c r="FJ128" s="3"/>
-      <c r="FK128" s="3"/>
-      <c r="FL128" s="3"/>
-      <c r="FM128" s="3"/>
-      <c r="FN128" s="3"/>
-      <c r="FO128" s="3"/>
-      <c r="FP128" s="3"/>
-      <c r="FQ128" s="3"/>
-      <c r="FR128" s="3"/>
-      <c r="FS128" s="3"/>
-      <c r="FT128" s="3"/>
-      <c r="FU128" s="3"/>
-      <c r="FV128" s="3"/>
-      <c r="FW128" s="3"/>
-      <c r="FX128" s="3"/>
-      <c r="FY128" s="3"/>
-      <c r="FZ128" s="3"/>
-      <c r="GA128" s="3"/>
-      <c r="GB128" s="3"/>
-      <c r="GC128" s="3"/>
-      <c r="GD128" s="3"/>
-      <c r="GE128" s="3"/>
-      <c r="GF128" s="3"/>
-      <c r="GG128" s="3"/>
-      <c r="GH128" s="3"/>
-      <c r="GI128" s="3"/>
-      <c r="GJ128" s="3"/>
-      <c r="GK128" s="3"/>
-      <c r="GL128" s="3"/>
-      <c r="GM128" s="3"/>
-      <c r="GN128" s="3"/>
-      <c r="GO128" s="3"/>
-      <c r="GP128" s="3"/>
-      <c r="GQ128" s="3"/>
-      <c r="GR128" s="3"/>
-      <c r="GS128" s="3"/>
-      <c r="GT128" s="3"/>
-      <c r="GU128" s="3"/>
-      <c r="GV128" s="3"/>
-      <c r="GW128" s="3"/>
-      <c r="GX128" s="3"/>
-      <c r="GY128" s="3"/>
-      <c r="GZ128" s="3"/>
-      <c r="HA128" s="3"/>
-      <c r="HB128" s="3"/>
-      <c r="HC128" s="3"/>
-      <c r="HD128" s="3"/>
-      <c r="HE128" s="3"/>
-      <c r="HF128" s="3"/>
-      <c r="HG128" s="3"/>
-      <c r="HH128" s="3"/>
-      <c r="HI128" s="3"/>
-      <c r="HJ128" s="3"/>
-      <c r="HK128" s="3"/>
-      <c r="HL128" s="3"/>
-      <c r="HM128" s="3"/>
-      <c r="HN128" s="3"/>
-      <c r="HO128" s="3"/>
-      <c r="HP128" s="3"/>
-      <c r="HQ128" s="3"/>
-      <c r="HR128" s="3"/>
-      <c r="HS128" s="3"/>
-      <c r="HT128" s="3"/>
-      <c r="HU128" s="3"/>
-      <c r="HV128" s="3"/>
-      <c r="HW128" s="3"/>
-      <c r="HX128" s="3"/>
-      <c r="HY128" s="3"/>
-      <c r="HZ128" s="3"/>
-      <c r="IA128" s="3"/>
-      <c r="IB128" s="3"/>
-      <c r="IC128" s="3"/>
-      <c r="ID128" s="3"/>
-      <c r="IE128" s="3"/>
-      <c r="IF128" s="3"/>
-      <c r="IG128" s="3"/>
-      <c r="IH128" s="3"/>
-      <c r="II128" s="3"/>
-      <c r="IJ128" s="3"/>
-      <c r="IK128" s="3"/>
-      <c r="IL128" s="3"/>
-      <c r="IM128" s="3"/>
-      <c r="IN128" s="3"/>
-      <c r="IO128" s="3"/>
-      <c r="IP128" s="3"/>
-      <c r="IQ128" s="3"/>
-      <c r="IR128" s="3"/>
-      <c r="IS128" s="3"/>
-      <c r="IT128" s="3"/>
-      <c r="IU128" s="3"/>
-      <c r="IV128" s="3"/>
-      <c r="IW128" s="3"/>
-      <c r="JD128" s="3"/>
-      <c r="JE128" s="3"/>
-      <c r="JF128" s="3"/>
-      <c r="JG128" s="3"/>
-      <c r="JH128" s="3"/>
-      <c r="JI128" s="3"/>
-      <c r="JJ128" s="3"/>
-      <c r="JK128" s="3"/>
-      <c r="JL128" s="3"/>
-      <c r="JM128" s="3"/>
-      <c r="JN128" s="3"/>
-      <c r="JO128" s="3"/>
-      <c r="JP128" s="3"/>
-      <c r="JQ128" s="3"/>
-      <c r="JR128" s="3"/>
-      <c r="JS128" s="3"/>
-      <c r="JT128" s="3"/>
-      <c r="JU128" s="3"/>
-      <c r="KS128" s="3"/>
-      <c r="KT128" s="3"/>
-      <c r="KU128" s="3"/>
-      <c r="KV128" s="3"/>
-      <c r="KW128" s="3"/>
-      <c r="KX128" s="3"/>
-      <c r="KY128" s="3"/>
-      <c r="KZ128" s="3"/>
-      <c r="LA128" s="3"/>
-      <c r="LB128" s="3"/>
-      <c r="LC128" s="3"/>
-      <c r="LD128" s="3"/>
-      <c r="LE128" s="3"/>
-      <c r="LF128" s="3"/>
+      <c r="DS128" s="6"/>
+      <c r="DT128" s="6"/>
+      <c r="DU128" s="6"/>
+      <c r="DV128" s="6"/>
+      <c r="DW128" s="6"/>
+      <c r="DX128" s="6"/>
+      <c r="DY128" s="6"/>
+      <c r="DZ128" s="6"/>
+      <c r="EA128" s="6"/>
+      <c r="EB128" s="6"/>
+      <c r="EC128" s="6"/>
+      <c r="ED128" s="6"/>
+      <c r="EE128" s="6"/>
+      <c r="EF128" s="6"/>
+      <c r="EG128" s="6"/>
+      <c r="EH128" s="6"/>
+      <c r="EI128" s="6"/>
+      <c r="EJ128" s="6"/>
+      <c r="EK128" s="6"/>
+      <c r="EL128" s="6"/>
+      <c r="EM128" s="6"/>
+      <c r="EN128" s="6"/>
+      <c r="EO128" s="6"/>
+      <c r="EP128" s="6"/>
+      <c r="EQ128" s="6"/>
+      <c r="ER128" s="6"/>
+      <c r="ES128" s="6"/>
+      <c r="ET128" s="6"/>
+      <c r="EU128" s="6"/>
+      <c r="EV128" s="6"/>
+      <c r="EW128" s="6"/>
+      <c r="EX128" s="6"/>
+      <c r="EY128" s="6"/>
+      <c r="EZ128" s="6"/>
+      <c r="FA128" s="6"/>
+      <c r="FB128" s="6"/>
+      <c r="FC128" s="6"/>
+      <c r="FD128" s="6"/>
+      <c r="FE128" s="6"/>
+      <c r="FF128" s="6"/>
+      <c r="FG128" s="6"/>
+      <c r="FH128" s="6"/>
+      <c r="FI128" s="6"/>
+      <c r="FJ128" s="6"/>
+      <c r="FK128" s="6"/>
+      <c r="FL128" s="6"/>
+      <c r="FM128" s="6"/>
+      <c r="FN128" s="6"/>
+      <c r="FO128" s="6"/>
+      <c r="FP128" s="6"/>
+      <c r="FQ128" s="6"/>
+      <c r="FR128" s="6"/>
+      <c r="FS128" s="6"/>
+      <c r="FT128" s="6"/>
+      <c r="FU128" s="6"/>
+      <c r="FV128" s="6"/>
+      <c r="FW128" s="6"/>
+      <c r="FX128" s="6"/>
+      <c r="FY128" s="6"/>
+      <c r="FZ128" s="6"/>
+      <c r="GA128" s="6"/>
+      <c r="GB128" s="6"/>
+      <c r="GC128" s="6"/>
+      <c r="GD128" s="6"/>
+      <c r="GE128" s="6"/>
+      <c r="GF128" s="6"/>
+      <c r="GG128" s="6"/>
+      <c r="GH128" s="6"/>
+      <c r="GI128" s="6"/>
+      <c r="GJ128" s="6"/>
+      <c r="GK128" s="6"/>
+      <c r="GL128" s="6"/>
+      <c r="GM128" s="6"/>
+      <c r="GN128" s="6"/>
+      <c r="GO128" s="6"/>
+      <c r="GP128" s="6"/>
+      <c r="GQ128" s="6"/>
+      <c r="GR128" s="6"/>
+      <c r="GS128" s="6"/>
+      <c r="GT128" s="6"/>
+      <c r="GU128" s="6"/>
+      <c r="GV128" s="6"/>
+      <c r="GW128" s="6"/>
+      <c r="GX128" s="6"/>
+      <c r="GY128" s="6"/>
+      <c r="GZ128" s="6"/>
+      <c r="HA128" s="6"/>
+      <c r="HB128" s="6"/>
+      <c r="HC128" s="6"/>
+      <c r="HD128" s="6"/>
+      <c r="HE128" s="6"/>
+      <c r="HF128" s="6"/>
+      <c r="HG128" s="6"/>
+      <c r="HH128" s="6"/>
+      <c r="HI128" s="6"/>
+      <c r="HJ128" s="6"/>
+      <c r="HK128" s="6"/>
+      <c r="HL128" s="6"/>
+      <c r="HM128" s="6"/>
+      <c r="HN128" s="6"/>
+      <c r="HO128" s="6"/>
+      <c r="HP128" s="6"/>
+      <c r="HQ128" s="6"/>
+      <c r="HR128" s="6"/>
+      <c r="HS128" s="6"/>
+      <c r="HT128" s="6"/>
+      <c r="HU128" s="6"/>
+      <c r="HV128" s="6"/>
+      <c r="HW128" s="6"/>
+      <c r="HX128" s="6"/>
+      <c r="HY128" s="6"/>
+      <c r="HZ128" s="6"/>
+      <c r="IA128" s="6"/>
+      <c r="IB128" s="6"/>
+      <c r="IC128" s="6"/>
+      <c r="ID128" s="6"/>
+      <c r="IE128" s="6"/>
+      <c r="IF128" s="6"/>
+      <c r="IG128" s="6"/>
+      <c r="IH128" s="6"/>
+      <c r="II128" s="6"/>
+      <c r="IJ128" s="6"/>
+      <c r="IK128" s="6"/>
+      <c r="IL128" s="6"/>
+      <c r="IM128" s="6"/>
+      <c r="IN128" s="6"/>
+      <c r="IO128" s="6"/>
+      <c r="IP128" s="6"/>
+      <c r="IQ128" s="6"/>
+      <c r="IR128" s="6"/>
+      <c r="IS128" s="6"/>
+      <c r="IT128" s="6"/>
+      <c r="IU128" s="6"/>
+      <c r="IV128" s="6"/>
+      <c r="IW128" s="6"/>
+      <c r="IX128" s="6"/>
+      <c r="IY128" s="6"/>
+      <c r="IZ128" s="6"/>
+      <c r="JA128" s="6"/>
+      <c r="JB128" s="6"/>
+      <c r="JC128" s="6"/>
+      <c r="JD128" s="6"/>
+      <c r="JE128" s="6"/>
+      <c r="JF128" s="6"/>
+      <c r="JG128" s="6"/>
+      <c r="JH128" s="6"/>
+      <c r="JI128" s="6"/>
+      <c r="JJ128" s="6"/>
+      <c r="JK128" s="6"/>
+      <c r="JL128" s="6"/>
+      <c r="JM128" s="6"/>
+      <c r="JN128" s="6"/>
+      <c r="JO128" s="6"/>
+      <c r="JP128" s="6"/>
+      <c r="JQ128" s="6"/>
+      <c r="JR128" s="6"/>
+      <c r="JS128" s="6"/>
+      <c r="JT128" s="6"/>
+      <c r="JU128" s="6"/>
+      <c r="JV128" s="6"/>
+      <c r="JW128" s="6"/>
+      <c r="JX128" s="6"/>
+      <c r="JY128" s="6"/>
+      <c r="JZ128" s="6"/>
+      <c r="KA128" s="6"/>
+      <c r="KB128" s="6"/>
+      <c r="KC128" s="6"/>
+      <c r="KD128" s="6"/>
+      <c r="KE128" s="6"/>
+      <c r="KF128" s="6"/>
+      <c r="KG128" s="6"/>
+      <c r="KH128" s="6"/>
+      <c r="KI128" s="6"/>
+      <c r="KJ128" s="6"/>
+      <c r="KK128" s="6"/>
+      <c r="KL128" s="6"/>
+      <c r="KM128" s="6"/>
+      <c r="KN128" s="6"/>
+      <c r="KO128" s="6"/>
+      <c r="KP128" s="6"/>
+      <c r="KQ128" s="6"/>
+      <c r="KR128" s="6"/>
+      <c r="KS128" s="6"/>
+      <c r="KT128" s="6"/>
+      <c r="KU128" s="6"/>
+      <c r="KV128" s="6"/>
+      <c r="KW128" s="6"/>
+      <c r="KX128" s="6"/>
+      <c r="KY128" s="6"/>
+      <c r="KZ128" s="6"/>
+      <c r="LA128" s="6"/>
+      <c r="LB128" s="6"/>
+      <c r="LC128" s="6"/>
+      <c r="LD128" s="6"/>
+      <c r="LE128" s="6"/>
+      <c r="LF128" s="6"/>
+      <c r="LG128" s="6"/>
+      <c r="LH128" s="6"/>
+      <c r="LI128" s="6"/>
+      <c r="LJ128" s="6"/>
+      <c r="LK128" s="6"/>
+      <c r="LL128" s="6"/>
+      <c r="LM128" s="6"/>
+      <c r="LN128" s="6"/>
+      <c r="LO128" s="6"/>
+      <c r="LP128" s="6"/>
+      <c r="LQ128" s="6"/>
+      <c r="LR128" s="6"/>
+      <c r="LS128" s="6"/>
+      <c r="LT128" s="6"/>
+      <c r="LU128" s="6"/>
+      <c r="LV128" s="6"/>
+      <c r="LW128" s="6"/>
+      <c r="LX128" s="6"/>
+      <c r="LY128" s="6"/>
+      <c r="LZ128" s="6"/>
+      <c r="MA128" s="6"/>
+      <c r="MB128" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="MC128" s="6"/>
+      <c r="MD128" s="6"/>
+      <c r="ME128" s="6"/>
+      <c r="MF128" s="6"/>
+      <c r="MG128" s="6"/>
+      <c r="MH128" s="6"/>
+      <c r="MI128" s="6"/>
+      <c r="MJ128" s="6"/>
+      <c r="MK128" s="6"/>
+      <c r="ML128" s="6"/>
       <c r="NJ128" s="2" t="s">
         <v>0</v>
       </c>
@@ -11793,33 +12481,36 @@
       <c r="CB129" s="3"/>
       <c r="CC129" s="3"/>
       <c r="CD129" s="3"/>
+      <c r="CF129" s="6"/>
       <c r="CI129" s="2" t="s">
         <v>0</v>
       </c>
       <c r="DA129" s="3"/>
-      <c r="DB129" s="3"/>
-      <c r="DC129" s="3"/>
-      <c r="DD129" s="3"/>
-      <c r="DE129" s="3"/>
-      <c r="DF129" s="3"/>
-      <c r="DG129" s="3"/>
-      <c r="DH129" s="3"/>
-      <c r="DI129" s="3"/>
-      <c r="DJ129" s="3"/>
-      <c r="DK129" s="3"/>
-      <c r="DL129" s="3"/>
-      <c r="DM129" s="3"/>
-      <c r="DN129" s="3"/>
-      <c r="DO129" s="3"/>
-      <c r="DP129" s="3"/>
-      <c r="DQ129" s="3"/>
-      <c r="DR129" s="3"/>
-      <c r="DS129" s="3"/>
+      <c r="DB129" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="DC129" s="6"/>
+      <c r="DD129" s="6"/>
+      <c r="DE129" s="6"/>
+      <c r="DF129" s="6"/>
+      <c r="DG129" s="6"/>
+      <c r="DH129" s="6"/>
+      <c r="DI129" s="6"/>
+      <c r="DJ129" s="6"/>
+      <c r="DK129" s="6"/>
+      <c r="DL129" s="6"/>
+      <c r="DM129" s="6"/>
+      <c r="DN129" s="6"/>
+      <c r="DO129" s="6"/>
+      <c r="DP129" s="6"/>
+      <c r="DQ129" s="6"/>
+      <c r="DR129" s="6"/>
+      <c r="DS129" s="6"/>
       <c r="DT129" s="3"/>
       <c r="DU129" s="3"/>
       <c r="DV129" s="3"/>
       <c r="DW129" s="3"/>
-      <c r="DX129" s="3"/>
+      <c r="DX129" s="6"/>
       <c r="DY129" s="3"/>
       <c r="DZ129" s="3"/>
       <c r="EA129" s="3"/>
@@ -11947,7 +12638,7 @@
       <c r="IS129" s="3"/>
       <c r="IT129" s="3"/>
       <c r="IU129" s="3"/>
-      <c r="IV129" s="3"/>
+      <c r="IV129" s="6"/>
       <c r="IW129" s="3"/>
       <c r="JD129" s="3"/>
       <c r="JE129" s="3"/>
@@ -11967,6 +12658,7 @@
       <c r="JS129" s="3"/>
       <c r="JT129" s="3"/>
       <c r="JU129" s="3"/>
+      <c r="KP129" s="6"/>
       <c r="KS129" s="3"/>
       <c r="KT129" s="3"/>
       <c r="KU129" s="3"/>
@@ -11981,6 +12673,8 @@
       <c r="LD129" s="3"/>
       <c r="LE129" s="3"/>
       <c r="LF129" s="3"/>
+      <c r="LS129" s="6"/>
+      <c r="ML129" s="6"/>
       <c r="NJ129" s="2" t="s">
         <v>0</v>
       </c>
@@ -11999,7 +12693,11 @@
       <c r="CA130" s="3"/>
       <c r="CB130" s="3"/>
       <c r="CC130" s="3"/>
-      <c r="CD130" s="3"/>
+      <c r="CD130" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="CE130" s="6"/>
+      <c r="CF130" s="6"/>
       <c r="CI130" s="2" t="s">
         <v>0</v>
       </c>
@@ -12021,12 +12719,12 @@
       <c r="DP130" s="3"/>
       <c r="DQ130" s="3"/>
       <c r="DR130" s="3"/>
-      <c r="DS130" s="3"/>
+      <c r="DS130" s="6"/>
       <c r="DT130" s="3"/>
       <c r="DU130" s="3"/>
       <c r="DV130" s="3"/>
       <c r="DW130" s="3"/>
-      <c r="DX130" s="3"/>
+      <c r="DX130" s="6"/>
       <c r="DY130" s="3"/>
       <c r="DZ130" s="3"/>
       <c r="EA130" s="3"/>
@@ -12154,7 +12852,7 @@
       <c r="IS130" s="3"/>
       <c r="IT130" s="3"/>
       <c r="IU130" s="3"/>
-      <c r="IV130" s="3"/>
+      <c r="IV130" s="6"/>
       <c r="IW130" s="3"/>
       <c r="JD130" s="3"/>
       <c r="JE130" s="3"/>
@@ -12177,7 +12875,7 @@
       <c r="KJ130" s="3"/>
       <c r="KK130" s="3"/>
       <c r="KO130" s="3"/>
-      <c r="KP130" s="3"/>
+      <c r="KP130" s="6"/>
       <c r="KQ130" s="3"/>
       <c r="KS130" s="3"/>
       <c r="KT130" s="3"/>
@@ -12193,6 +12891,8 @@
       <c r="LD130" s="3"/>
       <c r="LE130" s="3"/>
       <c r="LF130" s="3"/>
+      <c r="LS130" s="6"/>
+      <c r="ML130" s="6"/>
       <c r="NJ130" s="2" t="s">
         <v>0</v>
       </c>
@@ -12215,6 +12915,7 @@
       <c r="CB131" s="3"/>
       <c r="CC131" s="3"/>
       <c r="CD131" s="3"/>
+      <c r="CF131" s="6"/>
       <c r="CI131" s="2" t="s">
         <v>0</v>
       </c>
@@ -12240,12 +12941,12 @@
       <c r="DP131" s="3"/>
       <c r="DQ131" s="3"/>
       <c r="DR131" s="3"/>
-      <c r="DS131" s="3"/>
+      <c r="DS131" s="6"/>
       <c r="DT131" s="3"/>
       <c r="DU131" s="3"/>
       <c r="DV131" s="3"/>
       <c r="DW131" s="3"/>
-      <c r="DX131" s="3"/>
+      <c r="DX131" s="6"/>
       <c r="DY131" s="3"/>
       <c r="DZ131" s="3"/>
       <c r="EA131" s="3"/>
@@ -12373,7 +13074,7 @@
       <c r="IS131" s="3"/>
       <c r="IT131" s="3"/>
       <c r="IU131" s="3"/>
-      <c r="IV131" s="3"/>
+      <c r="IV131" s="6"/>
       <c r="IW131" s="3"/>
       <c r="JS131" s="2" t="s">
         <v>0</v>
@@ -12434,7 +13135,7 @@
         <v>0</v>
       </c>
       <c r="KO131" s="3"/>
-      <c r="KP131" s="3"/>
+      <c r="KP131" s="6"/>
       <c r="KQ131" s="3"/>
       <c r="KR131" s="2" t="s">
         <v>0</v>
@@ -12511,6 +13212,8 @@
       <c r="LP131" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="LS131" s="6"/>
+      <c r="ML131" s="6"/>
       <c r="NJ131" s="2" t="s">
         <v>0</v>
       </c>
@@ -12570,6 +13273,7 @@
       <c r="CD132" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="CF132" s="6"/>
       <c r="CI132" s="2" t="s">
         <v>0</v>
       </c>
@@ -12633,18 +13337,20 @@
       <c r="DC132" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="DS132" s="6"/>
       <c r="DU132" s="2" t="s">
         <v>0</v>
       </c>
       <c r="DV132" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="DX132" s="6"/>
       <c r="IR132" s="2" t="s">
         <v>0</v>
       </c>
       <c r="IT132" s="3"/>
       <c r="IU132" s="3"/>
-      <c r="IV132" s="3"/>
+      <c r="IV132" s="6"/>
       <c r="IW132" s="3"/>
       <c r="JS132" s="2" t="s">
         <v>0</v>
@@ -12680,6 +13386,8 @@
       <c r="LP132" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="LS132" s="6"/>
+      <c r="ML132" s="6"/>
       <c r="NJ132" s="2" t="s">
         <v>0</v>
       </c>
@@ -12700,6 +13408,7 @@
       <c r="CD133" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="CF133" s="6"/>
       <c r="CI133" s="2" t="s">
         <v>0</v>
       </c>
@@ -12731,15 +13440,17 @@
       <c r="DC133" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="DS133" s="6"/>
       <c r="DU133" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="DX133" s="6"/>
       <c r="IR133" s="2" t="s">
         <v>0</v>
       </c>
       <c r="IT133" s="3"/>
       <c r="IU133" s="3"/>
-      <c r="IV133" s="3"/>
+      <c r="IV133" s="6"/>
       <c r="IW133" s="3"/>
       <c r="JS133" s="2" t="s">
         <v>0</v>
@@ -12773,12 +13484,11 @@
         <v>0</v>
       </c>
       <c r="LM133" s="3"/>
-      <c r="LN133" s="3" t="s">
-        <v>9</v>
-      </c>
       <c r="LO133" s="3"/>
       <c r="LP133" s="3"/>
       <c r="LQ133" s="3"/>
+      <c r="LS133" s="6"/>
+      <c r="ML133" s="6"/>
       <c r="NJ133" s="2" t="s">
         <v>0</v>
       </c>
@@ -12799,6 +13509,7 @@
       <c r="CD134" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="CF134" s="6"/>
       <c r="CI134" s="2" t="s">
         <v>0</v>
       </c>
@@ -12830,15 +13541,17 @@
       <c r="DC134" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="DS134" s="6"/>
       <c r="DU134" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="DX134" s="6"/>
       <c r="IR134" s="2" t="s">
         <v>0</v>
       </c>
       <c r="IT134" s="3"/>
       <c r="IU134" s="3"/>
-      <c r="IV134" s="3"/>
+      <c r="IV134" s="6"/>
       <c r="IW134" s="3"/>
       <c r="JS134" s="2" t="s">
         <v>0</v>
@@ -12862,8 +13575,13 @@
       <c r="LM134" s="3"/>
       <c r="LN134" s="3"/>
       <c r="LO134" s="3"/>
-      <c r="LP134" s="3"/>
-      <c r="LQ134" s="3"/>
+      <c r="LP134" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="LQ134" s="6"/>
+      <c r="LR134" s="6"/>
+      <c r="LS134" s="6"/>
+      <c r="ML134" s="6"/>
       <c r="NJ134" s="2" t="s">
         <v>0</v>
       </c>
@@ -12881,6 +13599,7 @@
       <c r="CD135" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="CF135" s="6"/>
       <c r="CI135" s="2" t="s">
         <v>0</v>
       </c>
@@ -12912,15 +13631,17 @@
       <c r="DC135" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="DS135" s="6"/>
       <c r="DU135" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="DX135" s="6"/>
       <c r="IR135" s="2" t="s">
         <v>0</v>
       </c>
       <c r="IT135" s="3"/>
       <c r="IU135" s="3"/>
-      <c r="IV135" s="3"/>
+      <c r="IV135" s="6"/>
       <c r="IW135" s="3"/>
       <c r="JS135" s="2" t="s">
         <v>0</v>
@@ -12961,6 +13682,8 @@
       <c r="LO135" s="3"/>
       <c r="LP135" s="3"/>
       <c r="LQ135" s="3"/>
+      <c r="LS135" s="6"/>
+      <c r="ML135" s="6"/>
       <c r="MQ135" s="2" t="s">
         <v>0</v>
       </c>
@@ -12981,12 +13704,10 @@
       <c r="BP136" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="BW136" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="CD136" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="CF136" s="6"/>
       <c r="CI136" s="2" t="s">
         <v>0</v>
       </c>
@@ -13018,15 +13739,17 @@
       <c r="DC136" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="DS136" s="6"/>
       <c r="DU136" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="DX136" s="6"/>
       <c r="IR136" s="2" t="s">
         <v>0</v>
       </c>
       <c r="IT136" s="3"/>
       <c r="IU136" s="3"/>
-      <c r="IV136" s="3"/>
+      <c r="IV136" s="6"/>
       <c r="IW136" s="3"/>
       <c r="JS136" s="2" t="s">
         <v>0</v>
@@ -13080,6 +13803,8 @@
       <c r="LP136" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="LS136" s="6"/>
+      <c r="ML136" s="6"/>
       <c r="MQ136" s="2" t="s">
         <v>0</v>
       </c>
@@ -13103,6 +13828,7 @@
       <c r="CD137" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="CF137" s="6"/>
       <c r="CI137" s="2" t="s">
         <v>0</v>
       </c>
@@ -13134,15 +13860,17 @@
       <c r="DC137" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="DS137" s="6"/>
       <c r="DU137" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="DX137" s="6"/>
       <c r="IR137" s="2" t="s">
         <v>0</v>
       </c>
       <c r="IT137" s="3"/>
       <c r="IU137" s="3"/>
-      <c r="IV137" s="3"/>
+      <c r="IV137" s="6"/>
       <c r="IW137" s="3"/>
       <c r="JS137" s="2" t="s">
         <v>0</v>
@@ -13169,6 +13897,8 @@
       <c r="LP137" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="LS137" s="6"/>
+      <c r="ML137" s="6"/>
       <c r="NJ137" s="2" t="s">
         <v>0</v>
       </c>
@@ -13187,6 +13917,7 @@
       <c r="CB138" s="3"/>
       <c r="CC138" s="3"/>
       <c r="CD138" s="3"/>
+      <c r="CF138" s="6"/>
       <c r="CI138" s="2" t="s">
         <v>0</v>
       </c>
@@ -13245,15 +13976,17 @@
       <c r="DP138" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="DS138" s="6"/>
       <c r="DU138" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="DX138" s="6"/>
       <c r="IR138" s="2" t="s">
         <v>0</v>
       </c>
       <c r="IT138" s="3"/>
       <c r="IU138" s="3"/>
-      <c r="IV138" s="3"/>
+      <c r="IV138" s="6"/>
       <c r="IW138" s="3"/>
       <c r="JE138" s="2" t="s">
         <v>0</v>
@@ -13301,6 +14034,8 @@
       <c r="LP138" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="LS138" s="6"/>
+      <c r="ML138" s="6"/>
       <c r="NJ138" s="2" t="s">
         <v>0</v>
       </c>
@@ -13321,7 +14056,11 @@
       <c r="CA139" s="3"/>
       <c r="CB139" s="3"/>
       <c r="CC139" s="3"/>
-      <c r="CD139" s="3"/>
+      <c r="CD139" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="CE139" s="6"/>
+      <c r="CF139" s="6"/>
       <c r="CI139" s="2" t="s">
         <v>0</v>
       </c>
@@ -13371,15 +14110,17 @@
       <c r="DP139" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="DS139" s="6"/>
       <c r="DU139" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="DX139" s="6"/>
       <c r="IR139" s="2" t="s">
         <v>0</v>
       </c>
       <c r="IT139" s="3"/>
       <c r="IU139" s="3"/>
-      <c r="IV139" s="3"/>
+      <c r="IV139" s="6"/>
       <c r="IW139" s="3"/>
       <c r="JE139" s="2" t="s">
         <v>0</v>
@@ -13463,6 +14204,8 @@
       <c r="LP139" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="LS139" s="6"/>
+      <c r="ML139" s="6"/>
       <c r="NJ139" s="2" t="s">
         <v>0</v>
       </c>
@@ -13484,6 +14227,7 @@
       <c r="CB140" s="3"/>
       <c r="CC140" s="3"/>
       <c r="CD140" s="3"/>
+      <c r="CF140" s="6"/>
       <c r="CI140" s="2" t="s">
         <v>0</v>
       </c>
@@ -13539,15 +14283,17 @@
       <c r="DP140" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="DS140" s="6"/>
       <c r="DU140" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="DX140" s="6"/>
       <c r="IR140" s="2" t="s">
         <v>0</v>
       </c>
       <c r="IT140" s="3"/>
       <c r="IU140" s="3"/>
-      <c r="IV140" s="3"/>
+      <c r="IV140" s="6"/>
       <c r="IW140" s="3"/>
       <c r="JE140" s="2" t="s">
         <v>0</v>
@@ -13689,12 +14435,14 @@
       <c r="LO140" s="3"/>
       <c r="LP140" s="3"/>
       <c r="LQ140" s="3"/>
+      <c r="LS140" s="6"/>
       <c r="LX140" s="2" t="s">
         <v>0</v>
       </c>
       <c r="LY140" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="ML140" s="6"/>
       <c r="MQ140" s="2" t="s">
         <v>0</v>
       </c>
@@ -13886,6 +14634,7 @@
       <c r="CD141" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="CF141" s="6"/>
       <c r="CI141" s="2" t="s">
         <v>0</v>
       </c>
@@ -13932,15 +14681,17 @@
       <c r="DM141" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="DS141" s="6"/>
       <c r="DU141" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="DX141" s="6"/>
       <c r="IR141" s="2" t="s">
         <v>0</v>
       </c>
       <c r="IT141" s="3"/>
       <c r="IU141" s="3"/>
-      <c r="IV141" s="3"/>
+      <c r="IV141" s="6"/>
       <c r="IW141" s="3"/>
       <c r="JH141" s="2" t="s">
         <v>0</v>
@@ -13981,14 +14732,19 @@
       </c>
       <c r="LN141" s="3"/>
       <c r="LO141" s="3"/>
-      <c r="LP141" s="3"/>
-      <c r="LQ141" s="3"/>
+      <c r="LP141" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="LQ141" s="6"/>
+      <c r="LR141" s="6"/>
+      <c r="LS141" s="6"/>
       <c r="LX141" s="2" t="s">
         <v>0</v>
       </c>
       <c r="LY141" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="ML141" s="6"/>
       <c r="MQ141" s="2" t="s">
         <v>0</v>
       </c>
@@ -14141,6 +14897,7 @@
       <c r="CD142" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="CF142" s="6"/>
       <c r="CI142" s="2" t="s">
         <v>0</v>
       </c>
@@ -14187,15 +14944,17 @@
       <c r="DM142" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="DS142" s="6"/>
       <c r="DU142" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="DX142" s="6"/>
       <c r="IR142" s="2" t="s">
         <v>0</v>
       </c>
       <c r="IT142" s="3"/>
       <c r="IU142" s="3"/>
-      <c r="IV142" s="3"/>
+      <c r="IV142" s="6"/>
       <c r="IW142" s="3"/>
       <c r="JH142" s="2" t="s">
         <v>0</v>
@@ -14239,20 +14998,19 @@
       </c>
       <c r="LF142" s="2" t="s">
         <v>0</v>
-      </c>
-      <c r="LK142" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="LN142" s="3"/>
       <c r="LO142" s="3"/>
       <c r="LP142" s="3"/>
       <c r="LQ142" s="3"/>
+      <c r="LS142" s="6"/>
       <c r="LX142" s="2" t="s">
         <v>0</v>
       </c>
       <c r="LY142" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="ML142" s="6"/>
       <c r="MQ142" s="2" t="s">
         <v>0</v>
       </c>
@@ -14300,6 +15058,7 @@
       <c r="CD143" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="CF143" s="6"/>
       <c r="CI143" s="2" t="s">
         <v>0</v>
       </c>
@@ -14367,15 +15126,17 @@
       <c r="DP143" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="DS143" s="6"/>
       <c r="DU143" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="DX143" s="6"/>
       <c r="IR143" s="2" t="s">
         <v>0</v>
       </c>
       <c r="IT143" s="3"/>
       <c r="IU143" s="3"/>
-      <c r="IV143" s="3"/>
+      <c r="IV143" s="6"/>
       <c r="IW143" s="3"/>
       <c r="JE143" s="2" t="s">
         <v>0</v>
@@ -14463,7 +15224,9 @@
         <v>0</v>
       </c>
       <c r="LR143" s="3"/>
-      <c r="LS143" s="3"/>
+      <c r="LS143" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="LT143" s="3"/>
       <c r="LU143" s="2" t="s">
         <v>0</v>
@@ -14492,6 +15255,7 @@
       <c r="MC143" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="ML143" s="6"/>
       <c r="MQ143" s="2" t="s">
         <v>0</v>
       </c>
@@ -14539,6 +15303,7 @@
       <c r="CD144" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="CF144" s="6"/>
       <c r="CI144" s="2" t="s">
         <v>0</v>
       </c>
@@ -14594,15 +15359,17 @@
       <c r="DP144" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="DS144" s="6"/>
       <c r="DU144" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="DX144" s="6"/>
       <c r="IR144" s="2" t="s">
         <v>0</v>
       </c>
       <c r="IT144" s="3"/>
       <c r="IU144" s="3"/>
-      <c r="IV144" s="3"/>
+      <c r="IV144" s="6"/>
       <c r="IW144" s="3"/>
       <c r="JE144" s="2" t="s">
         <v>0</v>
@@ -14665,10 +15432,20 @@
       <c r="MC144" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="MZ144" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="NJ144" s="2" t="s">
+      <c r="ML144" s="6"/>
+      <c r="MZ144" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="NA144" s="4"/>
+      <c r="NB144" s="4"/>
+      <c r="NC144" s="4"/>
+      <c r="ND144" s="4"/>
+      <c r="NE144" s="4"/>
+      <c r="NF144" s="4"/>
+      <c r="NG144" s="4"/>
+      <c r="NH144" s="4"/>
+      <c r="NI144" s="4"/>
+      <c r="NJ144" s="5" t="s">
         <v>0</v>
       </c>
       <c r="NK144" s="2" t="s">
@@ -14711,14 +15488,12 @@
       </c>
       <c r="BP145" s="2" t="s">
         <v>0</v>
-      </c>
-      <c r="BV145" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="CA145" s="3"/>
       <c r="CB145" s="3"/>
       <c r="CC145" s="3"/>
       <c r="CD145" s="3"/>
+      <c r="CF145" s="6"/>
       <c r="CI145" s="2" t="s">
         <v>0</v>
       </c>
@@ -14774,15 +15549,17 @@
       <c r="DP145" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="DS145" s="6"/>
       <c r="DU145" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="DX145" s="6"/>
       <c r="IR145" s="2" t="s">
         <v>0</v>
       </c>
       <c r="IT145" s="3"/>
       <c r="IU145" s="3"/>
-      <c r="IV145" s="3"/>
+      <c r="IV145" s="6"/>
       <c r="IW145" s="3"/>
       <c r="JE145" s="2" t="s">
         <v>0</v>
@@ -14845,6 +15622,7 @@
       <c r="MC145" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="ML145" s="6"/>
       <c r="MZ145" s="2" t="s">
         <v>0</v>
       </c>
@@ -14895,7 +15673,11 @@
       <c r="CA146" s="3"/>
       <c r="CB146" s="3"/>
       <c r="CC146" s="3"/>
-      <c r="CD146" s="3"/>
+      <c r="CD146" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="CE146" s="6"/>
+      <c r="CF146" s="6"/>
       <c r="CI146" s="2" t="s">
         <v>0</v>
       </c>
@@ -14924,15 +15706,17 @@
       <c r="DC146" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="DS146" s="6"/>
       <c r="DU146" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="DX146" s="6"/>
       <c r="IR146" s="2" t="s">
         <v>0</v>
       </c>
       <c r="IT146" s="3"/>
       <c r="IU146" s="3"/>
-      <c r="IV146" s="3"/>
+      <c r="IV146" s="6"/>
       <c r="IW146" s="3"/>
       <c r="JS146" s="2" t="s">
         <v>0</v>
@@ -14970,6 +15754,7 @@
       <c r="MC146" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="ML146" s="6"/>
       <c r="MZ146" s="2" t="s">
         <v>0</v>
       </c>
@@ -15018,6 +15803,7 @@
       <c r="CB147" s="3"/>
       <c r="CC147" s="3"/>
       <c r="CD147" s="3"/>
+      <c r="CF147" s="6"/>
       <c r="CI147" s="2" t="s">
         <v>0</v>
       </c>
@@ -15046,15 +15832,17 @@
       <c r="DC147" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="DS147" s="6"/>
       <c r="DU147" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="DX147" s="6"/>
       <c r="IR147" s="2" t="s">
         <v>0</v>
       </c>
       <c r="IT147" s="3"/>
       <c r="IU147" s="3"/>
-      <c r="IV147" s="3"/>
+      <c r="IV147" s="6"/>
       <c r="IW147" s="3"/>
       <c r="JS147" s="2" t="s">
         <v>0</v>
@@ -15086,12 +15874,10 @@
       <c r="LP147" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="LV147" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="MC147" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="ML147" s="6"/>
       <c r="MQ147" s="2" t="s">
         <v>0</v>
       </c>
@@ -15143,7 +15929,7 @@
         <v>0</v>
       </c>
       <c r="CE148" s="3"/>
-      <c r="CF148" s="3"/>
+      <c r="CF148" s="6"/>
       <c r="CG148" s="3"/>
       <c r="CH148" s="3"/>
       <c r="CI148" s="2" t="s">
@@ -15174,15 +15960,17 @@
       <c r="DC148" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="DS148" s="6"/>
       <c r="DU148" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="DX148" s="6"/>
       <c r="IR148" s="2" t="s">
         <v>0</v>
       </c>
       <c r="IT148" s="3"/>
       <c r="IU148" s="3"/>
-      <c r="IV148" s="3"/>
+      <c r="IV148" s="6"/>
       <c r="IW148" s="3"/>
       <c r="JS148" s="2" t="s">
         <v>0</v>
@@ -15220,6 +16008,7 @@
       <c r="MC148" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="ML148" s="6"/>
       <c r="MQ148" s="2" t="s">
         <v>0</v>
       </c>
@@ -15268,7 +16057,7 @@
         <v>0</v>
       </c>
       <c r="CE149" s="3"/>
-      <c r="CF149" s="3"/>
+      <c r="CF149" s="6"/>
       <c r="CG149" s="3"/>
       <c r="CH149" s="3"/>
       <c r="CI149" s="2" t="s">
@@ -15299,15 +16088,17 @@
       <c r="DC149" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="DS149" s="6"/>
       <c r="DU149" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="DX149" s="6"/>
       <c r="IR149" s="2" t="s">
         <v>0</v>
       </c>
       <c r="IT149" s="3"/>
       <c r="IU149" s="3"/>
-      <c r="IV149" s="3"/>
+      <c r="IV149" s="6"/>
       <c r="IW149" s="3"/>
       <c r="JS149" s="2" t="s">
         <v>0</v>
@@ -15345,18 +16136,12 @@
       <c r="MC149" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="MZ149" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="NA149" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="NB149" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="NC149" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="ML149" s="6"/>
+      <c r="MZ149" s="3"/>
+      <c r="NA149" s="3"/>
+      <c r="NB149" s="3"/>
+      <c r="NC149" s="3"/>
+      <c r="ND149" s="3"/>
       <c r="NJ149" s="2" t="s">
         <v>0</v>
       </c>
@@ -15399,7 +16184,7 @@
         <v>0</v>
       </c>
       <c r="CE150" s="3"/>
-      <c r="CF150" s="3"/>
+      <c r="CF150" s="6"/>
       <c r="CG150" s="3"/>
       <c r="CH150" s="3"/>
       <c r="CI150" s="2" t="s">
@@ -15430,15 +16215,17 @@
       <c r="DC150" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="DS150" s="6"/>
       <c r="DU150" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="DX150" s="6"/>
       <c r="IR150" s="2" t="s">
         <v>0</v>
       </c>
       <c r="IT150" s="3"/>
       <c r="IU150" s="3"/>
-      <c r="IV150" s="3"/>
+      <c r="IV150" s="6"/>
       <c r="IW150" s="3"/>
       <c r="JS150" s="2" t="s">
         <v>0</v>
@@ -15479,12 +16266,25 @@
       <c r="MC150" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="MZ150" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="NC150" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="ML150" s="6"/>
+      <c r="MM150" s="6"/>
+      <c r="MN150" s="6"/>
+      <c r="MO150" s="6"/>
+      <c r="MP150" s="6"/>
+      <c r="MQ150" s="6"/>
+      <c r="MR150" s="6"/>
+      <c r="MS150" s="6"/>
+      <c r="MT150" s="6"/>
+      <c r="MU150" s="6"/>
+      <c r="MV150" s="6"/>
+      <c r="MW150" s="6"/>
+      <c r="MX150" s="6"/>
+      <c r="MY150" s="6"/>
+      <c r="MZ150" s="6"/>
+      <c r="NA150" s="3"/>
+      <c r="NB150" s="3"/>
+      <c r="NC150" s="3"/>
+      <c r="ND150" s="3"/>
       <c r="NJ150" s="2" t="s">
         <v>0</v>
       </c>
@@ -15578,7 +16378,7 @@
         <v>0</v>
       </c>
       <c r="CE151" s="3"/>
-      <c r="CF151" s="3"/>
+      <c r="CF151" s="6"/>
       <c r="CG151" s="3"/>
       <c r="CH151" s="3"/>
       <c r="CI151" s="2" t="s">
@@ -15626,12 +16426,12 @@
       <c r="DP151" s="3"/>
       <c r="DQ151" s="3"/>
       <c r="DR151" s="3"/>
-      <c r="DS151" s="3"/>
+      <c r="DS151" s="6"/>
       <c r="DT151" s="3"/>
       <c r="DU151" s="3"/>
       <c r="DV151" s="3"/>
       <c r="DW151" s="3"/>
-      <c r="DX151" s="3"/>
+      <c r="DX151" s="6"/>
       <c r="DY151" s="3"/>
       <c r="DZ151" s="3"/>
       <c r="EA151" s="3"/>
@@ -15759,7 +16559,7 @@
       <c r="IS151" s="3"/>
       <c r="IT151" s="3"/>
       <c r="IU151" s="3"/>
-      <c r="IV151" s="3"/>
+      <c r="IV151" s="6"/>
       <c r="IW151" s="3"/>
       <c r="JS151" s="2" t="s">
         <v>0</v>
@@ -15847,7 +16647,7 @@
         <v>0</v>
       </c>
       <c r="LA151" s="3"/>
-      <c r="LB151" s="3"/>
+      <c r="LB151" s="6"/>
       <c r="LC151" s="2" t="s">
         <v>0</v>
       </c>
@@ -15935,15 +16735,12 @@
       <c r="ME151" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="MZ151" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="NA151" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="NB151" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="ML151" s="6"/>
+      <c r="MZ151" s="3"/>
+      <c r="NA151" s="3"/>
+      <c r="NB151" s="3"/>
+      <c r="NC151" s="3"/>
+      <c r="ND151" s="3"/>
       <c r="NJ151" s="2" t="s">
         <v>0</v>
       </c>
@@ -15992,7 +16789,7 @@
         <v>0</v>
       </c>
       <c r="CE152" s="3"/>
-      <c r="CF152" s="3"/>
+      <c r="CF152" s="6"/>
       <c r="CG152" s="3"/>
       <c r="CH152" s="3"/>
       <c r="CI152" s="3"/>
@@ -16029,12 +16826,12 @@
       <c r="DP152" s="3"/>
       <c r="DQ152" s="3"/>
       <c r="DR152" s="3"/>
-      <c r="DS152" s="3"/>
+      <c r="DS152" s="6"/>
       <c r="DT152" s="3"/>
       <c r="DU152" s="3"/>
       <c r="DV152" s="3"/>
       <c r="DW152" s="3"/>
-      <c r="DX152" s="3"/>
+      <c r="DX152" s="6"/>
       <c r="DY152" s="3"/>
       <c r="DZ152" s="3"/>
       <c r="EA152" s="3"/>
@@ -16162,7 +16959,7 @@
       <c r="IS152" s="3"/>
       <c r="IT152" s="3"/>
       <c r="IU152" s="3"/>
-      <c r="IV152" s="3"/>
+      <c r="IV152" s="6"/>
       <c r="IW152" s="3"/>
       <c r="JJ152" s="3"/>
       <c r="JK152" s="3"/>
@@ -16208,7 +17005,7 @@
       <c r="KY152" s="3"/>
       <c r="KZ152" s="3"/>
       <c r="LA152" s="3"/>
-      <c r="LB152" s="3"/>
+      <c r="LB152" s="6"/>
       <c r="LC152" s="3"/>
       <c r="LD152" s="3"/>
       <c r="LE152" s="3"/>
@@ -16240,6 +17037,7 @@
       <c r="ME152" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="ML152" s="6"/>
       <c r="MZ152" s="2" t="s">
         <v>0</v>
       </c>
@@ -16267,7 +17065,7 @@
         <v>0</v>
       </c>
       <c r="AO153" s="3"/>
-      <c r="AP153" s="3"/>
+      <c r="AP153" s="6"/>
       <c r="AQ153" s="3"/>
       <c r="AR153" s="2" t="s">
         <v>0</v>
@@ -16311,7 +17109,7 @@
       <c r="BR153" s="3"/>
       <c r="BS153" s="3"/>
       <c r="CE153" s="3"/>
-      <c r="CF153" s="3"/>
+      <c r="CF153" s="6"/>
       <c r="CG153" s="3"/>
       <c r="CH153" s="3"/>
       <c r="CI153" s="3"/>
@@ -16348,12 +17146,12 @@
       <c r="DP153" s="3"/>
       <c r="DQ153" s="3"/>
       <c r="DR153" s="3"/>
-      <c r="DS153" s="3"/>
+      <c r="DS153" s="6"/>
       <c r="DT153" s="3"/>
       <c r="DU153" s="3"/>
       <c r="DV153" s="3"/>
       <c r="DW153" s="3"/>
-      <c r="DX153" s="3"/>
+      <c r="DX153" s="6"/>
       <c r="DY153" s="3"/>
       <c r="DZ153" s="3"/>
       <c r="EA153" s="3"/>
@@ -16481,7 +17279,7 @@
       <c r="IS153" s="3"/>
       <c r="IT153" s="3"/>
       <c r="IU153" s="3"/>
-      <c r="IV153" s="3"/>
+      <c r="IV153" s="6"/>
       <c r="IW153" s="3"/>
       <c r="JJ153" s="3"/>
       <c r="JK153" s="3"/>
@@ -16527,7 +17325,7 @@
       <c r="KY153" s="3"/>
       <c r="KZ153" s="3"/>
       <c r="LA153" s="3"/>
-      <c r="LB153" s="3"/>
+      <c r="LB153" s="6"/>
       <c r="LC153" s="3"/>
       <c r="LD153" s="3"/>
       <c r="LE153" s="3"/>
@@ -16559,6 +17357,7 @@
       <c r="ME153" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="ML153" s="6"/>
       <c r="MZ153" s="2" t="s">
         <v>0</v>
       </c>
@@ -16591,27 +17390,22 @@
       <c r="AM154" s="3"/>
       <c r="AN154" s="3"/>
       <c r="AO154" s="3"/>
-      <c r="AP154" s="3"/>
+      <c r="AP154" s="6"/>
       <c r="AQ154" s="3"/>
       <c r="AR154" s="3"/>
       <c r="AS154" s="3"/>
       <c r="AT154" s="3"/>
-      <c r="BC154" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="BD154" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="BE154" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="BB154" s="3"/>
+      <c r="BC154" s="3"/>
+      <c r="BD154" s="3"/>
+      <c r="BE154" s="3"/>
       <c r="BO154" s="3"/>
       <c r="BP154" s="3"/>
       <c r="BQ154" s="3"/>
       <c r="BR154" s="3"/>
       <c r="BS154" s="3"/>
       <c r="CE154" s="3"/>
-      <c r="CF154" s="3"/>
+      <c r="CF154" s="6"/>
       <c r="CG154" s="3"/>
       <c r="CH154" s="3"/>
       <c r="CI154" s="3"/>
@@ -16648,12 +17442,12 @@
       <c r="DP154" s="3"/>
       <c r="DQ154" s="3"/>
       <c r="DR154" s="3"/>
-      <c r="DS154" s="3"/>
+      <c r="DS154" s="6"/>
       <c r="DT154" s="3"/>
       <c r="DU154" s="3"/>
       <c r="DV154" s="3"/>
       <c r="DW154" s="3"/>
-      <c r="DX154" s="3"/>
+      <c r="DX154" s="6"/>
       <c r="DY154" s="3"/>
       <c r="DZ154" s="3"/>
       <c r="EA154" s="3"/>
@@ -16781,7 +17575,7 @@
       <c r="IS154" s="3"/>
       <c r="IT154" s="3"/>
       <c r="IU154" s="3"/>
-      <c r="IV154" s="3"/>
+      <c r="IV154" s="6"/>
       <c r="IW154" s="3"/>
       <c r="JJ154" s="3"/>
       <c r="JK154" s="3"/>
@@ -16827,7 +17621,7 @@
       <c r="KY154" s="3"/>
       <c r="KZ154" s="3"/>
       <c r="LA154" s="3"/>
-      <c r="LB154" s="3"/>
+      <c r="LB154" s="6"/>
       <c r="LC154" s="3"/>
       <c r="LD154" s="3"/>
       <c r="LE154" s="3"/>
@@ -16859,6 +17653,7 @@
       <c r="ME154" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="ML154" s="6"/>
       <c r="MZ154" s="2" t="s">
         <v>0</v>
       </c>
@@ -16880,28 +17675,40 @@
       <c r="AK155" s="3"/>
       <c r="AL155" s="3"/>
       <c r="AM155" s="3"/>
-      <c r="AN155" s="3"/>
-      <c r="AO155" s="3"/>
-      <c r="AP155" s="3"/>
-      <c r="AQ155" s="3"/>
-      <c r="AR155" s="3"/>
-      <c r="AS155" s="3"/>
-      <c r="AT155" s="3"/>
-      <c r="AY155" s="3"/>
-      <c r="AZ155" s="3"/>
-      <c r="BA155" s="3"/>
-      <c r="BB155" s="3"/>
-      <c r="BC155" s="3"/>
-      <c r="BD155" s="3"/>
-      <c r="BE155" s="3"/>
-      <c r="BF155" s="3"/>
-      <c r="BO155" s="3"/>
-      <c r="BP155" s="3"/>
-      <c r="BQ155" s="3"/>
-      <c r="BR155" s="3"/>
-      <c r="BS155" s="3"/>
+      <c r="AN155" s="6"/>
+      <c r="AO155" s="6"/>
+      <c r="AP155" s="6"/>
+      <c r="AQ155" s="6"/>
+      <c r="AR155" s="6"/>
+      <c r="AS155" s="6"/>
+      <c r="AT155" s="6"/>
+      <c r="AU155" s="6"/>
+      <c r="AV155" s="6"/>
+      <c r="AW155" s="6"/>
+      <c r="AX155" s="6"/>
+      <c r="AY155" s="6"/>
+      <c r="AZ155" s="6"/>
+      <c r="BA155" s="6"/>
+      <c r="BB155" s="6"/>
+      <c r="BC155" s="6"/>
+      <c r="BD155" s="6"/>
+      <c r="BE155" s="6"/>
+      <c r="BF155" s="6"/>
+      <c r="BG155" s="6"/>
+      <c r="BH155" s="6"/>
+      <c r="BI155" s="6"/>
+      <c r="BJ155" s="6"/>
+      <c r="BK155" s="6"/>
+      <c r="BL155" s="6"/>
+      <c r="BM155" s="6"/>
+      <c r="BN155" s="6"/>
+      <c r="BO155" s="6"/>
+      <c r="BP155" s="6"/>
+      <c r="BQ155" s="6"/>
+      <c r="BR155" s="6"/>
+      <c r="BS155" s="6"/>
       <c r="CE155" s="3"/>
-      <c r="CF155" s="3"/>
+      <c r="CF155" s="6"/>
       <c r="CG155" s="3"/>
       <c r="CH155" s="3"/>
       <c r="CI155" s="3"/>
@@ -16938,12 +17745,12 @@
       <c r="DP155" s="3"/>
       <c r="DQ155" s="3"/>
       <c r="DR155" s="3"/>
-      <c r="DS155" s="3"/>
+      <c r="DS155" s="6"/>
       <c r="DT155" s="3"/>
       <c r="DU155" s="3"/>
       <c r="DV155" s="3"/>
       <c r="DW155" s="3"/>
-      <c r="DX155" s="3"/>
+      <c r="DX155" s="6"/>
       <c r="DY155" s="3"/>
       <c r="DZ155" s="3"/>
       <c r="EA155" s="3"/>
@@ -17071,7 +17878,7 @@
       <c r="IS155" s="3"/>
       <c r="IT155" s="3"/>
       <c r="IU155" s="3"/>
-      <c r="IV155" s="3"/>
+      <c r="IV155" s="6"/>
       <c r="IW155" s="3"/>
       <c r="JJ155" s="3"/>
       <c r="JK155" s="3"/>
@@ -17117,7 +17924,7 @@
       <c r="KY155" s="3"/>
       <c r="KZ155" s="3"/>
       <c r="LA155" s="3"/>
-      <c r="LB155" s="3"/>
+      <c r="LB155" s="6"/>
       <c r="LC155" s="3"/>
       <c r="LD155" s="3"/>
       <c r="LE155" s="3"/>
@@ -17149,6 +17956,7 @@
       <c r="ME155" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="ML155" s="6"/>
       <c r="MZ155" s="2" t="s">
         <v>0</v>
       </c>
@@ -17172,7 +17980,7 @@
       <c r="AM156" s="3"/>
       <c r="AN156" s="3"/>
       <c r="AO156" s="3"/>
-      <c r="AP156" s="3"/>
+      <c r="AP156" s="6"/>
       <c r="AQ156" s="3"/>
       <c r="AR156" s="3"/>
       <c r="AS156" s="3"/>
@@ -17189,256 +17997,282 @@
       <c r="BP156" s="3"/>
       <c r="BQ156" s="3"/>
       <c r="BR156" s="3"/>
-      <c r="BS156" s="3"/>
-      <c r="CE156" s="3"/>
-      <c r="CF156" s="3"/>
-      <c r="CG156" s="3"/>
-      <c r="CH156" s="3"/>
-      <c r="CI156" s="3"/>
-      <c r="CJ156" s="3"/>
-      <c r="CK156" s="3"/>
-      <c r="CL156" s="3"/>
-      <c r="CM156" s="3"/>
-      <c r="CN156" s="3"/>
-      <c r="CO156" s="3"/>
-      <c r="CP156" s="3"/>
-      <c r="CQ156" s="3"/>
-      <c r="CR156" s="3"/>
-      <c r="CS156" s="3"/>
-      <c r="CT156" s="3"/>
-      <c r="CU156" s="3"/>
-      <c r="CV156" s="3"/>
-      <c r="CW156" s="3"/>
-      <c r="CX156" s="3"/>
-      <c r="CY156" s="3"/>
-      <c r="CZ156" s="3"/>
-      <c r="DA156" s="3"/>
-      <c r="DB156" s="3"/>
-      <c r="DC156" s="3"/>
-      <c r="DD156" s="3"/>
-      <c r="DE156" s="3"/>
-      <c r="DF156" s="3"/>
-      <c r="DG156" s="3"/>
-      <c r="DH156" s="3"/>
-      <c r="DI156" s="3"/>
-      <c r="DJ156" s="3"/>
-      <c r="DK156" s="3"/>
-      <c r="DL156" s="3"/>
-      <c r="DM156" s="3"/>
-      <c r="DP156" s="3"/>
-      <c r="DQ156" s="3"/>
-      <c r="DR156" s="3"/>
-      <c r="DS156" s="3"/>
-      <c r="DT156" s="3"/>
-      <c r="DU156" s="3"/>
-      <c r="DV156" s="3"/>
-      <c r="DW156" s="3"/>
-      <c r="DX156" s="3"/>
-      <c r="DY156" s="3"/>
-      <c r="DZ156" s="3"/>
-      <c r="EA156" s="3"/>
-      <c r="EB156" s="3"/>
-      <c r="EC156" s="3"/>
-      <c r="ED156" s="3"/>
-      <c r="EE156" s="3"/>
-      <c r="EF156" s="3"/>
-      <c r="EG156" s="3"/>
-      <c r="EH156" s="3"/>
-      <c r="EI156" s="3"/>
-      <c r="EJ156" s="3"/>
-      <c r="EK156" s="3"/>
-      <c r="EL156" s="3"/>
-      <c r="EM156" s="3"/>
-      <c r="EN156" s="3"/>
-      <c r="EO156" s="3"/>
-      <c r="EP156" s="3"/>
-      <c r="EQ156" s="3"/>
-      <c r="ER156" s="3"/>
-      <c r="ES156" s="3"/>
-      <c r="ET156" s="3"/>
-      <c r="EU156" s="3"/>
-      <c r="EV156" s="3"/>
-      <c r="EW156" s="3"/>
-      <c r="EX156" s="3"/>
-      <c r="EY156" s="3"/>
-      <c r="EZ156" s="3"/>
-      <c r="FA156" s="3"/>
-      <c r="FB156" s="3"/>
-      <c r="FC156" s="3"/>
-      <c r="FD156" s="3"/>
-      <c r="FE156" s="3"/>
-      <c r="FF156" s="3"/>
-      <c r="FG156" s="3"/>
-      <c r="FH156" s="3"/>
-      <c r="FI156" s="3"/>
-      <c r="FJ156" s="3"/>
-      <c r="FK156" s="3"/>
-      <c r="FL156" s="3"/>
-      <c r="FM156" s="3"/>
-      <c r="FN156" s="3"/>
-      <c r="FO156" s="3"/>
-      <c r="FP156" s="3"/>
-      <c r="FQ156" s="3"/>
-      <c r="FR156" s="3"/>
-      <c r="FS156" s="3"/>
-      <c r="FT156" s="3"/>
-      <c r="FU156" s="3"/>
-      <c r="FV156" s="3"/>
-      <c r="FW156" s="3"/>
-      <c r="FX156" s="3"/>
-      <c r="FY156" s="3"/>
-      <c r="FZ156" s="3"/>
-      <c r="GA156" s="3"/>
-      <c r="GB156" s="3"/>
-      <c r="GC156" s="3"/>
-      <c r="GD156" s="3"/>
-      <c r="GE156" s="3"/>
-      <c r="GF156" s="3"/>
-      <c r="GG156" s="3"/>
-      <c r="GH156" s="3"/>
-      <c r="GI156" s="3"/>
-      <c r="GJ156" s="3"/>
-      <c r="GK156" s="3"/>
-      <c r="GL156" s="3"/>
-      <c r="GM156" s="3"/>
-      <c r="GN156" s="3"/>
-      <c r="GO156" s="3"/>
-      <c r="GP156" s="3"/>
-      <c r="GQ156" s="3"/>
-      <c r="GR156" s="3"/>
-      <c r="GS156" s="3"/>
-      <c r="GT156" s="3"/>
-      <c r="GU156" s="3"/>
-      <c r="GV156" s="3"/>
-      <c r="GW156" s="3"/>
-      <c r="GX156" s="3"/>
-      <c r="GY156" s="3"/>
-      <c r="GZ156" s="3"/>
-      <c r="HA156" s="3"/>
-      <c r="HB156" s="3"/>
-      <c r="HC156" s="3"/>
-      <c r="HD156" s="3"/>
-      <c r="HE156" s="3"/>
-      <c r="HF156" s="3"/>
-      <c r="HG156" s="3"/>
-      <c r="HH156" s="3"/>
-      <c r="HI156" s="3"/>
-      <c r="HJ156" s="3"/>
-      <c r="HK156" s="3"/>
-      <c r="HL156" s="3"/>
-      <c r="HM156" s="3"/>
-      <c r="HN156" s="3"/>
-      <c r="HO156" s="3"/>
-      <c r="HP156" s="3"/>
-      <c r="HQ156" s="3"/>
-      <c r="HR156" s="3"/>
-      <c r="HS156" s="3"/>
-      <c r="HT156" s="3"/>
-      <c r="HU156" s="3"/>
-      <c r="HV156" s="3"/>
-      <c r="HW156" s="3"/>
-      <c r="HX156" s="3"/>
-      <c r="HY156" s="3"/>
-      <c r="HZ156" s="3"/>
-      <c r="IA156" s="3"/>
-      <c r="IB156" s="3"/>
-      <c r="IC156" s="3"/>
-      <c r="ID156" s="3"/>
-      <c r="IE156" s="3"/>
-      <c r="IF156" s="3"/>
-      <c r="IG156" s="3"/>
-      <c r="IH156" s="3"/>
-      <c r="II156" s="3"/>
-      <c r="IJ156" s="3"/>
-      <c r="IK156" s="3"/>
-      <c r="IL156" s="3"/>
-      <c r="IM156" s="3"/>
-      <c r="IN156" s="3"/>
-      <c r="IO156" s="3"/>
-      <c r="IP156" s="3"/>
-      <c r="IQ156" s="3"/>
-      <c r="IR156" s="3"/>
-      <c r="IS156" s="3"/>
-      <c r="IT156" s="3"/>
-      <c r="IU156" s="3"/>
-      <c r="IV156" s="3"/>
-      <c r="IW156" s="3"/>
-      <c r="JJ156" s="3"/>
-      <c r="JK156" s="3"/>
-      <c r="JL156" s="3"/>
-      <c r="JM156" s="3"/>
-      <c r="JN156" s="3"/>
-      <c r="JO156" s="3"/>
-      <c r="JP156" s="3"/>
-      <c r="JQ156" s="3"/>
-      <c r="JR156" s="3"/>
-      <c r="JS156" s="3"/>
-      <c r="JT156" s="3"/>
-      <c r="JU156" s="3"/>
-      <c r="JV156" s="3"/>
-      <c r="JW156" s="3"/>
-      <c r="JX156" s="3"/>
-      <c r="JY156" s="3"/>
-      <c r="JZ156" s="3"/>
-      <c r="KA156" s="3"/>
-      <c r="KB156" s="3"/>
-      <c r="KC156" s="3"/>
-      <c r="KD156" s="3"/>
-      <c r="KE156" s="3"/>
-      <c r="KF156" s="3"/>
-      <c r="KG156" s="3"/>
-      <c r="KH156" s="3"/>
-      <c r="KI156" s="3"/>
-      <c r="KJ156" s="3"/>
-      <c r="KK156" s="3"/>
-      <c r="KL156" s="3"/>
-      <c r="KM156" s="3"/>
-      <c r="KN156" s="3"/>
-      <c r="KO156" s="3"/>
-      <c r="KP156" s="3"/>
-      <c r="KQ156" s="3"/>
-      <c r="KR156" s="3"/>
-      <c r="KS156" s="3"/>
-      <c r="KT156" s="3"/>
-      <c r="KU156" s="3"/>
-      <c r="KV156" s="3"/>
-      <c r="KW156" s="3"/>
-      <c r="KX156" s="3"/>
-      <c r="KY156" s="3"/>
-      <c r="KZ156" s="3"/>
-      <c r="LA156" s="3"/>
-      <c r="LB156" s="3"/>
-      <c r="LC156" s="3"/>
-      <c r="LD156" s="3"/>
-      <c r="LE156" s="3"/>
-      <c r="LF156" s="3"/>
-      <c r="LG156" s="3"/>
-      <c r="LH156" s="3"/>
-      <c r="LI156" s="3"/>
-      <c r="LJ156" s="3"/>
-      <c r="LK156" s="3"/>
-      <c r="LL156" s="3"/>
-      <c r="LM156" s="3"/>
-      <c r="LN156" s="3"/>
-      <c r="LO156" s="3"/>
-      <c r="LP156" s="3"/>
-      <c r="LQ156" s="3"/>
-      <c r="LR156" s="3"/>
-      <c r="LS156" s="3"/>
-      <c r="LT156" s="3"/>
-      <c r="LU156" s="3"/>
-      <c r="LV156" s="3"/>
-      <c r="LW156" s="3"/>
-      <c r="LX156" s="3"/>
-      <c r="LY156" s="3"/>
-      <c r="LZ156" s="3"/>
-      <c r="MA156" s="3"/>
-      <c r="MB156" s="3"/>
+      <c r="BS156" s="6"/>
+      <c r="BT156" s="6"/>
+      <c r="BU156" s="6"/>
+      <c r="BV156" s="6"/>
+      <c r="BW156" s="6"/>
+      <c r="BX156" s="6"/>
+      <c r="BY156" s="6"/>
+      <c r="BZ156" s="6"/>
+      <c r="CA156" s="6"/>
+      <c r="CB156" s="6"/>
+      <c r="CC156" s="6"/>
+      <c r="CD156" s="6"/>
+      <c r="CE156" s="6"/>
+      <c r="CF156" s="6"/>
+      <c r="CG156" s="6"/>
+      <c r="CH156" s="6"/>
+      <c r="CI156" s="6"/>
+      <c r="CJ156" s="6"/>
+      <c r="CK156" s="6"/>
+      <c r="CL156" s="6"/>
+      <c r="CM156" s="6"/>
+      <c r="CN156" s="6"/>
+      <c r="CO156" s="6"/>
+      <c r="CP156" s="6"/>
+      <c r="CQ156" s="6"/>
+      <c r="CR156" s="6"/>
+      <c r="CS156" s="6"/>
+      <c r="CT156" s="6"/>
+      <c r="CU156" s="6"/>
+      <c r="CV156" s="6"/>
+      <c r="CW156" s="6"/>
+      <c r="CX156" s="6"/>
+      <c r="CY156" s="6"/>
+      <c r="CZ156" s="6"/>
+      <c r="DA156" s="6"/>
+      <c r="DB156" s="6"/>
+      <c r="DC156" s="6"/>
+      <c r="DD156" s="6"/>
+      <c r="DE156" s="6"/>
+      <c r="DF156" s="6"/>
+      <c r="DG156" s="6"/>
+      <c r="DH156" s="6"/>
+      <c r="DI156" s="6"/>
+      <c r="DJ156" s="6"/>
+      <c r="DK156" s="6"/>
+      <c r="DL156" s="6"/>
+      <c r="DM156" s="6"/>
+      <c r="DN156" s="6"/>
+      <c r="DO156" s="6"/>
+      <c r="DP156" s="6"/>
+      <c r="DQ156" s="6"/>
+      <c r="DR156" s="6"/>
+      <c r="DS156" s="6"/>
+      <c r="DT156" s="6"/>
+      <c r="DU156" s="6"/>
+      <c r="DV156" s="6"/>
+      <c r="DW156" s="6"/>
+      <c r="DX156" s="6"/>
+      <c r="DY156" s="6"/>
+      <c r="DZ156" s="6"/>
+      <c r="EA156" s="6"/>
+      <c r="EB156" s="6"/>
+      <c r="EC156" s="6"/>
+      <c r="ED156" s="6"/>
+      <c r="EE156" s="6"/>
+      <c r="EF156" s="6"/>
+      <c r="EG156" s="6"/>
+      <c r="EH156" s="6"/>
+      <c r="EI156" s="6"/>
+      <c r="EJ156" s="6"/>
+      <c r="EK156" s="6"/>
+      <c r="EL156" s="6"/>
+      <c r="EM156" s="6"/>
+      <c r="EN156" s="6"/>
+      <c r="EO156" s="6"/>
+      <c r="EP156" s="6"/>
+      <c r="EQ156" s="6"/>
+      <c r="ER156" s="6"/>
+      <c r="ES156" s="6"/>
+      <c r="ET156" s="6"/>
+      <c r="EU156" s="6"/>
+      <c r="EV156" s="6"/>
+      <c r="EW156" s="6"/>
+      <c r="EX156" s="6"/>
+      <c r="EY156" s="6"/>
+      <c r="EZ156" s="6"/>
+      <c r="FA156" s="6"/>
+      <c r="FB156" s="6"/>
+      <c r="FC156" s="6"/>
+      <c r="FD156" s="6"/>
+      <c r="FE156" s="6"/>
+      <c r="FF156" s="6"/>
+      <c r="FG156" s="6"/>
+      <c r="FH156" s="6"/>
+      <c r="FI156" s="6"/>
+      <c r="FJ156" s="6"/>
+      <c r="FK156" s="6"/>
+      <c r="FL156" s="6"/>
+      <c r="FM156" s="6"/>
+      <c r="FN156" s="6"/>
+      <c r="FO156" s="6"/>
+      <c r="FP156" s="6"/>
+      <c r="FQ156" s="6"/>
+      <c r="FR156" s="6"/>
+      <c r="FS156" s="6"/>
+      <c r="FT156" s="6"/>
+      <c r="FU156" s="6"/>
+      <c r="FV156" s="6"/>
+      <c r="FW156" s="6"/>
+      <c r="FX156" s="6"/>
+      <c r="FY156" s="6"/>
+      <c r="FZ156" s="6"/>
+      <c r="GA156" s="6"/>
+      <c r="GB156" s="6"/>
+      <c r="GC156" s="6"/>
+      <c r="GD156" s="6"/>
+      <c r="GE156" s="6"/>
+      <c r="GF156" s="6"/>
+      <c r="GG156" s="6"/>
+      <c r="GH156" s="6"/>
+      <c r="GI156" s="6"/>
+      <c r="GJ156" s="6"/>
+      <c r="GK156" s="6"/>
+      <c r="GL156" s="6"/>
+      <c r="GM156" s="6"/>
+      <c r="GN156" s="6"/>
+      <c r="GO156" s="6"/>
+      <c r="GP156" s="6"/>
+      <c r="GQ156" s="6"/>
+      <c r="GR156" s="6"/>
+      <c r="GS156" s="6"/>
+      <c r="GT156" s="6"/>
+      <c r="GU156" s="6"/>
+      <c r="GV156" s="6"/>
+      <c r="GW156" s="6"/>
+      <c r="GX156" s="6"/>
+      <c r="GY156" s="6"/>
+      <c r="GZ156" s="6"/>
+      <c r="HA156" s="6"/>
+      <c r="HB156" s="6"/>
+      <c r="HC156" s="6"/>
+      <c r="HD156" s="6"/>
+      <c r="HE156" s="6"/>
+      <c r="HF156" s="6"/>
+      <c r="HG156" s="6"/>
+      <c r="HH156" s="6"/>
+      <c r="HI156" s="6"/>
+      <c r="HJ156" s="6"/>
+      <c r="HK156" s="6"/>
+      <c r="HL156" s="6"/>
+      <c r="HM156" s="6"/>
+      <c r="HN156" s="6"/>
+      <c r="HO156" s="6"/>
+      <c r="HP156" s="6"/>
+      <c r="HQ156" s="6"/>
+      <c r="HR156" s="6"/>
+      <c r="HS156" s="6"/>
+      <c r="HT156" s="6"/>
+      <c r="HU156" s="6"/>
+      <c r="HV156" s="6"/>
+      <c r="HW156" s="6"/>
+      <c r="HX156" s="6"/>
+      <c r="HY156" s="6"/>
+      <c r="HZ156" s="6"/>
+      <c r="IA156" s="6"/>
+      <c r="IB156" s="6"/>
+      <c r="IC156" s="6"/>
+      <c r="ID156" s="6"/>
+      <c r="IE156" s="6"/>
+      <c r="IF156" s="6"/>
+      <c r="IG156" s="6"/>
+      <c r="IH156" s="6"/>
+      <c r="II156" s="6"/>
+      <c r="IJ156" s="6"/>
+      <c r="IK156" s="6"/>
+      <c r="IL156" s="6"/>
+      <c r="IM156" s="6"/>
+      <c r="IN156" s="6"/>
+      <c r="IO156" s="6"/>
+      <c r="IP156" s="6"/>
+      <c r="IQ156" s="6"/>
+      <c r="IR156" s="6"/>
+      <c r="IS156" s="6"/>
+      <c r="IT156" s="6"/>
+      <c r="IU156" s="6"/>
+      <c r="IV156" s="6"/>
+      <c r="IW156" s="6"/>
+      <c r="IX156" s="6"/>
+      <c r="IY156" s="6"/>
+      <c r="IZ156" s="6"/>
+      <c r="JA156" s="6"/>
+      <c r="JB156" s="6"/>
+      <c r="JC156" s="6"/>
+      <c r="JD156" s="6"/>
+      <c r="JE156" s="6"/>
+      <c r="JF156" s="6"/>
+      <c r="JG156" s="6"/>
+      <c r="JH156" s="6"/>
+      <c r="JI156" s="6"/>
+      <c r="JJ156" s="6"/>
+      <c r="JK156" s="6"/>
+      <c r="JL156" s="6"/>
+      <c r="JM156" s="6"/>
+      <c r="JN156" s="6"/>
+      <c r="JO156" s="6"/>
+      <c r="JP156" s="6"/>
+      <c r="JQ156" s="6"/>
+      <c r="JR156" s="6"/>
+      <c r="JS156" s="6"/>
+      <c r="JT156" s="6"/>
+      <c r="JU156" s="6"/>
+      <c r="JV156" s="6"/>
+      <c r="JW156" s="6"/>
+      <c r="JX156" s="6"/>
+      <c r="JY156" s="6"/>
+      <c r="JZ156" s="6"/>
+      <c r="KA156" s="6"/>
+      <c r="KB156" s="6"/>
+      <c r="KC156" s="6"/>
+      <c r="KD156" s="6"/>
+      <c r="KE156" s="6"/>
+      <c r="KF156" s="6"/>
+      <c r="KG156" s="6"/>
+      <c r="KH156" s="6"/>
+      <c r="KI156" s="6"/>
+      <c r="KJ156" s="6"/>
+      <c r="KK156" s="6"/>
+      <c r="KL156" s="6"/>
+      <c r="KM156" s="6"/>
+      <c r="KN156" s="6"/>
+      <c r="KO156" s="6"/>
+      <c r="KP156" s="6"/>
+      <c r="KQ156" s="6"/>
+      <c r="KR156" s="6"/>
+      <c r="KS156" s="6"/>
+      <c r="KT156" s="6"/>
+      <c r="KU156" s="6"/>
+      <c r="KV156" s="6"/>
+      <c r="KW156" s="6"/>
+      <c r="KX156" s="6"/>
+      <c r="KY156" s="6"/>
+      <c r="KZ156" s="6"/>
+      <c r="LA156" s="6"/>
+      <c r="LB156" s="6"/>
+      <c r="LC156" s="6"/>
+      <c r="LD156" s="6"/>
+      <c r="LE156" s="6"/>
+      <c r="LF156" s="6"/>
+      <c r="LG156" s="6"/>
+      <c r="LH156" s="6"/>
+      <c r="LI156" s="6"/>
+      <c r="LJ156" s="6"/>
+      <c r="LK156" s="6"/>
+      <c r="LL156" s="6"/>
+      <c r="LM156" s="6"/>
+      <c r="LN156" s="6"/>
+      <c r="LO156" s="6"/>
+      <c r="LP156" s="6"/>
+      <c r="LQ156" s="6"/>
+      <c r="LR156" s="6"/>
+      <c r="LS156" s="6"/>
+      <c r="LT156" s="6"/>
+      <c r="LU156" s="6"/>
+      <c r="LV156" s="6"/>
+      <c r="LW156" s="6"/>
+      <c r="LX156" s="6"/>
+      <c r="LY156" s="6"/>
+      <c r="LZ156" s="6"/>
+      <c r="MA156" s="6"/>
+      <c r="MB156" s="6"/>
       <c r="MC156" s="3"/>
       <c r="MD156" s="3"/>
       <c r="ME156" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="ML156" s="6"/>
       <c r="MZ156" s="2" t="s">
         <v>0</v>
       </c>
@@ -17570,6 +18404,7 @@
       <c r="AN157" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="AP157" s="6"/>
       <c r="AS157" s="2" t="s">
         <v>0</v>
       </c>
@@ -17695,7 +18530,7 @@
       <c r="EE157" s="3"/>
       <c r="EF157" s="3"/>
       <c r="EG157" s="3"/>
-      <c r="EH157" s="3"/>
+      <c r="EH157" s="6"/>
       <c r="EI157" s="3"/>
       <c r="EJ157" s="3"/>
       <c r="EK157" s="3"/>
@@ -17717,7 +18552,7 @@
       <c r="FA157" s="3"/>
       <c r="FB157" s="3"/>
       <c r="FC157" s="3"/>
-      <c r="FD157" s="3"/>
+      <c r="FD157" s="6"/>
       <c r="FE157" s="3"/>
       <c r="FF157" s="3"/>
       <c r="FG157" s="3"/>
@@ -17755,7 +18590,7 @@
       <c r="GM157" s="3"/>
       <c r="GN157" s="3"/>
       <c r="GO157" s="3"/>
-      <c r="GP157" s="3"/>
+      <c r="GP157" s="6"/>
       <c r="GQ157" s="3"/>
       <c r="GR157" s="3"/>
       <c r="GS157" s="3"/>
@@ -17792,7 +18627,7 @@
       <c r="HX157" s="3"/>
       <c r="HY157" s="3"/>
       <c r="HZ157" s="3"/>
-      <c r="IA157" s="3"/>
+      <c r="IA157" s="6"/>
       <c r="IB157" s="3"/>
       <c r="IC157" s="3"/>
       <c r="ID157" s="3"/>
@@ -17813,7 +18648,7 @@
       <c r="IS157" s="3"/>
       <c r="IT157" s="3"/>
       <c r="IU157" s="3"/>
-      <c r="IV157" s="3"/>
+      <c r="IV157" s="6"/>
       <c r="IW157" s="3"/>
       <c r="JJ157" s="3"/>
       <c r="JK157" s="3"/>
@@ -17885,12 +18720,13 @@
       <c r="LY157" s="3"/>
       <c r="LZ157" s="3"/>
       <c r="MA157" s="3"/>
-      <c r="MB157" s="3"/>
+      <c r="MB157" s="6"/>
       <c r="MC157" s="3"/>
       <c r="MD157" s="3"/>
       <c r="ME157" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="ML157" s="6"/>
       <c r="MZ157" s="2" t="s">
         <v>0</v>
       </c>
@@ -18025,6 +18861,7 @@
       <c r="AN158" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="AP158" s="6"/>
       <c r="AS158" s="2" t="s">
         <v>0</v>
       </c>
@@ -18087,7 +18924,7 @@
       <c r="EE158" s="3"/>
       <c r="EF158" s="3"/>
       <c r="EG158" s="3"/>
-      <c r="EH158" s="3"/>
+      <c r="EH158" s="6"/>
       <c r="EI158" s="3"/>
       <c r="EJ158" s="3"/>
       <c r="EK158" s="3"/>
@@ -18109,7 +18946,7 @@
       <c r="FA158" s="3"/>
       <c r="FB158" s="3"/>
       <c r="FC158" s="3"/>
-      <c r="FD158" s="3"/>
+      <c r="FD158" s="6"/>
       <c r="FE158" s="3"/>
       <c r="FF158" s="3"/>
       <c r="FG158" s="3"/>
@@ -18147,7 +18984,7 @@
       <c r="GM158" s="3"/>
       <c r="GN158" s="3"/>
       <c r="GO158" s="3"/>
-      <c r="GP158" s="3"/>
+      <c r="GP158" s="6"/>
       <c r="GQ158" s="3"/>
       <c r="GR158" s="3"/>
       <c r="GS158" s="3"/>
@@ -18184,7 +19021,7 @@
       <c r="HX158" s="3"/>
       <c r="HY158" s="3"/>
       <c r="HZ158" s="3"/>
-      <c r="IA158" s="3"/>
+      <c r="IA158" s="6"/>
       <c r="IB158" s="3"/>
       <c r="IC158" s="3"/>
       <c r="ID158" s="3"/>
@@ -18205,7 +19042,7 @@
       <c r="IS158" s="3"/>
       <c r="IT158" s="3"/>
       <c r="IU158" s="3"/>
-      <c r="IV158" s="3"/>
+      <c r="IV158" s="6"/>
       <c r="IW158" s="3"/>
       <c r="JJ158" s="3"/>
       <c r="JK158" s="3"/>
@@ -18277,12 +19114,13 @@
       <c r="LY158" s="3"/>
       <c r="LZ158" s="3"/>
       <c r="MA158" s="3"/>
-      <c r="MB158" s="3"/>
+      <c r="MB158" s="6"/>
       <c r="MC158" s="3"/>
       <c r="MD158" s="3"/>
       <c r="ME158" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="ML158" s="6"/>
       <c r="MZ158" s="2" t="s">
         <v>0</v>
       </c>
@@ -18309,6 +19147,7 @@
       <c r="AN159" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="AP159" s="6"/>
       <c r="AS159" s="2" t="s">
         <v>0</v>
       </c>
@@ -18371,7 +19210,7 @@
       <c r="EE159" s="3"/>
       <c r="EF159" s="3"/>
       <c r="EG159" s="3"/>
-      <c r="EH159" s="3"/>
+      <c r="EH159" s="6"/>
       <c r="EI159" s="3"/>
       <c r="EJ159" s="3"/>
       <c r="EK159" s="3"/>
@@ -18393,7 +19232,7 @@
       <c r="FA159" s="3"/>
       <c r="FB159" s="3"/>
       <c r="FC159" s="3"/>
-      <c r="FD159" s="3"/>
+      <c r="FD159" s="6"/>
       <c r="FE159" s="3"/>
       <c r="FF159" s="3"/>
       <c r="FG159" s="3"/>
@@ -18431,7 +19270,7 @@
       <c r="GM159" s="3"/>
       <c r="GN159" s="3"/>
       <c r="GO159" s="3"/>
-      <c r="GP159" s="3"/>
+      <c r="GP159" s="6"/>
       <c r="GQ159" s="3"/>
       <c r="GR159" s="3"/>
       <c r="GS159" s="3"/>
@@ -18468,7 +19307,7 @@
       <c r="HX159" s="3"/>
       <c r="HY159" s="3"/>
       <c r="HZ159" s="3"/>
-      <c r="IA159" s="3"/>
+      <c r="IA159" s="6"/>
       <c r="IB159" s="3"/>
       <c r="IC159" s="3"/>
       <c r="ID159" s="3"/>
@@ -18489,7 +19328,7 @@
       <c r="IS159" s="3"/>
       <c r="IT159" s="3"/>
       <c r="IU159" s="3"/>
-      <c r="IV159" s="3"/>
+      <c r="IV159" s="6"/>
       <c r="IW159" s="3"/>
       <c r="JJ159" s="3"/>
       <c r="JK159" s="3"/>
@@ -18561,12 +19400,13 @@
       <c r="LY159" s="3"/>
       <c r="LZ159" s="3"/>
       <c r="MA159" s="3"/>
-      <c r="MB159" s="3"/>
+      <c r="MB159" s="6"/>
       <c r="MC159" s="3"/>
       <c r="MD159" s="3"/>
       <c r="ME159" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="ML159" s="6"/>
       <c r="MQ159" s="2" t="s">
         <v>0</v>
       </c>
@@ -18599,6 +19439,7 @@
       <c r="AN160" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="AP160" s="6"/>
       <c r="AS160" s="2" t="s">
         <v>0</v>
       </c>
@@ -18709,7 +19550,7 @@
       </c>
       <c r="EF160" s="3"/>
       <c r="EG160" s="3"/>
-      <c r="EH160" s="3"/>
+      <c r="EH160" s="6"/>
       <c r="EI160" s="3"/>
       <c r="EJ160" s="3"/>
       <c r="EK160" s="2" t="s">
@@ -18764,7 +19605,7 @@
         <v>0</v>
       </c>
       <c r="FC160" s="3"/>
-      <c r="FD160" s="3"/>
+      <c r="FD160" s="6"/>
       <c r="FE160" s="3"/>
       <c r="FF160" s="3"/>
       <c r="FG160" s="2" t="s">
@@ -18854,9 +19695,7 @@
       <c r="GM160" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="GP160" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="GP160" s="7"/>
       <c r="GS160" s="2" t="s">
         <v>0</v>
       </c>
@@ -18945,7 +19784,7 @@
         <v>0</v>
       </c>
       <c r="HZ160" s="3"/>
-      <c r="IA160" s="3"/>
+      <c r="IA160" s="6"/>
       <c r="IB160" s="3"/>
       <c r="IC160" s="2" t="s">
         <v>0</v>
@@ -19000,7 +19839,7 @@
       </c>
       <c r="IT160" s="3"/>
       <c r="IU160" s="3"/>
-      <c r="IV160" s="3"/>
+      <c r="IV160" s="6"/>
       <c r="IW160" s="3"/>
       <c r="IX160" s="2" t="s">
         <v>0</v>
@@ -19242,9 +20081,11 @@
       <c r="LY160" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="MB160" s="6"/>
       <c r="ME160" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="ML160" s="6"/>
       <c r="MQ160" s="2" t="s">
         <v>0</v>
       </c>
@@ -19277,6 +20118,7 @@
       <c r="AN161" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="AP161" s="6"/>
       <c r="AS161" s="2" t="s">
         <v>0</v>
       </c>
@@ -19489,7 +20331,9 @@
       </c>
       <c r="EF161" s="3"/>
       <c r="EG161" s="3"/>
-      <c r="EH161" s="3"/>
+      <c r="EH161" s="6" t="s">
+        <v>2</v>
+      </c>
       <c r="EI161" s="3"/>
       <c r="EJ161" s="3"/>
       <c r="EK161" s="2" t="s">
@@ -19544,7 +20388,9 @@
         <v>0</v>
       </c>
       <c r="FC161" s="3"/>
-      <c r="FD161" s="3"/>
+      <c r="FD161" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="FE161" s="3"/>
       <c r="FF161" s="3"/>
       <c r="FG161" s="2" t="s">
@@ -19634,6 +20480,7 @@
       <c r="GM161" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="GP161" s="6"/>
       <c r="GS161" s="2" t="s">
         <v>0</v>
       </c>
@@ -19718,6 +20565,7 @@
       <c r="HY161" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="IA161" s="6"/>
       <c r="IC161" s="2" t="s">
         <v>0</v>
       </c>
@@ -19771,7 +20619,7 @@
       </c>
       <c r="IT161" s="3"/>
       <c r="IU161" s="3"/>
-      <c r="IV161" s="3"/>
+      <c r="IV161" s="6"/>
       <c r="IW161" s="3"/>
       <c r="IX161" s="2" t="s">
         <v>0</v>
@@ -20013,9 +20861,11 @@
       <c r="LY161" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="MB161" s="6"/>
       <c r="ME161" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="ML161" s="6"/>
       <c r="MQ161" s="2" t="s">
         <v>0</v>
       </c>
@@ -20048,6 +20898,7 @@
       <c r="AN162" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="AP162" s="6"/>
       <c r="AS162" s="2" t="s">
         <v>0</v>
       </c>
@@ -20117,6 +20968,7 @@
       <c r="GA162" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="GP162" s="6"/>
       <c r="HM162" s="2" t="s">
         <v>0</v>
       </c>
@@ -20137,7 +20989,7 @@
       </c>
       <c r="IT162" s="3"/>
       <c r="IU162" s="3"/>
-      <c r="IV162" s="3"/>
+      <c r="IV162" s="6"/>
       <c r="IW162" s="3"/>
       <c r="IX162" s="2" t="s">
         <v>0</v>
@@ -20181,6 +21033,7 @@
       <c r="LX162" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="MB162" s="6"/>
       <c r="ME162" s="2" t="s">
         <v>0</v>
       </c>
@@ -20190,6 +21043,7 @@
       <c r="MJ162" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="ML162" s="6"/>
       <c r="MQ162" s="2" t="s">
         <v>0</v>
       </c>
@@ -20258,6 +21112,7 @@
       <c r="AN163" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="AP163" s="6"/>
       <c r="AS163" s="2" t="s">
         <v>0</v>
       </c>
@@ -20299,6 +21154,7 @@
       <c r="GA163" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="GP163" s="6"/>
       <c r="HM163" s="2" t="s">
         <v>0</v>
       </c>
@@ -20313,7 +21169,7 @@
       </c>
       <c r="IT163" s="3"/>
       <c r="IU163" s="3"/>
-      <c r="IV163" s="3"/>
+      <c r="IV163" s="6"/>
       <c r="IW163" s="3"/>
       <c r="IX163" s="2" t="s">
         <v>0</v>
@@ -20342,6 +21198,7 @@
       <c r="LX163" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="MB163" s="6"/>
       <c r="MF163" s="2" t="s">
         <v>0</v>
       </c>
@@ -20354,6 +21211,7 @@
       <c r="MJ163" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="ML163" s="6"/>
       <c r="MY163" s="2" t="s">
         <v>0</v>
       </c>
@@ -20416,6 +21274,7 @@
       <c r="AN164" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="AP164" s="6"/>
       <c r="AS164" s="2" t="s">
         <v>0</v>
       </c>
@@ -20454,6 +21313,7 @@
       <c r="GA164" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="GP164" s="6"/>
       <c r="HM164" s="2" t="s">
         <v>0</v>
       </c>
@@ -20468,7 +21328,7 @@
       <c r="IR164" s="3"/>
       <c r="IT164" s="3"/>
       <c r="IU164" s="3"/>
-      <c r="IV164" s="3"/>
+      <c r="IV164" s="6"/>
       <c r="IW164" s="3"/>
       <c r="IZ164" s="2" t="s">
         <v>0</v>
@@ -20492,12 +21352,14 @@
       <c r="LX164" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="MB164" s="6"/>
       <c r="MG164" s="2" t="s">
         <v>0</v>
       </c>
       <c r="MH164" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="ML164" s="6"/>
       <c r="MX164" s="2" t="s">
         <v>0</v>
       </c>
@@ -20533,6 +21395,7 @@
       <c r="AN165" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="AP165" s="6"/>
       <c r="AS165" s="2" t="s">
         <v>0</v>
       </c>
@@ -20556,6 +21419,7 @@
       <c r="GA165" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="GP165" s="6"/>
       <c r="HM165" s="2" t="s">
         <v>0</v>
       </c>
@@ -20570,7 +21434,7 @@
       <c r="IR165" s="3"/>
       <c r="IT165" s="3"/>
       <c r="IU165" s="3"/>
-      <c r="IV165" s="3"/>
+      <c r="IV165" s="6"/>
       <c r="IW165" s="3"/>
       <c r="IZ165" s="2" t="s">
         <v>0</v>
@@ -20584,16 +21448,29 @@
       <c r="KW165" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="LG165" s="3"/>
-      <c r="LH165" s="3"/>
-      <c r="LI165" s="3"/>
-      <c r="LJ165" s="3"/>
+      <c r="KY165" s="6"/>
+      <c r="KZ165" s="6"/>
+      <c r="LA165" s="6"/>
+      <c r="LB165" s="6"/>
+      <c r="LC165" s="6"/>
+      <c r="LD165" s="6"/>
+      <c r="LE165" s="6"/>
+      <c r="LF165" s="6"/>
+      <c r="LG165" s="6"/>
+      <c r="LH165" s="6"/>
+      <c r="LI165" s="6"/>
+      <c r="LJ165" s="6"/>
+      <c r="LK165" s="6"/>
+      <c r="LL165" s="6"/>
       <c r="LX165" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="MB165" s="6"/>
+      <c r="MC165" s="6"/>
       <c r="MI165" s="3"/>
       <c r="MJ165" s="3"/>
-      <c r="MK165" s="3"/>
+      <c r="MK165" s="6"/>
+      <c r="ML165" s="6"/>
       <c r="MW165" s="2" t="s">
         <v>0</v>
       </c>
@@ -20629,6 +21506,7 @@
       <c r="AN166" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="AP166" s="6"/>
       <c r="AS166" s="2" t="s">
         <v>0</v>
       </c>
@@ -20652,6 +21530,7 @@
       <c r="GA166" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="GP166" s="6"/>
       <c r="HM166" s="2" t="s">
         <v>0</v>
       </c>
@@ -20663,10 +21542,11 @@
       <c r="IO166" s="3"/>
       <c r="IP166" s="3"/>
       <c r="IQ166" s="3"/>
-      <c r="IR166" s="3"/>
-      <c r="IT166" s="3"/>
-      <c r="IU166" s="3"/>
-      <c r="IV166" s="3"/>
+      <c r="IR166" s="6"/>
+      <c r="IS166" s="6"/>
+      <c r="IT166" s="6"/>
+      <c r="IU166" s="6"/>
+      <c r="IV166" s="6"/>
       <c r="IW166" s="3"/>
       <c r="IZ166" s="2" t="s">
         <v>0</v>
@@ -20674,22 +21554,35 @@
       <c r="JO166" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="JR166" s="6"/>
+      <c r="JS166" s="6"/>
+      <c r="JT166" s="6"/>
+      <c r="JU166" s="6"/>
+      <c r="JV166" s="6"/>
+      <c r="JW166" s="6"/>
+      <c r="JX166" s="6"/>
+      <c r="JY166" s="6"/>
+      <c r="JZ166" s="6"/>
       <c r="KG166" s="2" t="s">
         <v>0</v>
       </c>
       <c r="KW166" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="KY166" s="6"/>
       <c r="LG166" s="3"/>
       <c r="LH166" s="3"/>
       <c r="LI166" s="3"/>
       <c r="LJ166" s="3"/>
+      <c r="LL166" s="6"/>
       <c r="LX166" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="MC166" s="6"/>
+      <c r="MD166" s="6"/>
       <c r="MI166" s="3"/>
-      <c r="MJ166" s="3"/>
-      <c r="MK166" s="3"/>
+      <c r="MJ166" s="6"/>
+      <c r="MK166" s="6"/>
       <c r="MM166" s="2" t="s">
         <v>0</v>
       </c>
@@ -20734,6 +21627,7 @@
       <c r="AN167" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="AP167" s="6"/>
       <c r="AS167" s="2" t="s">
         <v>0</v>
       </c>
@@ -20763,6 +21657,7 @@
       <c r="GA167" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="GP167" s="6"/>
       <c r="HM167" s="2" t="s">
         <v>0</v>
       </c>
@@ -20777,7 +21672,7 @@
       <c r="IR167" s="3"/>
       <c r="IT167" s="3"/>
       <c r="IU167" s="3"/>
-      <c r="IV167" s="3"/>
+      <c r="IV167" s="6"/>
       <c r="IW167" s="3"/>
       <c r="IZ167" s="2" t="s">
         <v>0</v>
@@ -20785,6 +21680,8 @@
       <c r="JO167" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="JR167" s="6"/>
+      <c r="JZ167" s="6"/>
       <c r="KE167" s="3"/>
       <c r="KF167" s="3"/>
       <c r="KG167" s="3"/>
@@ -20794,17 +21691,24 @@
       <c r="KW167" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="KY167" s="6"/>
       <c r="LJ167" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="LL167" s="6"/>
       <c r="LX167" s="2" t="s">
         <v>0</v>
       </c>
       <c r="LY167" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="MI167" s="3"/>
-      <c r="MJ167" s="3"/>
+      <c r="MD167" s="6"/>
+      <c r="ME167" s="6"/>
+      <c r="MF167" s="6"/>
+      <c r="MG167" s="6"/>
+      <c r="MH167" s="6"/>
+      <c r="MI167" s="6"/>
+      <c r="MJ167" s="6"/>
       <c r="MK167" s="3"/>
       <c r="MM167" s="2" t="s">
         <v>0</v>
@@ -20841,6 +21745,7 @@
       <c r="AN168" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="AP168" s="6"/>
       <c r="AS168" s="2" t="s">
         <v>0</v>
       </c>
@@ -20873,6 +21778,7 @@
       <c r="GA168" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="GP168" s="6"/>
       <c r="HM168" s="2" t="s">
         <v>0</v>
       </c>
@@ -20884,7 +21790,7 @@
       </c>
       <c r="IT168" s="3"/>
       <c r="IU168" s="3"/>
-      <c r="IV168" s="3"/>
+      <c r="IV168" s="6"/>
       <c r="IW168" s="3"/>
       <c r="IZ168" s="2" t="s">
         <v>0</v>
@@ -20892,9 +21798,16 @@
       <c r="JN168" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="KE168" s="3"/>
-      <c r="KF168" s="3"/>
-      <c r="KG168" s="3"/>
+      <c r="JQ168" s="6"/>
+      <c r="JR168" s="6"/>
+      <c r="JZ168" s="6"/>
+      <c r="KA168" s="6"/>
+      <c r="KB168" s="6"/>
+      <c r="KC168" s="6"/>
+      <c r="KD168" s="6"/>
+      <c r="KE168" s="6"/>
+      <c r="KF168" s="6"/>
+      <c r="KG168" s="6"/>
       <c r="KH168" s="3"/>
       <c r="KI168" s="3"/>
       <c r="KJ168" s="3"/>
@@ -20904,15 +21817,19 @@
       <c r="KW168" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="KY168" s="6"/>
       <c r="LJ168" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="LL168" s="6"/>
       <c r="LX168" s="2" t="s">
         <v>0</v>
       </c>
       <c r="LZ168" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="MD168" s="6"/>
+      <c r="MG168" s="6"/>
       <c r="ML168" s="2" t="s">
         <v>0</v>
       </c>
@@ -20954,6 +21871,7 @@
       <c r="AN169" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="AP169" s="6"/>
       <c r="AS169" s="2" t="s">
         <v>0</v>
       </c>
@@ -20981,6 +21899,7 @@
       <c r="GA169" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="GP169" s="6"/>
       <c r="HM169" s="2" t="s">
         <v>0</v>
       </c>
@@ -20992,7 +21911,7 @@
       </c>
       <c r="IT169" s="3"/>
       <c r="IU169" s="3"/>
-      <c r="IV169" s="3"/>
+      <c r="IV169" s="6"/>
       <c r="IW169" s="3"/>
       <c r="IZ169" s="2" t="s">
         <v>0</v>
@@ -21003,6 +21922,9 @@
       <c r="JM169" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="JP169" s="6"/>
+      <c r="JQ169" s="6"/>
+      <c r="JZ169" s="6"/>
       <c r="KE169" s="3"/>
       <c r="KF169" s="3"/>
       <c r="KG169" s="3"/>
@@ -21016,18 +21938,21 @@
         <v>0</v>
       </c>
       <c r="KX169" s="3"/>
-      <c r="KY169" s="3"/>
+      <c r="KY169" s="6"/>
       <c r="KZ169" s="3"/>
       <c r="LA169" s="3"/>
       <c r="LJ169" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="LL169" s="6"/>
       <c r="LX169" s="2" t="s">
         <v>0</v>
       </c>
       <c r="MA169" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="MD169" s="6"/>
+      <c r="MG169" s="6"/>
       <c r="ML169" s="2" t="s">
         <v>0</v>
       </c>
@@ -21075,6 +22000,7 @@
       <c r="AN170" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="AP170" s="6"/>
       <c r="AS170" s="2" t="s">
         <v>0</v>
       </c>
@@ -21138,6 +22064,7 @@
       <c r="GA170" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="GP170" s="6"/>
       <c r="HM170" s="2" t="s">
         <v>0</v>
       </c>
@@ -21149,7 +22076,7 @@
       </c>
       <c r="IT170" s="3"/>
       <c r="IU170" s="3"/>
-      <c r="IV170" s="3"/>
+      <c r="IV170" s="6"/>
       <c r="IW170" s="3"/>
       <c r="IZ170" s="2" t="s">
         <v>0</v>
@@ -21160,6 +22087,9 @@
       <c r="JL170" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="JO170" s="6"/>
+      <c r="JP170" s="6"/>
+      <c r="JZ170" s="6"/>
       <c r="KG170" s="2" t="s">
         <v>0</v>
       </c>
@@ -21173,18 +22103,22 @@
         <v>0</v>
       </c>
       <c r="KX170" s="3"/>
-      <c r="KY170" s="3"/>
+      <c r="KY170" s="6"/>
       <c r="KZ170" s="3"/>
       <c r="LA170" s="3"/>
       <c r="LJ170" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="LL170" s="6"/>
       <c r="LX170" s="2" t="s">
         <v>0</v>
       </c>
       <c r="MB170" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="MD170" s="6"/>
+      <c r="MG170" s="6"/>
+      <c r="MH170" s="6"/>
       <c r="MM170" s="2" t="s">
         <v>0</v>
       </c>
@@ -21235,6 +22169,7 @@
       <c r="AN171" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="AP171" s="6"/>
       <c r="AS171" s="2" t="s">
         <v>0</v>
       </c>
@@ -21265,6 +22200,7 @@
       <c r="GA171" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="GP171" s="6"/>
       <c r="HM171" s="2" t="s">
         <v>0</v>
       </c>
@@ -21276,7 +22212,7 @@
       </c>
       <c r="IT171" s="3"/>
       <c r="IU171" s="3"/>
-      <c r="IV171" s="3"/>
+      <c r="IV171" s="6"/>
       <c r="IW171" s="3"/>
       <c r="IZ171" s="2" t="s">
         <v>0</v>
@@ -21287,6 +22223,9 @@
       <c r="JK171" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="JN171" s="6"/>
+      <c r="JO171" s="6"/>
+      <c r="JZ171" s="6"/>
       <c r="KE171" s="2" t="s">
         <v>0</v>
       </c>
@@ -21345,7 +22284,7 @@
         <v>0</v>
       </c>
       <c r="KX171" s="3"/>
-      <c r="KY171" s="3"/>
+      <c r="KY171" s="6"/>
       <c r="KZ171" s="3"/>
       <c r="LA171" s="3"/>
       <c r="LB171" s="2" t="s">
@@ -21375,6 +22314,7 @@
       <c r="LJ171" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="LL171" s="6"/>
       <c r="LN171" s="2" t="s">
         <v>0</v>
       </c>
@@ -21415,8 +22355,10 @@
         <v>0</v>
       </c>
       <c r="MC171" s="3"/>
-      <c r="MD171" s="3"/>
+      <c r="MD171" s="6"/>
       <c r="ME171" s="3"/>
+      <c r="MH171" s="6"/>
+      <c r="MI171" s="6"/>
       <c r="MN171" s="2" t="s">
         <v>0</v>
       </c>
@@ -21464,6 +22406,7 @@
       <c r="AN172" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="AP172" s="6"/>
       <c r="AS172" s="2" t="s">
         <v>0</v>
       </c>
@@ -21497,6 +22440,7 @@
       <c r="GA172" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="GP172" s="6"/>
       <c r="HM172" s="2" t="s">
         <v>0</v>
       </c>
@@ -21508,7 +22452,7 @@
       </c>
       <c r="IT172" s="3"/>
       <c r="IU172" s="3"/>
-      <c r="IV172" s="3"/>
+      <c r="IV172" s="6"/>
       <c r="IW172" s="3"/>
       <c r="IZ172" s="2" t="s">
         <v>0</v>
@@ -21532,21 +22476,25 @@
         <v>0</v>
       </c>
       <c r="JG172" s="3"/>
-      <c r="JH172" s="3"/>
+      <c r="JH172" s="6"/>
       <c r="JI172" s="3"/>
       <c r="JJ172" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="JM172" s="6"/>
+      <c r="JN172" s="6"/>
       <c r="JV172" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="JZ172" s="6"/>
       <c r="KX172" s="3"/>
-      <c r="KY172" s="3"/>
+      <c r="KY172" s="6"/>
       <c r="KZ172" s="3"/>
       <c r="LA172" s="3"/>
       <c r="LC172" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="LL172" s="6"/>
       <c r="LZ172" s="2" t="s">
         <v>0</v>
       </c>
@@ -21554,8 +22502,10 @@
         <v>0</v>
       </c>
       <c r="MC172" s="3"/>
-      <c r="MD172" s="3"/>
+      <c r="MD172" s="6"/>
       <c r="ME172" s="3"/>
+      <c r="MI172" s="6"/>
+      <c r="MJ172" s="6"/>
       <c r="MO172" s="2" t="s">
         <v>0</v>
       </c>
@@ -21603,6 +22553,7 @@
       <c r="B173" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="AP173" s="6"/>
       <c r="AS173" s="2" t="s">
         <v>0</v>
       </c>
@@ -21651,6 +22602,7 @@
       <c r="GA173" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="GP173" s="6"/>
       <c r="HM173" s="2" t="s">
         <v>0</v>
       </c>
@@ -21662,21 +22614,26 @@
       </c>
       <c r="IT173" s="3"/>
       <c r="IU173" s="3"/>
-      <c r="IV173" s="3"/>
+      <c r="IV173" s="6"/>
       <c r="IW173" s="3"/>
       <c r="IZ173" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="JH173" s="6"/>
+      <c r="JL173" s="6"/>
+      <c r="JM173" s="6"/>
       <c r="JV173" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="JZ173" s="6"/>
       <c r="KX173" s="3"/>
-      <c r="KY173" s="3"/>
+      <c r="KY173" s="6"/>
       <c r="KZ173" s="3"/>
       <c r="LA173" s="3"/>
       <c r="LC173" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="LL173" s="6"/>
       <c r="LZ173" s="2" t="s">
         <v>0</v>
       </c>
@@ -21686,9 +22643,11 @@
       <c r="MB173" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="MC173" s="3"/>
-      <c r="MD173" s="3"/>
+      <c r="MC173" s="6"/>
+      <c r="MD173" s="6"/>
       <c r="ME173" s="3"/>
+      <c r="MJ173" s="6"/>
+      <c r="MK173" s="6"/>
       <c r="MO173" s="2" t="s">
         <v>0</v>
       </c>
@@ -21739,6 +22698,14 @@
       <c r="AA174" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="AM174" s="6"/>
+      <c r="AN174" s="6"/>
+      <c r="AO174" s="6"/>
+      <c r="AP174" s="6"/>
+      <c r="AS174" s="3"/>
+      <c r="AT174" s="3"/>
+      <c r="AU174" s="3"/>
+      <c r="AV174" s="3"/>
       <c r="BO174" s="2" t="s">
         <v>0</v>
       </c>
@@ -21775,6 +22742,7 @@
       <c r="GA174" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="GP174" s="6"/>
       <c r="HM174" s="2" t="s">
         <v>0</v>
       </c>
@@ -21828,23 +22796,32 @@
       </c>
       <c r="IT174" s="3"/>
       <c r="IU174" s="3"/>
-      <c r="IV174" s="3"/>
+      <c r="IV174" s="6"/>
       <c r="IW174" s="3"/>
       <c r="IZ174" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="JH174" s="6"/>
+      <c r="JK174" s="6"/>
+      <c r="JL174" s="6"/>
       <c r="JV174" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="JZ174" s="6"/>
+      <c r="KY174" s="6"/>
       <c r="LC174" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="MC174" s="3"/>
+      <c r="LL174" s="6"/>
+      <c r="MB174" s="6"/>
+      <c r="MC174" s="6"/>
       <c r="MD174" s="3"/>
       <c r="ME174" s="3"/>
       <c r="MF174" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="MK174" s="6"/>
+      <c r="ML174" s="6"/>
       <c r="MP174" s="2" t="s">
         <v>0</v>
       </c>
@@ -21892,9 +22869,14 @@
       <c r="AA175" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AU175" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="AP175" s="6"/>
+      <c r="AQ175" s="6"/>
+      <c r="AR175" s="6"/>
+      <c r="AS175" s="6"/>
+      <c r="AT175" s="6"/>
+      <c r="AU175" s="6"/>
+      <c r="AV175" s="6"/>
+      <c r="AW175" s="6"/>
       <c r="BO175" s="2" t="s">
         <v>0</v>
       </c>
@@ -21952,6 +22934,7 @@
       <c r="GA175" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="GP175" s="6"/>
       <c r="HM175" s="2" t="s">
         <v>0</v>
       </c>
@@ -21963,17 +22946,41 @@
       </c>
       <c r="IT175" s="3"/>
       <c r="IU175" s="3"/>
-      <c r="IV175" s="3"/>
+      <c r="IV175" s="6"/>
       <c r="IW175" s="3"/>
       <c r="IZ175" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="JG175" s="6"/>
+      <c r="JH175" s="6"/>
+      <c r="JI175" s="6"/>
+      <c r="JJ175" s="6"/>
+      <c r="JK175" s="6"/>
       <c r="JV175" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="JZ175" s="6"/>
+      <c r="KY175" s="6"/>
       <c r="LC175" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="LL175" s="6"/>
+      <c r="LM175" s="6"/>
+      <c r="LN175" s="6"/>
+      <c r="LO175" s="6"/>
+      <c r="LP175" s="6"/>
+      <c r="LQ175" s="6"/>
+      <c r="LR175" s="6"/>
+      <c r="LS175" s="6"/>
+      <c r="LT175" s="6"/>
+      <c r="LU175" s="6"/>
+      <c r="LV175" s="6"/>
+      <c r="LW175" s="6"/>
+      <c r="LX175" s="6"/>
+      <c r="LY175" s="6"/>
+      <c r="LZ175" s="6"/>
+      <c r="MA175" s="6"/>
+      <c r="MB175" s="6"/>
       <c r="MD175" s="2" t="s">
         <v>0</v>
       </c>
@@ -21983,6 +22990,8 @@
       <c r="MG175" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="ML175" s="6"/>
+      <c r="MM175" s="6"/>
       <c r="MQ175" s="2" t="s">
         <v>0</v>
       </c>
@@ -22042,12 +23051,12 @@
       <c r="AC176" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AS176" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AT176" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="AP176" s="3"/>
+      <c r="AQ176" s="6"/>
+      <c r="AS176" s="3"/>
+      <c r="AT176" s="3"/>
+      <c r="AU176" s="3"/>
+      <c r="AV176" s="3"/>
       <c r="BO176" s="2" t="s">
         <v>0</v>
       </c>
@@ -22111,6 +23120,7 @@
       <c r="GA176" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="GP176" s="6"/>
       <c r="HM176" s="2" t="s">
         <v>0</v>
       </c>
@@ -22122,21 +23132,23 @@
       </c>
       <c r="IT176" s="3"/>
       <c r="IU176" s="3"/>
-      <c r="IV176" s="3"/>
+      <c r="IV176" s="6"/>
       <c r="IW176" s="3"/>
       <c r="IZ176" s="2" t="s">
         <v>0</v>
       </c>
       <c r="JE176" s="3"/>
       <c r="JF176" s="3"/>
-      <c r="JG176" s="3"/>
+      <c r="JG176" s="6"/>
       <c r="JH176" s="3"/>
       <c r="JV176" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="JZ176" s="6"/>
       <c r="KL176" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="KY176" s="6"/>
       <c r="LC176" s="2" t="s">
         <v>0</v>
       </c>
@@ -22146,8 +23158,8 @@
       <c r="MH176" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="MM176" s="3"/>
-      <c r="MN176" s="3"/>
+      <c r="MM176" s="6"/>
+      <c r="MN176" s="6"/>
       <c r="MO176" s="3"/>
       <c r="MP176" s="3"/>
       <c r="MQ176" s="3"/>
@@ -22219,6 +23231,7 @@
       <c r="AB177" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="AQ177" s="6"/>
       <c r="AU177" s="2" t="s">
         <v>0</v>
       </c>
@@ -22261,6 +23274,7 @@
       <c r="GA177" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="GP177" s="6"/>
       <c r="HM177" s="2" t="s">
         <v>0</v>
       </c>
@@ -22274,14 +23288,14 @@
       <c r="IS177" s="3"/>
       <c r="IT177" s="3"/>
       <c r="IU177" s="3"/>
-      <c r="IV177" s="3"/>
+      <c r="IV177" s="6"/>
       <c r="IW177" s="3"/>
       <c r="IZ177" s="2" t="s">
         <v>0</v>
       </c>
       <c r="JE177" s="3"/>
       <c r="JF177" s="3"/>
-      <c r="JG177" s="3"/>
+      <c r="JG177" s="6"/>
       <c r="JH177" s="3"/>
       <c r="JJ177" s="2" t="s">
         <v>0</v>
@@ -22289,9 +23303,11 @@
       <c r="JV177" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="JZ177" s="6"/>
       <c r="KL177" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="KY177" s="6"/>
       <c r="LC177" s="2" t="s">
         <v>0</v>
       </c>
@@ -22299,8 +23315,8 @@
         <v>0</v>
       </c>
       <c r="MM177" s="3"/>
-      <c r="MN177" s="3"/>
-      <c r="MO177" s="3"/>
+      <c r="MN177" s="6"/>
+      <c r="MO177" s="6"/>
       <c r="MP177" s="3"/>
       <c r="MQ177" s="3"/>
       <c r="MR177" s="2" t="s">
@@ -22315,7 +23331,8 @@
       <c r="MV177" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="NG177" s="3"/>
+      <c r="NF177" s="6"/>
+      <c r="NG177" s="6"/>
       <c r="NH177" s="3"/>
       <c r="NI177" s="3"/>
       <c r="NJ177" s="2" t="s">
@@ -22353,6 +23370,7 @@
       <c r="AA178" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="AQ178" s="6"/>
       <c r="AU178" s="2" t="s">
         <v>0</v>
       </c>
@@ -22398,6 +23416,7 @@
       <c r="GA178" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="GP178" s="6"/>
       <c r="HM178" s="2" t="s">
         <v>0</v>
       </c>
@@ -22413,11 +23432,11 @@
       <c r="IO178" s="3"/>
       <c r="IP178" s="3"/>
       <c r="IQ178" s="3"/>
-      <c r="IR178" s="3"/>
-      <c r="IS178" s="3"/>
-      <c r="IT178" s="3"/>
-      <c r="IU178" s="3"/>
-      <c r="IV178" s="3"/>
+      <c r="IR178" s="6"/>
+      <c r="IS178" s="6"/>
+      <c r="IT178" s="6"/>
+      <c r="IU178" s="6"/>
+      <c r="IV178" s="6"/>
       <c r="IW178" s="3"/>
       <c r="IY178" s="2" t="s">
         <v>0</v>
@@ -22427,7 +23446,7 @@
       </c>
       <c r="JE178" s="3"/>
       <c r="JF178" s="3"/>
-      <c r="JG178" s="3"/>
+      <c r="JG178" s="6"/>
       <c r="JH178" s="3"/>
       <c r="JJ178" s="2" t="s">
         <v>0</v>
@@ -22441,9 +23460,11 @@
       <c r="JV178" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="JZ178" s="6"/>
       <c r="KL178" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="KY178" s="6"/>
       <c r="LC178" s="2" t="s">
         <v>0</v>
       </c>
@@ -22467,8 +23488,8 @@
       </c>
       <c r="MM178" s="3"/>
       <c r="MN178" s="3"/>
-      <c r="MO178" s="3"/>
-      <c r="MP178" s="3"/>
+      <c r="MO178" s="6"/>
+      <c r="MP178" s="6"/>
       <c r="MQ178" s="3"/>
       <c r="MT178" s="2" t="s">
         <v>0</v>
@@ -22479,6 +23500,8 @@
       <c r="MV178" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="NE178" s="6"/>
+      <c r="NF178" s="6"/>
       <c r="NH178" s="2" t="s">
         <v>0</v>
       </c>
@@ -22533,7 +23556,7 @@
         <v>0</v>
       </c>
       <c r="AP179" s="3"/>
-      <c r="AQ179" s="3"/>
+      <c r="AQ179" s="6"/>
       <c r="AR179" s="3"/>
       <c r="AS179" s="2" t="s">
         <v>0</v>
@@ -22622,9 +23645,6 @@
       <c r="DT179" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="DX179" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="EF179" s="2" t="s">
         <v>0</v>
       </c>
@@ -22643,6 +23663,7 @@
       <c r="GA179" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="GP179" s="6"/>
       <c r="HL179" s="2" t="s">
         <v>0</v>
       </c>
@@ -22668,7 +23689,7 @@
       <c r="IS179" s="3"/>
       <c r="IT179" s="3"/>
       <c r="IU179" s="3"/>
-      <c r="IV179" s="3"/>
+      <c r="IV179" s="6"/>
       <c r="IW179" s="3"/>
       <c r="IY179" s="2" t="s">
         <v>0</v>
@@ -22678,7 +23699,7 @@
       </c>
       <c r="JE179" s="3"/>
       <c r="JF179" s="3"/>
-      <c r="JG179" s="3"/>
+      <c r="JG179" s="6"/>
       <c r="JH179" s="3"/>
       <c r="JJ179" s="2" t="s">
         <v>0</v>
@@ -22692,6 +23713,7 @@
       <c r="JV179" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="JZ179" s="6"/>
       <c r="KK179" s="2" t="s">
         <v>0</v>
       </c>
@@ -22701,6 +23723,7 @@
       <c r="KM179" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="KY179" s="6"/>
       <c r="LC179" s="2" t="s">
         <v>0</v>
       </c>
@@ -22734,8 +23757,8 @@
       <c r="MM179" s="3"/>
       <c r="MN179" s="3"/>
       <c r="MO179" s="3"/>
-      <c r="MP179" s="3"/>
-      <c r="MQ179" s="3"/>
+      <c r="MP179" s="6"/>
+      <c r="MQ179" s="6"/>
       <c r="MU179" s="2" t="s">
         <v>0</v>
       </c>
@@ -22745,6 +23768,8 @@
       <c r="NB179" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="ND179" s="6"/>
+      <c r="NE179" s="6"/>
       <c r="NI179" s="2" t="s">
         <v>0</v>
       </c>
@@ -22787,7 +23812,7 @@
         <v>0</v>
       </c>
       <c r="AP180" s="3"/>
-      <c r="AQ180" s="3"/>
+      <c r="AQ180" s="6"/>
       <c r="AR180" s="3"/>
       <c r="AS180" s="2" t="s">
         <v>0</v>
@@ -22909,6 +23934,7 @@
       <c r="GA180" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="GP180" s="6"/>
       <c r="HL180" s="2" t="s">
         <v>0</v>
       </c>
@@ -23010,7 +24036,7 @@
       </c>
       <c r="IT180" s="3"/>
       <c r="IU180" s="3"/>
-      <c r="IV180" s="3"/>
+      <c r="IV180" s="6"/>
       <c r="IW180" s="3"/>
       <c r="IY180" s="2" t="s">
         <v>0</v>
@@ -23032,7 +24058,7 @@
       </c>
       <c r="JE180" s="3"/>
       <c r="JF180" s="3"/>
-      <c r="JG180" s="3"/>
+      <c r="JG180" s="6"/>
       <c r="JH180" s="3"/>
       <c r="JI180" s="2" t="s">
         <v>0</v>
@@ -23049,6 +24075,7 @@
       <c r="JV180" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="JZ180" s="6"/>
       <c r="KK180" s="2" t="s">
         <v>0</v>
       </c>
@@ -23058,6 +24085,7 @@
       <c r="KM180" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="KY180" s="6"/>
       <c r="LC180" s="2" t="s">
         <v>0</v>
       </c>
@@ -23097,7 +24125,8 @@
       <c r="MN180" s="3"/>
       <c r="MO180" s="3"/>
       <c r="MP180" s="3"/>
-      <c r="MQ180" s="3"/>
+      <c r="MQ180" s="6"/>
+      <c r="MR180" s="6"/>
       <c r="MV180" s="2" t="s">
         <v>0</v>
       </c>
@@ -23107,6 +24136,7 @@
       <c r="NA180" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="ND180" s="6"/>
       <c r="NH180" s="2" t="s">
         <v>0</v>
       </c>
@@ -23149,7 +24179,7 @@
         <v>0</v>
       </c>
       <c r="AP181" s="3"/>
-      <c r="AQ181" s="3"/>
+      <c r="AQ181" s="6"/>
       <c r="AR181" s="3"/>
       <c r="BO181" s="2" t="s">
         <v>0</v>
@@ -23196,6 +24226,7 @@
       <c r="GA181" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="GP181" s="6"/>
       <c r="HM181" s="2" t="s">
         <v>0</v>
       </c>
@@ -23213,7 +24244,7 @@
       </c>
       <c r="IT181" s="3"/>
       <c r="IU181" s="3"/>
-      <c r="IV181" s="3"/>
+      <c r="IV181" s="6"/>
       <c r="IW181" s="3"/>
       <c r="IY181" s="2" t="s">
         <v>0</v>
@@ -23223,7 +24254,7 @@
       </c>
       <c r="JE181" s="3"/>
       <c r="JF181" s="3"/>
-      <c r="JG181" s="3"/>
+      <c r="JG181" s="6"/>
       <c r="JH181" s="3"/>
       <c r="JJ181" s="2" t="s">
         <v>0</v>
@@ -23237,9 +24268,11 @@
       <c r="JV181" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="JZ181" s="6"/>
       <c r="KL181" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="KY181" s="6"/>
       <c r="LC181" s="2" t="s">
         <v>0</v>
       </c>
@@ -23276,6 +24309,8 @@
       <c r="MN181" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="MR181" s="6"/>
+      <c r="MS181" s="6"/>
       <c r="MW181" s="2" t="s">
         <v>0</v>
       </c>
@@ -23285,6 +24320,8 @@
       <c r="MZ181" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="NC181" s="6"/>
+      <c r="ND181" s="6"/>
       <c r="NG181" s="2" t="s">
         <v>0</v>
       </c>
@@ -23327,7 +24364,7 @@
         <v>0</v>
       </c>
       <c r="AP182" s="3"/>
-      <c r="AQ182" s="3"/>
+      <c r="AQ182" s="6"/>
       <c r="AR182" s="3"/>
       <c r="BO182" s="2" t="s">
         <v>0</v>
@@ -23362,6 +24399,7 @@
       <c r="GA182" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="GP182" s="6"/>
       <c r="HM182" s="2" t="s">
         <v>0</v>
       </c>
@@ -23373,7 +24411,7 @@
       </c>
       <c r="IT182" s="3"/>
       <c r="IU182" s="3"/>
-      <c r="IV182" s="3"/>
+      <c r="IV182" s="6"/>
       <c r="IW182" s="3"/>
       <c r="IY182" s="3"/>
       <c r="IZ182" s="3"/>
@@ -23381,7 +24419,7 @@
       <c r="JB182" s="3"/>
       <c r="JE182" s="3"/>
       <c r="JF182" s="3"/>
-      <c r="JG182" s="3"/>
+      <c r="JG182" s="6"/>
       <c r="JH182" s="3"/>
       <c r="JJ182" s="2" t="s">
         <v>0</v>
@@ -23389,9 +24427,11 @@
       <c r="JV182" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="JZ182" s="6"/>
       <c r="KL182" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="KY182" s="6"/>
       <c r="LC182" s="2" t="s">
         <v>0</v>
       </c>
@@ -23413,18 +24453,24 @@
       <c r="MO182" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="MS182" s="6"/>
+      <c r="MT182" s="6"/>
       <c r="MX182" s="2" t="s">
         <v>0</v>
       </c>
       <c r="MY182" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="NE182" s="3"/>
+      <c r="NA182" s="6"/>
+      <c r="NB182" s="6"/>
+      <c r="NC182" s="6"/>
+      <c r="ND182" s="6"/>
+      <c r="NE182" s="6"/>
       <c r="NF182" s="3"/>
       <c r="NG182" s="3"/>
       <c r="NH182" s="3"/>
-      <c r="NL182" s="3"/>
-      <c r="NM182" s="3"/>
+      <c r="NL182" s="6"/>
+      <c r="NM182" s="6"/>
       <c r="NN182" s="3"/>
       <c r="NO182" s="3"/>
       <c r="NP182" s="3"/>
@@ -23552,7 +24598,7 @@
         <v>0</v>
       </c>
       <c r="AP183" s="3"/>
-      <c r="AQ183" s="3"/>
+      <c r="AQ183" s="6"/>
       <c r="AR183" s="3"/>
       <c r="BO183" s="2" t="s">
         <v>0</v>
@@ -23605,6 +24651,7 @@
       <c r="GA183" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="GP183" s="6"/>
       <c r="HM183" s="2" t="s">
         <v>0</v>
       </c>
@@ -23616,21 +24663,29 @@
       </c>
       <c r="IT183" s="3"/>
       <c r="IU183" s="3"/>
-      <c r="IV183" s="3"/>
-      <c r="IW183" s="3"/>
-      <c r="IY183" s="3"/>
-      <c r="IZ183" s="3"/>
-      <c r="JA183" s="3"/>
-      <c r="JB183" s="3"/>
+      <c r="IV183" s="6"/>
+      <c r="IW183" s="6"/>
+      <c r="IX183" s="6"/>
+      <c r="IY183" s="6"/>
+      <c r="IZ183" s="6"/>
+      <c r="JA183" s="6"/>
+      <c r="JB183" s="6"/>
+      <c r="JC183" s="6"/>
+      <c r="JD183" s="6"/>
+      <c r="JE183" s="6"/>
+      <c r="JF183" s="6"/>
+      <c r="JG183" s="6"/>
       <c r="JJ183" s="2" t="s">
         <v>0</v>
       </c>
       <c r="JV183" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="JZ183" s="6"/>
       <c r="KL183" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="KY183" s="6"/>
       <c r="LC183" s="2" t="s">
         <v>0</v>
       </c>
@@ -23655,10 +24710,18 @@
       <c r="MP183" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="NE183" s="3"/>
-      <c r="NF183" s="3"/>
-      <c r="NG183" s="3"/>
-      <c r="NH183" s="3"/>
+      <c r="MT183" s="6"/>
+      <c r="MU183" s="6"/>
+      <c r="MZ183" s="6"/>
+      <c r="NA183" s="6"/>
+      <c r="NE183" s="6"/>
+      <c r="NF183" s="6"/>
+      <c r="NG183" s="6"/>
+      <c r="NH183" s="6"/>
+      <c r="NI183" s="6"/>
+      <c r="NJ183" s="6"/>
+      <c r="NK183" s="6"/>
+      <c r="NL183" s="6"/>
       <c r="NN183" s="2" t="s">
         <v>0</v>
       </c>
@@ -23781,6 +24844,7 @@
       <c r="AN184" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="AQ184" s="6"/>
       <c r="BO184" s="2" t="s">
         <v>0</v>
       </c>
@@ -23802,6 +24866,7 @@
       <c r="GA184" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="GP184" s="6"/>
       <c r="HM184" s="2" t="s">
         <v>0</v>
       </c>
@@ -23813,7 +24878,7 @@
       </c>
       <c r="IT184" s="3"/>
       <c r="IU184" s="3"/>
-      <c r="IV184" s="3"/>
+      <c r="IV184" s="6"/>
       <c r="IW184" s="3"/>
       <c r="IY184" s="3"/>
       <c r="IZ184" s="3"/>
@@ -23825,6 +24890,8 @@
       <c r="JV184" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="JZ184" s="6"/>
+      <c r="KY184" s="6"/>
       <c r="LC184" s="2" t="s">
         <v>0</v>
       </c>
@@ -23852,10 +24919,15 @@
       <c r="MQ184" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="MU184" s="6"/>
+      <c r="MV184" s="6"/>
+      <c r="MY184" s="6"/>
+      <c r="MZ184" s="6"/>
       <c r="NE184" s="3"/>
       <c r="NF184" s="3"/>
       <c r="NG184" s="3"/>
       <c r="NH184" s="3"/>
+      <c r="NL184" s="6"/>
       <c r="NN184" s="2" t="s">
         <v>0</v>
       </c>
@@ -23996,6 +25068,7 @@
       <c r="AN185" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="AQ185" s="6"/>
       <c r="BO185" s="2" t="s">
         <v>0</v>
       </c>
@@ -24017,6 +25090,7 @@
       <c r="GA185" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="GP185" s="6"/>
       <c r="HM185" s="2" t="s">
         <v>0</v>
       </c>
@@ -24028,7 +25102,7 @@
       </c>
       <c r="IT185" s="3"/>
       <c r="IU185" s="3"/>
-      <c r="IV185" s="3"/>
+      <c r="IV185" s="6"/>
       <c r="IW185" s="3"/>
       <c r="IZ185" s="2" t="s">
         <v>0</v>
@@ -24039,6 +25113,8 @@
       <c r="JV185" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="JZ185" s="6"/>
+      <c r="KY185" s="6"/>
       <c r="LC185" s="2" t="s">
         <v>0</v>
       </c>
@@ -24069,6 +25145,10 @@
       <c r="MR185" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="MV185" s="6"/>
+      <c r="MW185" s="6"/>
+      <c r="MX185" s="6"/>
+      <c r="MY185" s="6"/>
       <c r="NB185" s="2" t="s">
         <v>0</v>
       </c>
@@ -24079,6 +25159,7 @@
       <c r="NF185" s="3"/>
       <c r="NG185" s="3"/>
       <c r="NH185" s="3"/>
+      <c r="NL185" s="6"/>
       <c r="NO185" s="2" t="s">
         <v>0</v>
       </c>
@@ -24112,6 +25193,7 @@
       <c r="AM186" s="3"/>
       <c r="AN186" s="3"/>
       <c r="AO186" s="3"/>
+      <c r="AQ186" s="6"/>
       <c r="BO186" s="2" t="s">
         <v>0</v>
       </c>
@@ -24139,6 +25221,7 @@
       <c r="GA186" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="GP186" s="6"/>
       <c r="HM186" s="2" t="s">
         <v>0</v>
       </c>
@@ -24150,7 +25233,7 @@
       </c>
       <c r="IT186" s="3"/>
       <c r="IU186" s="3"/>
-      <c r="IV186" s="3"/>
+      <c r="IV186" s="6"/>
       <c r="IW186" s="3"/>
       <c r="IZ186" s="2" t="s">
         <v>0</v>
@@ -24161,6 +25244,8 @@
       <c r="JV186" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="JZ186" s="6"/>
+      <c r="KY186" s="6"/>
       <c r="LC186" s="2" t="s">
         <v>0</v>
       </c>
@@ -24207,6 +25292,7 @@
       <c r="NF186" s="3"/>
       <c r="NG186" s="3"/>
       <c r="NH186" s="3"/>
+      <c r="NL186" s="6"/>
       <c r="OJ186" s="2" t="s">
         <v>0</v>
       </c>
@@ -24234,6 +25320,7 @@
       <c r="AM187" s="3"/>
       <c r="AN187" s="3"/>
       <c r="AO187" s="3"/>
+      <c r="AQ187" s="6"/>
       <c r="BO187" s="2" t="s">
         <v>0</v>
       </c>
@@ -24246,6 +25333,7 @@
       <c r="GA187" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="GP187" s="6"/>
       <c r="HM187" s="2" t="s">
         <v>0</v>
       </c>
@@ -24257,7 +25345,7 @@
       </c>
       <c r="IT187" s="3"/>
       <c r="IU187" s="3"/>
-      <c r="IV187" s="3"/>
+      <c r="IV187" s="6"/>
       <c r="IW187" s="3"/>
       <c r="IZ187" s="2" t="s">
         <v>0</v>
@@ -24268,6 +25356,8 @@
       <c r="JV187" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="JZ187" s="6"/>
+      <c r="KY187" s="6"/>
       <c r="LC187" s="2" t="s">
         <v>0</v>
       </c>
@@ -24319,6 +25409,7 @@
       <c r="NF187" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="NL187" s="6"/>
       <c r="OK187" s="2" t="s">
         <v>0</v>
       </c>
@@ -24327,6 +25418,7 @@
       </c>
     </row>
     <row r="188" spans="1:404" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AQ188" s="6"/>
       <c r="BO188" s="2" t="s">
         <v>0</v>
       </c>
@@ -24342,6 +25434,7 @@
       <c r="GA188" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="GP188" s="6"/>
       <c r="HL188" s="3"/>
       <c r="HM188" s="3"/>
       <c r="HN188" s="3"/>
@@ -24356,7 +25449,7 @@
       </c>
       <c r="IT188" s="3"/>
       <c r="IU188" s="3"/>
-      <c r="IV188" s="3"/>
+      <c r="IV188" s="6"/>
       <c r="IW188" s="3"/>
       <c r="IZ188" s="2" t="s">
         <v>0</v>
@@ -24367,6 +25460,8 @@
       <c r="JV188" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="JZ188" s="6"/>
+      <c r="KY188" s="6"/>
       <c r="LC188" s="2" t="s">
         <v>0</v>
       </c>
@@ -24412,6 +25507,7 @@
       <c r="NE188" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="NL188" s="6"/>
       <c r="OK188" s="2" t="s">
         <v>0</v>
       </c>
@@ -24423,6 +25519,7 @@
       </c>
     </row>
     <row r="189" spans="1:404" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AQ189" s="6"/>
       <c r="BO189" s="2" t="s">
         <v>0</v>
       </c>
@@ -24438,6 +25535,7 @@
       <c r="GA189" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="GP189" s="6"/>
       <c r="HL189" s="3"/>
       <c r="HM189" s="3"/>
       <c r="HN189" s="3"/>
@@ -24456,7 +25554,7 @@
       <c r="IS189" s="3"/>
       <c r="IT189" s="3"/>
       <c r="IU189" s="3"/>
-      <c r="IV189" s="3"/>
+      <c r="IV189" s="6"/>
       <c r="IW189" s="3"/>
       <c r="IZ189" s="2" t="s">
         <v>0</v>
@@ -24467,6 +25565,8 @@
       <c r="JV189" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="JZ189" s="6"/>
+      <c r="KY189" s="6"/>
       <c r="LC189" s="2" t="s">
         <v>0</v>
       </c>
@@ -24521,6 +25621,7 @@
       <c r="NF189" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="NL189" s="6"/>
       <c r="OL189" s="2" t="s">
         <v>0</v>
       </c>
@@ -24532,6 +25633,7 @@
       </c>
     </row>
     <row r="190" spans="1:404" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AQ190" s="6"/>
       <c r="BO190" s="2" t="s">
         <v>0</v>
       </c>
@@ -24547,8 +25649,30 @@
       <c r="GA190" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="HL190" s="3"/>
-      <c r="HM190" s="3"/>
+      <c r="GP190" s="6"/>
+      <c r="GQ190" s="6"/>
+      <c r="GR190" s="6"/>
+      <c r="GS190" s="6"/>
+      <c r="GT190" s="6"/>
+      <c r="GU190" s="6"/>
+      <c r="GV190" s="6"/>
+      <c r="GW190" s="6"/>
+      <c r="GX190" s="6"/>
+      <c r="GY190" s="6"/>
+      <c r="GZ190" s="6"/>
+      <c r="HA190" s="6"/>
+      <c r="HB190" s="6"/>
+      <c r="HC190" s="6"/>
+      <c r="HD190" s="6"/>
+      <c r="HE190" s="6"/>
+      <c r="HF190" s="6"/>
+      <c r="HG190" s="6"/>
+      <c r="HH190" s="6"/>
+      <c r="HI190" s="6"/>
+      <c r="HJ190" s="6"/>
+      <c r="HK190" s="6"/>
+      <c r="HL190" s="6"/>
+      <c r="HM190" s="6"/>
       <c r="HN190" s="3"/>
       <c r="HO190" s="3"/>
       <c r="HP190" s="3"/>
@@ -24561,11 +25685,11 @@
       <c r="IO190" s="3"/>
       <c r="IP190" s="3"/>
       <c r="IQ190" s="3"/>
-      <c r="IR190" s="3"/>
-      <c r="IS190" s="3"/>
-      <c r="IT190" s="3"/>
-      <c r="IU190" s="3"/>
-      <c r="IV190" s="3"/>
+      <c r="IR190" s="6"/>
+      <c r="IS190" s="6"/>
+      <c r="IT190" s="6"/>
+      <c r="IU190" s="6"/>
+      <c r="IV190" s="6"/>
       <c r="IW190" s="3"/>
       <c r="IZ190" s="2" t="s">
         <v>0</v>
@@ -24576,6 +25700,34 @@
       <c r="JV190" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="JZ190" s="6"/>
+      <c r="KA190" s="6"/>
+      <c r="KB190" s="6"/>
+      <c r="KC190" s="6"/>
+      <c r="KD190" s="6"/>
+      <c r="KE190" s="6"/>
+      <c r="KF190" s="6"/>
+      <c r="KG190" s="6"/>
+      <c r="KH190" s="6"/>
+      <c r="KI190" s="6"/>
+      <c r="KJ190" s="6"/>
+      <c r="KK190" s="6"/>
+      <c r="KL190" s="6"/>
+      <c r="KM190" s="6"/>
+      <c r="KN190" s="6"/>
+      <c r="KO190" s="6"/>
+      <c r="KP190" s="6"/>
+      <c r="KQ190" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="KR190" s="6"/>
+      <c r="KS190" s="6"/>
+      <c r="KT190" s="6"/>
+      <c r="KU190" s="6"/>
+      <c r="KV190" s="6"/>
+      <c r="KW190" s="6"/>
+      <c r="KX190" s="6"/>
+      <c r="KY190" s="6"/>
       <c r="LC190" s="2" t="s">
         <v>0</v>
       </c>
@@ -24618,6 +25770,7 @@
       <c r="NG190" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="NL190" s="6"/>
       <c r="OM190" s="2" t="s">
         <v>0</v>
       </c>
@@ -24626,6 +25779,7 @@
       </c>
     </row>
     <row r="191" spans="1:404" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AQ191" s="6"/>
       <c r="BO191" s="2" t="s">
         <v>0</v>
       </c>
@@ -24659,7 +25813,7 @@
       <c r="IS191" s="3"/>
       <c r="IT191" s="3"/>
       <c r="IU191" s="3"/>
-      <c r="IV191" s="3"/>
+      <c r="IV191" s="6"/>
       <c r="IW191" s="3"/>
       <c r="IZ191" s="2" t="s">
         <v>0</v>
@@ -24670,6 +25824,7 @@
       <c r="JV191" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="KQ191" s="6"/>
       <c r="LC191" s="2" t="s">
         <v>0</v>
       </c>
@@ -24709,6 +25864,7 @@
       <c r="NH191" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="NL191" s="6"/>
       <c r="OM191" s="2" t="s">
         <v>0</v>
       </c>
@@ -24717,6 +25873,7 @@
       </c>
     </row>
     <row r="192" spans="1:404" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AQ192" s="6"/>
       <c r="BO192" s="2" t="s">
         <v>0</v>
       </c>
@@ -24740,7 +25897,7 @@
       </c>
       <c r="IT192" s="3"/>
       <c r="IU192" s="3"/>
-      <c r="IV192" s="3"/>
+      <c r="IV192" s="6"/>
       <c r="IW192" s="3"/>
       <c r="IZ192" s="2" t="s">
         <v>0</v>
@@ -24751,6 +25908,7 @@
       <c r="JV192" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="KQ192" s="6"/>
       <c r="LC192" s="2" t="s">
         <v>0</v>
       </c>
@@ -24793,6 +25951,9 @@
       <c r="NI192" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="NL192" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="OM192" s="2" t="s">
         <v>0</v>
       </c>
@@ -24800,7 +25961,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="67:404" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="43:404" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AQ193" s="6"/>
       <c r="BO193" s="2" t="s">
         <v>0</v>
       </c>
@@ -24872,7 +26034,7 @@
       </c>
       <c r="IT193" s="3"/>
       <c r="IU193" s="3"/>
-      <c r="IV193" s="3"/>
+      <c r="IV193" s="6"/>
       <c r="IW193" s="3"/>
       <c r="IZ193" s="2" t="s">
         <v>0</v>
@@ -24883,6 +26045,7 @@
       <c r="JV193" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="KQ193" s="6"/>
       <c r="LC193" s="2" t="s">
         <v>0</v>
       </c>
@@ -24931,6 +26094,7 @@
       <c r="NI193" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="NL193" s="6"/>
       <c r="OM193" s="2" t="s">
         <v>0</v>
       </c>
@@ -24938,7 +26102,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="67:404" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="43:404" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AQ194" s="6"/>
       <c r="BO194" s="2" t="s">
         <v>0</v>
       </c>
@@ -25007,7 +26172,7 @@
       </c>
       <c r="IT194" s="3"/>
       <c r="IU194" s="3"/>
-      <c r="IV194" s="3"/>
+      <c r="IV194" s="6"/>
       <c r="IW194" s="3"/>
       <c r="IZ194" s="2" t="s">
         <v>0</v>
@@ -25018,6 +26183,7 @@
       <c r="JV194" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="KQ194" s="6"/>
       <c r="LC194" s="2" t="s">
         <v>0</v>
       </c>
@@ -25060,6 +26226,7 @@
       <c r="NH194" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="NL194" s="6"/>
       <c r="OM194" s="2" t="s">
         <v>0</v>
       </c>
@@ -25067,7 +26234,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="67:404" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="43:404" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AQ195" s="6"/>
       <c r="BO195" s="2" t="s">
         <v>0</v>
       </c>
@@ -25109,7 +26277,7 @@
       </c>
       <c r="IT195" s="3"/>
       <c r="IU195" s="3"/>
-      <c r="IV195" s="3"/>
+      <c r="IV195" s="6"/>
       <c r="IW195" s="3"/>
       <c r="IZ195" s="2" t="s">
         <v>0</v>
@@ -25123,6 +26291,7 @@
       <c r="KL195" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="KQ195" s="6"/>
       <c r="LC195" s="2" t="s">
         <v>0</v>
       </c>
@@ -25159,6 +26328,7 @@
       <c r="NE195" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="NL195" s="6"/>
       <c r="OM195" s="2" t="s">
         <v>0</v>
       </c>
@@ -25166,7 +26336,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="67:404" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="43:404" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AQ196" s="6"/>
       <c r="BO196" s="2" t="s">
         <v>0</v>
       </c>
@@ -25208,7 +26379,7 @@
       </c>
       <c r="IT196" s="3"/>
       <c r="IU196" s="3"/>
-      <c r="IV196" s="3"/>
+      <c r="IV196" s="6"/>
       <c r="IW196" s="3"/>
       <c r="IZ196" s="2" t="s">
         <v>0</v>
@@ -25225,6 +26396,7 @@
       <c r="KL196" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="KQ196" s="6"/>
       <c r="LC196" s="2" t="s">
         <v>0</v>
       </c>
@@ -25255,6 +26427,7 @@
       <c r="NE196" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="NL196" s="6"/>
       <c r="OM196" s="2" t="s">
         <v>0</v>
       </c>
@@ -25262,7 +26435,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="67:404" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="43:404" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AQ197" s="6"/>
       <c r="BO197" s="2" t="s">
         <v>0</v>
       </c>
@@ -25325,7 +26499,7 @@
       </c>
       <c r="IT197" s="3"/>
       <c r="IU197" s="3"/>
-      <c r="IV197" s="3"/>
+      <c r="IV197" s="6"/>
       <c r="IW197" s="3"/>
       <c r="IZ197" s="2" t="s">
         <v>0</v>
@@ -25346,7 +26520,7 @@
         <v>0</v>
       </c>
       <c r="KP197" s="3"/>
-      <c r="KQ197" s="3"/>
+      <c r="KQ197" s="6"/>
       <c r="KR197" s="3"/>
       <c r="KS197" s="3"/>
       <c r="LC197" s="2" t="s">
@@ -25385,6 +26559,7 @@
       <c r="NE197" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="NL197" s="6"/>
       <c r="OM197" s="2" t="s">
         <v>0</v>
       </c>
@@ -25392,7 +26567,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="67:404" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="43:404" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AQ198" s="6"/>
       <c r="BO198" s="2" t="s">
         <v>0</v>
       </c>
@@ -25926,7 +27102,7 @@
       </c>
       <c r="IT198" s="3"/>
       <c r="IU198" s="3"/>
-      <c r="IV198" s="3"/>
+      <c r="IV198" s="6"/>
       <c r="IW198" s="3"/>
       <c r="IX198" s="2" t="s">
         <v>0</v>
@@ -26061,7 +27237,7 @@
         <v>0</v>
       </c>
       <c r="KP198" s="3"/>
-      <c r="KQ198" s="3"/>
+      <c r="KQ198" s="6"/>
       <c r="KR198" s="3"/>
       <c r="KS198" s="3"/>
       <c r="KT198" s="2" t="s">
@@ -26139,6 +27315,8 @@
       <c r="MQ198" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="NK198" s="6"/>
+      <c r="NL198" s="6"/>
       <c r="OM198" s="2" t="s">
         <v>0</v>
       </c>
@@ -26146,7 +27324,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="67:404" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="43:404" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AQ199" s="6"/>
       <c r="BO199" s="2" t="s">
         <v>0</v>
       </c>
@@ -26431,7 +27610,7 @@
       </c>
       <c r="IT199" s="3"/>
       <c r="IU199" s="3"/>
-      <c r="IV199" s="3"/>
+      <c r="IV199" s="6"/>
       <c r="IW199" s="3"/>
       <c r="IX199" s="2" t="s">
         <v>0</v>
@@ -26521,7 +27700,7 @@
         <v>0</v>
       </c>
       <c r="KP199" s="3"/>
-      <c r="KQ199" s="3"/>
+      <c r="KQ199" s="6"/>
       <c r="KR199" s="3"/>
       <c r="KS199" s="3"/>
       <c r="KT199" s="2" t="s">
@@ -26581,6 +27760,8 @@
       <c r="MO199" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="NJ199" s="6"/>
+      <c r="NK199" s="6"/>
       <c r="OM199" s="2" t="s">
         <v>0</v>
       </c>
@@ -26588,7 +27769,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="67:404" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="43:404" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AQ200" s="6"/>
       <c r="BO200" s="2" t="s">
         <v>0</v>
       </c>
@@ -27152,7 +28334,7 @@
       </c>
       <c r="IT200" s="3"/>
       <c r="IU200" s="3"/>
-      <c r="IV200" s="3"/>
+      <c r="IV200" s="6"/>
       <c r="IW200" s="3"/>
       <c r="IX200" s="2" t="s">
         <v>0</v>
@@ -27287,7 +28469,7 @@
         <v>0</v>
       </c>
       <c r="KP200" s="3"/>
-      <c r="KQ200" s="3"/>
+      <c r="KQ200" s="6"/>
       <c r="KR200" s="3"/>
       <c r="KS200" s="3"/>
       <c r="KT200" s="2" t="s">
@@ -27395,6 +28577,8 @@
       <c r="MN200" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="NI200" s="6"/>
+      <c r="NJ200" s="6"/>
       <c r="OM200" s="2" t="s">
         <v>0</v>
       </c>
@@ -27402,7 +28586,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="67:404" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="43:404" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AQ201" s="6"/>
       <c r="BV201" s="2" t="s">
         <v>0</v>
       </c>
@@ -27471,13 +28656,13 @@
       </c>
       <c r="IT201" s="3"/>
       <c r="IU201" s="3"/>
-      <c r="IV201" s="3"/>
+      <c r="IV201" s="6"/>
       <c r="IW201" s="3"/>
       <c r="IX201" s="2" t="s">
         <v>0</v>
       </c>
       <c r="KP201" s="3"/>
-      <c r="KQ201" s="3"/>
+      <c r="KQ201" s="6"/>
       <c r="KR201" s="3"/>
       <c r="KS201" s="3"/>
       <c r="LY201" s="2" t="s">
@@ -27495,6 +28680,9 @@
       <c r="MM201" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="NF201"/>
+      <c r="NH201" s="6"/>
+      <c r="NI201" s="6"/>
       <c r="OL201" s="2" t="s">
         <v>0</v>
       </c>
@@ -27505,7 +28693,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="67:404" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="43:404" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AQ202" s="6"/>
       <c r="BV202" s="2" t="s">
         <v>0</v>
       </c>
@@ -27577,13 +28766,13 @@
       </c>
       <c r="IT202" s="3"/>
       <c r="IU202" s="3"/>
-      <c r="IV202" s="3"/>
+      <c r="IV202" s="6"/>
       <c r="IW202" s="3"/>
       <c r="IX202" s="2" t="s">
         <v>0</v>
       </c>
       <c r="KP202" s="3"/>
-      <c r="KQ202" s="3"/>
+      <c r="KQ202" s="6"/>
       <c r="KR202" s="3"/>
       <c r="KS202" s="3"/>
       <c r="LZ202" s="2" t="s">
@@ -27601,6 +28790,9 @@
       <c r="ML202" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="NF202"/>
+      <c r="NG202" s="6"/>
+      <c r="NH202" s="6"/>
       <c r="OK202" s="2" t="s">
         <v>0</v>
       </c>
@@ -27611,7 +28803,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="67:404" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="43:404" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AQ203" s="6"/>
       <c r="BW203" s="2" t="s">
         <v>0</v>
       </c>
@@ -27647,8 +28840,9 @@
       </c>
       <c r="IT203" s="3"/>
       <c r="IU203" s="3"/>
-      <c r="IV203" s="3"/>
+      <c r="IV203" s="6"/>
       <c r="IW203" s="3"/>
+      <c r="KQ203" s="6"/>
       <c r="MA203" s="2" t="s">
         <v>0</v>
       </c>
@@ -27661,6 +28855,8 @@
       <c r="MK203" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="NF203" s="6"/>
+      <c r="NG203" s="6"/>
       <c r="OK203" s="2" t="s">
         <v>0</v>
       </c>
@@ -27668,7 +28864,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="67:404" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="43:404" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AQ204" s="6"/>
       <c r="BW204" s="2" t="s">
         <v>0</v>
       </c>
@@ -27707,14 +28904,94 @@
       </c>
       <c r="IT204" s="3"/>
       <c r="IU204" s="3"/>
-      <c r="IV204" s="3"/>
-      <c r="IW204" s="3"/>
+      <c r="IV204" s="6"/>
+      <c r="IW204" s="6"/>
+      <c r="IX204" s="6"/>
+      <c r="IY204" s="6"/>
+      <c r="IZ204" s="6"/>
+      <c r="JA204" s="6"/>
+      <c r="JB204" s="6"/>
+      <c r="JC204" s="6"/>
+      <c r="JD204" s="6"/>
+      <c r="JE204" s="6"/>
+      <c r="JF204" s="6"/>
+      <c r="JG204" s="6"/>
+      <c r="JH204" s="6"/>
+      <c r="JI204" s="6"/>
+      <c r="JJ204" s="6"/>
+      <c r="JK204" s="6"/>
+      <c r="JL204" s="6"/>
+      <c r="JM204" s="6"/>
+      <c r="JN204" s="6"/>
+      <c r="JO204" s="6"/>
+      <c r="JP204" s="6"/>
+      <c r="JQ204" s="6"/>
+      <c r="JR204" s="6"/>
+      <c r="JS204" s="6"/>
+      <c r="JT204" s="6"/>
+      <c r="JU204" s="6"/>
+      <c r="JV204" s="6"/>
+      <c r="JW204" s="6"/>
+      <c r="JX204" s="6"/>
+      <c r="JY204" s="6"/>
+      <c r="JZ204" s="6"/>
+      <c r="KA204" s="6"/>
+      <c r="KB204" s="6"/>
+      <c r="KC204" s="6"/>
+      <c r="KD204" s="6"/>
+      <c r="KE204" s="6"/>
+      <c r="KF204" s="6"/>
+      <c r="KG204" s="6"/>
+      <c r="KH204" s="6"/>
+      <c r="KI204" s="6"/>
+      <c r="KJ204" s="6"/>
+      <c r="KK204" s="6"/>
+      <c r="KL204" s="6"/>
+      <c r="KM204" s="6"/>
+      <c r="KN204" s="6"/>
+      <c r="KO204" s="6"/>
+      <c r="KP204" s="6"/>
+      <c r="KQ204" s="6"/>
+      <c r="KR204" s="6"/>
+      <c r="KS204" s="6"/>
+      <c r="KT204" s="6"/>
+      <c r="KU204" s="6"/>
+      <c r="KV204" s="6"/>
+      <c r="KW204" s="6"/>
+      <c r="KX204" s="6"/>
+      <c r="KY204" s="6"/>
+      <c r="KZ204" s="6"/>
+      <c r="LA204" s="6"/>
+      <c r="LB204" s="6"/>
+      <c r="LC204" s="6"/>
+      <c r="LD204" s="6"/>
+      <c r="LE204" s="6"/>
+      <c r="LF204" s="6"/>
+      <c r="LG204" s="6"/>
+      <c r="LH204" s="6"/>
+      <c r="LI204" s="6"/>
+      <c r="LJ204" s="6"/>
+      <c r="LK204" s="6"/>
+      <c r="LL204" s="6"/>
+      <c r="LM204" s="6"/>
+      <c r="LN204" s="6"/>
+      <c r="LO204" s="6"/>
+      <c r="LP204" s="6"/>
+      <c r="LQ204" s="6"/>
+      <c r="LR204" s="6"/>
+      <c r="LS204" s="6"/>
+      <c r="LT204" s="6"/>
+      <c r="LU204" s="6"/>
+      <c r="LV204" s="6"/>
+      <c r="LW204" s="6"/>
+      <c r="LX204" s="6"/>
       <c r="MC204" s="2" t="s">
         <v>0</v>
       </c>
       <c r="MJ204" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="NF204" s="6"/>
       <c r="OJ204" s="2" t="s">
         <v>0</v>
       </c>
@@ -27722,7 +28999,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="67:404" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="43:404" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AQ205" s="6"/>
       <c r="BV205" s="2" t="s">
         <v>0</v>
       </c>
@@ -27767,14 +29045,17 @@
       </c>
       <c r="IT205" s="3"/>
       <c r="IU205" s="3"/>
-      <c r="IV205" s="3"/>
+      <c r="IV205" s="6"/>
       <c r="IW205" s="3"/>
+      <c r="LX205" s="6"/>
+      <c r="LY205" s="6"/>
       <c r="MD205" s="2" t="s">
         <v>0</v>
       </c>
       <c r="MI205" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="NF205" s="6"/>
       <c r="OI205" s="2" t="s">
         <v>0</v>
       </c>
@@ -27782,7 +29063,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="67:404" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="43:404" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AQ206" s="6"/>
       <c r="BV206" s="2" t="s">
         <v>0</v>
       </c>
@@ -27839,8 +29121,10 @@
       </c>
       <c r="IT206" s="3"/>
       <c r="IU206" s="3"/>
-      <c r="IV206" s="3"/>
+      <c r="IV206" s="6"/>
       <c r="IW206" s="3"/>
+      <c r="LY206" s="6"/>
+      <c r="LZ206" s="6"/>
       <c r="MC206" s="2" t="s">
         <v>0</v>
       </c>
@@ -27856,6 +29140,7 @@
       <c r="MH206" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="NF206" s="6"/>
       <c r="OG206" s="2" t="s">
         <v>0</v>
       </c>
@@ -27866,7 +29151,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="67:404" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="43:404" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AQ207" s="6"/>
       <c r="BO207" s="2" t="s">
         <v>0</v>
       </c>
@@ -28025,8 +29311,9 @@
       </c>
       <c r="IT207" s="3"/>
       <c r="IU207" s="3"/>
-      <c r="IV207" s="3"/>
+      <c r="IV207" s="6"/>
       <c r="IW207" s="3"/>
+      <c r="LZ207" s="6"/>
       <c r="MC207" s="2" t="s">
         <v>0</v>
       </c>
@@ -28042,6 +29329,7 @@
       <c r="MH207" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="NF207" s="6"/>
       <c r="OF207" s="2" t="s">
         <v>0</v>
       </c>
@@ -28052,7 +29340,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="67:404" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="43:404" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AQ208" s="6"/>
       <c r="BO208" s="2" t="s">
         <v>0</v>
       </c>
@@ -28280,8 +29569,10 @@
       </c>
       <c r="IT208" s="3"/>
       <c r="IU208" s="3"/>
-      <c r="IV208" s="3"/>
+      <c r="IV208" s="6"/>
       <c r="IW208" s="3"/>
+      <c r="LZ208" s="6"/>
+      <c r="MA208" s="6"/>
       <c r="MD208" s="2" t="s">
         <v>0</v>
       </c>
@@ -28294,6 +29585,7 @@
       <c r="MH208" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="NF208" s="6"/>
       <c r="OE208" s="2" t="s">
         <v>0</v>
       </c>
@@ -28304,7 +29596,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="67:396" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="43:396" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AQ209" s="6"/>
       <c r="BO209" s="2" t="s">
         <v>0</v>
       </c>
@@ -28449,12 +29742,16 @@
       <c r="HZ209" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="IV209" s="6"/>
+      <c r="MA209" s="6"/>
+      <c r="MB209" s="6"/>
       <c r="MG209" s="2" t="s">
         <v>0</v>
       </c>
       <c r="MH209" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="NF209" s="6"/>
       <c r="OE209" s="2" t="s">
         <v>0</v>
       </c>
@@ -28462,7 +29759,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="67:396" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="43:396" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AQ210" s="6"/>
       <c r="BO210" s="2" t="s">
         <v>0</v>
       </c>
@@ -28541,9 +29839,12 @@
       <c r="HZ210" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="IV210" s="6"/>
+      <c r="MB210" s="6"/>
       <c r="MI210" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="NF210" s="6"/>
       <c r="OD210" s="2" t="s">
         <v>0</v>
       </c>
@@ -28551,7 +29852,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="67:396" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="43:396" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AQ211" s="6"/>
       <c r="BO211" s="2" t="s">
         <v>0</v>
       </c>
@@ -28615,12 +29917,16 @@
       <c r="HZ211" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="IV211" s="6"/>
+      <c r="MB211" s="6"/>
+      <c r="MC211" s="6"/>
       <c r="MJ211" s="2" t="s">
         <v>0</v>
       </c>
       <c r="ML211" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="NF211" s="6"/>
       <c r="OB211" s="2" t="s">
         <v>0</v>
       </c>
@@ -28631,7 +29937,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="67:396" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="43:396" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AQ212" s="6"/>
       <c r="BO212" s="2" t="s">
         <v>0</v>
       </c>
@@ -28695,6 +30002,9 @@
       <c r="HZ212" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="IV212" s="6"/>
+      <c r="MC212" s="6"/>
+      <c r="MD212" s="6"/>
       <c r="MK212" s="2" t="s">
         <v>0</v>
       </c>
@@ -28704,6 +30014,7 @@
       <c r="MM212" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="NF212" s="6"/>
       <c r="OA212" s="2" t="s">
         <v>0</v>
       </c>
@@ -28714,7 +30025,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="67:396" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="43:396" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AQ213" s="6"/>
       <c r="BO213" s="2" t="s">
         <v>0</v>
       </c>
@@ -28781,6 +30093,8 @@
       <c r="HZ213" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="IV213" s="6"/>
+      <c r="MD213" s="6"/>
       <c r="MK213" s="2" t="s">
         <v>0</v>
       </c>
@@ -28793,6 +30107,7 @@
       <c r="MN213" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="NF213" s="6"/>
       <c r="NZ213" s="2" t="s">
         <v>0</v>
       </c>
@@ -28803,7 +30118,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="67:396" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="43:396" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AQ214" s="6"/>
       <c r="BO214" s="2" t="s">
         <v>0</v>
       </c>
@@ -28867,6 +30183,9 @@
       <c r="HZ214" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="IV214" s="6"/>
+      <c r="MD214" s="6"/>
+      <c r="ME214" s="6"/>
       <c r="ML214" s="2" t="s">
         <v>0</v>
       </c>
@@ -28879,6 +30198,7 @@
       <c r="MO214" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="NF214" s="6"/>
       <c r="NY214" s="2" t="s">
         <v>0</v>
       </c>
@@ -28889,7 +30209,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="67:396" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="215" spans="43:396" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AQ215" s="6"/>
       <c r="BO215" s="2" t="s">
         <v>0</v>
       </c>
@@ -28953,6 +30274,9 @@
       <c r="HZ215" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="IV215" s="6"/>
+      <c r="ME215" s="6"/>
+      <c r="MF215" s="6"/>
       <c r="MM215" s="2" t="s">
         <v>0</v>
       </c>
@@ -28965,6 +30289,7 @@
       <c r="MP215" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="NF215" s="6"/>
       <c r="NX215" s="2" t="s">
         <v>0</v>
       </c>
@@ -28975,7 +30300,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="67:396" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="216" spans="43:396" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AQ216" s="6"/>
       <c r="BO216" s="2" t="s">
         <v>0</v>
       </c>
@@ -29039,6 +30365,8 @@
       <c r="HZ216" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="IV216" s="6"/>
+      <c r="MF216" s="6"/>
       <c r="MN216" s="2" t="s">
         <v>0</v>
       </c>
@@ -29048,6 +30376,7 @@
       <c r="MP216" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="NF216" s="6"/>
       <c r="NW216" s="2" t="s">
         <v>0</v>
       </c>
@@ -29058,7 +30387,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="67:396" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="217" spans="43:396" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AQ217" s="6"/>
       <c r="BO217" s="2" t="s">
         <v>0</v>
       </c>
@@ -29185,6 +30515,9 @@
       <c r="IH217" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="IV217" s="6"/>
+      <c r="MF217" s="6"/>
+      <c r="MG217" s="6"/>
       <c r="MO217" s="2" t="s">
         <v>0</v>
       </c>
@@ -29192,7 +30525,7 @@
         <v>0</v>
       </c>
       <c r="NE217" s="3"/>
-      <c r="NF217" s="3"/>
+      <c r="NF217" s="6"/>
       <c r="NG217" s="3"/>
       <c r="NH217" s="3"/>
       <c r="NW217" s="2" t="s">
@@ -29202,7 +30535,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="67:396" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="218" spans="43:396" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AQ218" s="6"/>
       <c r="BO218" s="2" t="s">
         <v>0</v>
       </c>
@@ -29284,6 +30618,9 @@
       <c r="IH218" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="IV218" s="6"/>
+      <c r="MG218" s="6"/>
+      <c r="MH218" s="6"/>
       <c r="MQ218" s="2" t="s">
         <v>0</v>
       </c>
@@ -29315,7 +30652,7 @@
         <v>0</v>
       </c>
       <c r="NE218" s="3"/>
-      <c r="NF218" s="3"/>
+      <c r="NF218" s="6"/>
       <c r="NG218" s="3"/>
       <c r="NH218" s="3"/>
       <c r="NI218" s="2" t="s">
@@ -29352,7 +30689,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="67:396" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="219" spans="43:396" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AQ219" s="6"/>
       <c r="BO219" s="2" t="s">
         <v>0</v>
       </c>
@@ -29431,6 +30769,12 @@
       <c r="IH219" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="IV219" s="6"/>
+      <c r="MH219" s="6"/>
+      <c r="MI219" s="6"/>
+      <c r="MK219"/>
+      <c r="ML219"/>
+      <c r="MM219"/>
       <c r="MR219" s="2" t="s">
         <v>0</v>
       </c>
@@ -29447,7 +30791,7 @@
         <v>0</v>
       </c>
       <c r="NE219" s="3"/>
-      <c r="NF219" s="3"/>
+      <c r="NF219" s="6"/>
       <c r="NG219" s="3"/>
       <c r="NH219" s="3"/>
       <c r="NI219" s="2" t="s">
@@ -29466,7 +30810,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="67:396" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="220" spans="43:396" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AQ220" s="6"/>
       <c r="BO220" s="2" t="s">
         <v>0</v>
       </c>
@@ -29539,6 +30884,12 @@
       <c r="IH220" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="IV220" s="6"/>
+      <c r="MH220"/>
+      <c r="MI220" s="6"/>
+      <c r="MJ220" s="6"/>
+      <c r="ML220"/>
+      <c r="MM220"/>
       <c r="MS220" s="2" t="s">
         <v>0</v>
       </c>
@@ -29552,7 +30903,7 @@
         <v>0</v>
       </c>
       <c r="NE220" s="3"/>
-      <c r="NF220" s="3"/>
+      <c r="NF220" s="6"/>
       <c r="NG220" s="3"/>
       <c r="NH220" s="3"/>
       <c r="NI220" s="2" t="s">
@@ -29571,7 +30922,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="67:396" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="221" spans="43:396" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AQ221" s="6"/>
       <c r="BO221" s="2" t="s">
         <v>0</v>
       </c>
@@ -29668,6 +31020,12 @@
       <c r="IH221" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="IV221" s="6"/>
+      <c r="MH221"/>
+      <c r="MI221"/>
+      <c r="MJ221" s="6"/>
+      <c r="MK221" s="6"/>
+      <c r="MM221"/>
       <c r="MS221" s="2" t="s">
         <v>0</v>
       </c>
@@ -29684,7 +31042,7 @@
         <v>0</v>
       </c>
       <c r="NE221" s="3"/>
-      <c r="NF221" s="3"/>
+      <c r="NF221" s="6"/>
       <c r="NG221" s="3"/>
       <c r="NH221" s="3"/>
       <c r="NI221" s="2" t="s">
@@ -29700,7 +31058,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="67:396" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="222" spans="43:396" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AQ222" s="6"/>
       <c r="BO222" s="2" t="s">
         <v>0</v>
       </c>
@@ -29791,6 +31150,12 @@
       <c r="IH222" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="IV222" s="6"/>
+      <c r="MH222"/>
+      <c r="MI222"/>
+      <c r="MJ222"/>
+      <c r="MK222" s="6"/>
+      <c r="ML222" s="6"/>
       <c r="MT222" s="2" t="s">
         <v>0</v>
       </c>
@@ -29798,7 +31163,7 @@
         <v>0</v>
       </c>
       <c r="NE222" s="3"/>
-      <c r="NF222" s="3"/>
+      <c r="NF222" s="6"/>
       <c r="NG222" s="3"/>
       <c r="NH222" s="3"/>
       <c r="NR222" s="2" t="s">
@@ -29808,7 +31173,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="67:396" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="223" spans="43:396" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AQ223" s="6"/>
       <c r="BO223" s="2" t="s">
         <v>0</v>
       </c>
@@ -29887,11 +31253,18 @@
       <c r="IH223" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="IV223" s="6"/>
+      <c r="MH223"/>
+      <c r="MI223"/>
+      <c r="MJ223"/>
+      <c r="MK223"/>
+      <c r="ML223" s="6"/>
+      <c r="MM223" s="6"/>
       <c r="MV223" s="2" t="s">
         <v>0</v>
       </c>
       <c r="NE223" s="3"/>
-      <c r="NF223" s="3"/>
+      <c r="NF223" s="6"/>
       <c r="NG223" s="3"/>
       <c r="NH223" s="3"/>
       <c r="NQ223" s="2" t="s">
@@ -29901,7 +31274,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="67:396" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="224" spans="43:396" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AQ224" s="6"/>
       <c r="BO224" s="2" t="s">
         <v>0</v>
       </c>
@@ -29986,11 +31360,19 @@
       <c r="IH224" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="IV224" s="6"/>
+      <c r="MH224"/>
+      <c r="MI224"/>
+      <c r="MJ224"/>
+      <c r="MK224"/>
+      <c r="ML224"/>
+      <c r="MM224" s="6"/>
+      <c r="MN224" s="6"/>
       <c r="MW224" s="2" t="s">
         <v>0</v>
       </c>
       <c r="NE224" s="3"/>
-      <c r="NF224" s="3"/>
+      <c r="NF224" s="6"/>
       <c r="NG224" s="3"/>
       <c r="NH224" s="3"/>
       <c r="NP224" s="2" t="s">
@@ -30000,7 +31382,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="67:380" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="225" spans="43:380" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AQ225" s="6"/>
       <c r="BO225" s="2" t="s">
         <v>0</v>
       </c>
@@ -30079,6 +31462,9 @@
       <c r="IH225" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="IV225" s="6"/>
+      <c r="MN225" s="6"/>
+      <c r="MO225" s="6"/>
       <c r="MX225" s="2" t="s">
         <v>0</v>
       </c>
@@ -30089,7 +31475,7 @@
         <v>0</v>
       </c>
       <c r="NE225" s="3"/>
-      <c r="NF225" s="3"/>
+      <c r="NF225" s="6"/>
       <c r="NG225" s="3"/>
       <c r="NH225" s="3"/>
       <c r="NN225" s="2" t="s">
@@ -30102,7 +31488,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="67:380" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="226" spans="43:380" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AQ226" s="6"/>
       <c r="BO226" s="2" t="s">
         <v>0</v>
       </c>
@@ -30271,6 +31658,9 @@
       <c r="IH226" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="IV226" s="6"/>
+      <c r="MO226" s="6"/>
+      <c r="MP226" s="6"/>
       <c r="MX226" s="2" t="s">
         <v>0</v>
       </c>
@@ -30284,7 +31674,7 @@
         <v>0</v>
       </c>
       <c r="NE226" s="3"/>
-      <c r="NF226" s="3"/>
+      <c r="NF226" s="6"/>
       <c r="NG226" s="3"/>
       <c r="NH226" s="3"/>
       <c r="NM226" s="2" t="s">
@@ -30297,7 +31687,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="67:380" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="227" spans="43:380" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AQ227" s="6"/>
       <c r="EF227" s="2" t="s">
         <v>0</v>
       </c>
@@ -30334,6 +31725,9 @@
       <c r="IH227" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="IV227" s="6"/>
+      <c r="MP227" s="6"/>
+      <c r="MQ227" s="6"/>
       <c r="MY227" s="2" t="s">
         <v>0</v>
       </c>
@@ -30347,7 +31741,7 @@
         <v>0</v>
       </c>
       <c r="NE227" s="3"/>
-      <c r="NF227" s="3"/>
+      <c r="NF227" s="6"/>
       <c r="NG227" s="3"/>
       <c r="NH227" s="3"/>
       <c r="NL227" s="2" t="s">
@@ -30360,7 +31754,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="67:380" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="228" spans="43:380" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AQ228" s="6"/>
       <c r="ED228" s="2" t="s">
         <v>0</v>
       </c>
@@ -30403,6 +31798,9 @@
       <c r="IH228" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="IV228" s="6"/>
+      <c r="MQ228" s="6"/>
+      <c r="MR228" s="6"/>
       <c r="MZ228" s="2" t="s">
         <v>0</v>
       </c>
@@ -30419,7 +31817,7 @@
         <v>0</v>
       </c>
       <c r="NE228" s="3"/>
-      <c r="NF228" s="3"/>
+      <c r="NF228" s="6"/>
       <c r="NG228" s="3"/>
       <c r="NH228" s="3"/>
       <c r="NI228" s="2" t="s">
@@ -30438,7 +31836,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="67:380" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="229" spans="43:380" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AQ229" s="6"/>
       <c r="EC229" s="2" t="s">
         <v>0</v>
       </c>
@@ -30484,18 +31883,22 @@
       <c r="IH229" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="IV229" s="6"/>
+      <c r="MR229" s="6"/>
+      <c r="MS229" s="6"/>
       <c r="ND229" s="2" t="s">
         <v>0</v>
       </c>
       <c r="NE229" s="3"/>
-      <c r="NF229" s="3"/>
+      <c r="NF229" s="6"/>
       <c r="NG229" s="3"/>
       <c r="NH229" s="3"/>
       <c r="NI229" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="67:380" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="230" spans="43:380" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AQ230" s="6"/>
       <c r="EC230" s="2" t="s">
         <v>0</v>
       </c>
@@ -30544,18 +31947,22 @@
       <c r="IH230" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="IV230" s="6"/>
+      <c r="MS230" s="6"/>
+      <c r="MT230" s="6"/>
       <c r="ND230" s="2" t="s">
         <v>0</v>
       </c>
       <c r="NE230" s="3"/>
-      <c r="NF230" s="3"/>
+      <c r="NF230" s="6"/>
       <c r="NG230" s="3"/>
       <c r="NH230" s="3"/>
       <c r="NI230" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="67:380" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="231" spans="43:380" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AQ231" s="6"/>
       <c r="EH231" s="2" t="s">
         <v>0</v>
       </c>
@@ -30610,12 +32017,16 @@
       <c r="IH231" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="IV231" s="6"/>
+      <c r="MT231" s="6"/>
+      <c r="MU231" s="6"/>
       <c r="NE231" s="3"/>
-      <c r="NF231" s="3"/>
+      <c r="NF231" s="6"/>
       <c r="NG231" s="3"/>
       <c r="NH231" s="3"/>
     </row>
-    <row r="232" spans="67:380" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="232" spans="43:380" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AQ232" s="6"/>
       <c r="EG232" s="2" t="s">
         <v>0</v>
       </c>
@@ -30649,12 +32060,24 @@
       <c r="HZ232" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="NE232" s="3"/>
-      <c r="NF232" s="3"/>
+      <c r="IV232" s="6"/>
+      <c r="MU232" s="6"/>
+      <c r="MV232" s="6"/>
+      <c r="MW232" s="6"/>
+      <c r="MX232" s="6"/>
+      <c r="MY232" s="6"/>
+      <c r="MZ232" s="6"/>
+      <c r="NA232" s="6"/>
+      <c r="NB232" s="6"/>
+      <c r="NC232" s="6"/>
+      <c r="ND232" s="6"/>
+      <c r="NE232" s="6"/>
+      <c r="NF232" s="6"/>
       <c r="NG232" s="3"/>
       <c r="NH232" s="3"/>
     </row>
-    <row r="233" spans="67:380" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="233" spans="43:380" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AQ233" s="6"/>
       <c r="EF233" s="2" t="s">
         <v>0</v>
       </c>
@@ -30844,12 +32267,14 @@
       <c r="HZ233" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="IV233" s="6"/>
       <c r="NE233" s="3"/>
       <c r="NF233" s="3"/>
       <c r="NG233" s="3"/>
       <c r="NH233" s="3"/>
     </row>
-    <row r="234" spans="67:380" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="234" spans="43:380" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AQ234" s="6"/>
       <c r="EF234" s="2" t="s">
         <v>0</v>
       </c>
@@ -31036,10 +32461,351 @@
       <c r="HZ234" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="IV234" s="6"/>
       <c r="NE234" s="3"/>
       <c r="NF234" s="3"/>
       <c r="NG234" s="3"/>
       <c r="NH234" s="3"/>
+    </row>
+    <row r="235" spans="43:380" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AQ235" s="6"/>
+      <c r="IV235" s="6"/>
+    </row>
+    <row r="236" spans="43:380" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AQ236" s="6"/>
+      <c r="AR236" s="6"/>
+      <c r="AS236" s="6"/>
+      <c r="AT236" s="6"/>
+      <c r="AU236" s="6"/>
+      <c r="AV236" s="6"/>
+      <c r="AW236" s="6"/>
+      <c r="AX236" s="6"/>
+      <c r="AY236" s="6"/>
+      <c r="AZ236" s="6"/>
+      <c r="BA236" s="6"/>
+      <c r="BB236" s="6"/>
+      <c r="BC236" s="6"/>
+      <c r="BD236" s="6"/>
+      <c r="BE236" s="6"/>
+      <c r="BF236" s="6"/>
+      <c r="BG236" s="6"/>
+      <c r="BH236" s="6"/>
+      <c r="BI236" s="6"/>
+      <c r="BJ236" s="6"/>
+      <c r="BK236" s="6"/>
+      <c r="BL236" s="6"/>
+      <c r="BM236" s="6"/>
+      <c r="BN236" s="6"/>
+      <c r="BO236" s="6"/>
+      <c r="BP236" s="6"/>
+      <c r="BQ236" s="6"/>
+      <c r="BR236" s="6"/>
+      <c r="BS236" s="6"/>
+      <c r="BT236" s="6"/>
+      <c r="BU236" s="6"/>
+      <c r="BV236" s="6"/>
+      <c r="BW236" s="6"/>
+      <c r="BX236" s="6"/>
+      <c r="BY236" s="6"/>
+      <c r="BZ236" s="6"/>
+      <c r="CA236" s="6"/>
+      <c r="CB236" s="6"/>
+      <c r="CC236" s="6"/>
+      <c r="CD236" s="6"/>
+      <c r="CE236" s="6"/>
+      <c r="CF236" s="6"/>
+      <c r="CG236" s="6"/>
+      <c r="CH236" s="6"/>
+      <c r="CI236" s="6"/>
+      <c r="CJ236" s="6"/>
+      <c r="CK236" s="6"/>
+      <c r="CL236" s="6"/>
+      <c r="CM236" s="6"/>
+      <c r="CN236" s="6"/>
+      <c r="CO236" s="6"/>
+      <c r="CP236" s="6"/>
+      <c r="CQ236" s="6"/>
+      <c r="CR236" s="6"/>
+      <c r="CS236" s="6"/>
+      <c r="CT236" s="6"/>
+      <c r="CU236" s="6"/>
+      <c r="CV236" s="6"/>
+      <c r="CW236" s="6"/>
+      <c r="CX236" s="6"/>
+      <c r="CY236" s="6"/>
+      <c r="CZ236" s="6"/>
+      <c r="DA236" s="6"/>
+      <c r="DB236" s="6"/>
+      <c r="DC236" s="6"/>
+      <c r="DD236" s="6"/>
+      <c r="DE236" s="6"/>
+      <c r="DF236" s="6"/>
+      <c r="DG236" s="6"/>
+      <c r="DH236" s="6"/>
+      <c r="DI236" s="6"/>
+      <c r="DJ236" s="6"/>
+      <c r="DK236" s="6"/>
+      <c r="DL236" s="6"/>
+      <c r="DM236" s="6"/>
+      <c r="DN236" s="6"/>
+      <c r="DO236" s="6"/>
+      <c r="DP236" s="6"/>
+      <c r="DQ236" s="6"/>
+      <c r="DR236" s="6"/>
+      <c r="DS236" s="6"/>
+      <c r="DT236" s="6"/>
+      <c r="DU236" s="6"/>
+      <c r="DV236" s="6"/>
+      <c r="DW236" s="6"/>
+      <c r="DX236" s="6"/>
+      <c r="DY236" s="6"/>
+      <c r="DZ236" s="6"/>
+      <c r="EA236" s="6"/>
+      <c r="EB236" s="6"/>
+      <c r="EC236" s="6"/>
+      <c r="ED236" s="6"/>
+      <c r="EE236" s="6"/>
+      <c r="EF236" s="6"/>
+      <c r="EG236" s="6"/>
+      <c r="EH236" s="6"/>
+      <c r="EI236" s="6"/>
+      <c r="EJ236" s="6"/>
+      <c r="EK236" s="6"/>
+      <c r="EL236" s="6"/>
+      <c r="EM236" s="6"/>
+      <c r="EN236" s="6"/>
+      <c r="EO236" s="6"/>
+      <c r="EP236" s="6"/>
+      <c r="EQ236" s="6"/>
+      <c r="ER236" s="6"/>
+      <c r="ES236" s="6"/>
+      <c r="ET236" s="6"/>
+      <c r="EU236" s="6"/>
+      <c r="EV236" s="6"/>
+      <c r="EW236" s="6"/>
+      <c r="EX236" s="6"/>
+      <c r="EY236" s="6"/>
+      <c r="EZ236" s="6"/>
+      <c r="FA236" s="6"/>
+      <c r="FB236" s="6"/>
+      <c r="FC236" s="6"/>
+      <c r="FD236" s="6"/>
+      <c r="FE236" s="6"/>
+      <c r="FF236" s="6"/>
+      <c r="FG236" s="6"/>
+      <c r="FH236" s="6"/>
+      <c r="FI236" s="6"/>
+      <c r="FJ236" s="6"/>
+      <c r="FK236" s="6"/>
+      <c r="FL236" s="6"/>
+      <c r="FM236" s="6"/>
+      <c r="FN236" s="6"/>
+      <c r="FO236" s="6"/>
+      <c r="FP236" s="6"/>
+      <c r="FQ236" s="6"/>
+      <c r="FR236" s="6"/>
+      <c r="FS236" s="6"/>
+      <c r="FT236" s="6"/>
+      <c r="FU236" s="6"/>
+      <c r="FV236" s="6"/>
+      <c r="FW236" s="6"/>
+      <c r="FX236" s="6"/>
+      <c r="FY236" s="6"/>
+      <c r="FZ236" s="6"/>
+      <c r="GA236" s="6"/>
+      <c r="GB236" s="6"/>
+      <c r="GC236" s="6"/>
+      <c r="GD236" s="6"/>
+      <c r="GE236" s="6"/>
+      <c r="GF236" s="6"/>
+      <c r="GG236" s="6"/>
+      <c r="GH236" s="6"/>
+      <c r="GI236" s="6"/>
+      <c r="GJ236" s="6"/>
+      <c r="GK236" s="6"/>
+      <c r="GL236" s="6"/>
+      <c r="GM236" s="6"/>
+      <c r="GN236" s="6"/>
+      <c r="GO236" s="6"/>
+      <c r="GP236" s="6"/>
+      <c r="GQ236" s="6"/>
+      <c r="GR236" s="6"/>
+      <c r="GS236" s="6"/>
+      <c r="GT236" s="6"/>
+      <c r="GU236" s="6"/>
+      <c r="GV236" s="6"/>
+      <c r="GW236" s="6"/>
+      <c r="GX236" s="6"/>
+      <c r="GY236" s="6"/>
+      <c r="GZ236" s="6"/>
+      <c r="HA236" s="6"/>
+      <c r="HB236" s="6"/>
+      <c r="HC236" s="6"/>
+      <c r="HD236" s="6"/>
+      <c r="HE236" s="6"/>
+      <c r="HF236" s="6"/>
+      <c r="HG236" s="6"/>
+      <c r="HH236" s="6"/>
+      <c r="HI236" s="6"/>
+      <c r="HJ236" s="6"/>
+      <c r="HK236" s="6"/>
+      <c r="HL236" s="6"/>
+      <c r="HM236" s="6"/>
+      <c r="HN236" s="6"/>
+      <c r="HO236" s="6"/>
+      <c r="HP236" s="6"/>
+      <c r="HQ236" s="6"/>
+      <c r="HR236" s="6"/>
+      <c r="HS236" s="6"/>
+      <c r="HT236" s="6"/>
+      <c r="HU236" s="6"/>
+      <c r="HV236" s="6"/>
+      <c r="HW236" s="6"/>
+      <c r="HX236" s="6"/>
+      <c r="HY236" s="6"/>
+      <c r="HZ236" s="6"/>
+      <c r="IA236" s="6"/>
+      <c r="IB236" s="6"/>
+      <c r="IC236" s="6"/>
+      <c r="ID236" s="6"/>
+      <c r="IE236" s="6"/>
+      <c r="IF236" s="6"/>
+      <c r="IG236" s="6"/>
+      <c r="IH236" s="6"/>
+      <c r="II236" s="6"/>
+      <c r="IJ236" s="6"/>
+      <c r="IK236" s="6"/>
+      <c r="IL236" s="6"/>
+      <c r="IM236" s="6"/>
+      <c r="IN236" s="6"/>
+      <c r="IO236" s="6"/>
+      <c r="IP236" s="6"/>
+      <c r="IQ236" s="6"/>
+      <c r="IR236" s="6"/>
+      <c r="IS236" s="6"/>
+      <c r="IT236" s="6"/>
+      <c r="IU236" s="6"/>
+      <c r="IV236" s="6"/>
+    </row>
+    <row r="237" spans="43:380" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="IS237" s="3"/>
+      <c r="IT237" s="3"/>
+      <c r="IU237" s="3"/>
+      <c r="IV237" s="3"/>
+      <c r="IW237" s="3"/>
+      <c r="IX237" s="3"/>
+      <c r="IY237" s="3"/>
+      <c r="IZ237" s="3"/>
+      <c r="JA237" s="3"/>
+      <c r="JB237" s="3"/>
+      <c r="JC237" s="3"/>
+      <c r="JD237" s="3"/>
+      <c r="JE237" s="3"/>
+    </row>
+    <row r="238" spans="43:380" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="IS238" s="3"/>
+      <c r="IT238" s="3"/>
+      <c r="IU238" s="3"/>
+      <c r="IV238" s="3"/>
+      <c r="IW238" s="3"/>
+      <c r="IX238" s="3"/>
+      <c r="IY238" s="3"/>
+      <c r="IZ238" s="3"/>
+      <c r="JA238" s="3"/>
+      <c r="JB238" s="3"/>
+      <c r="JC238" s="3"/>
+      <c r="JD238" s="3"/>
+      <c r="JE238" s="3"/>
+    </row>
+    <row r="239" spans="43:380" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="IS239" s="3"/>
+      <c r="IT239" s="3"/>
+      <c r="IU239" s="3"/>
+      <c r="IV239" s="3"/>
+      <c r="IW239" s="3"/>
+      <c r="IX239" s="3"/>
+      <c r="IY239" s="3"/>
+      <c r="IZ239" s="3"/>
+      <c r="JA239" s="3"/>
+      <c r="JB239" s="3"/>
+      <c r="JC239" s="3"/>
+      <c r="JD239" s="3"/>
+      <c r="JE239" s="3"/>
+    </row>
+    <row r="240" spans="43:380" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="IS240" s="3"/>
+      <c r="IT240" s="3"/>
+      <c r="IU240" s="3"/>
+      <c r="IV240" s="3"/>
+      <c r="IW240" s="3"/>
+      <c r="IX240" s="3"/>
+      <c r="IY240" s="3"/>
+      <c r="IZ240" s="3"/>
+      <c r="JA240" s="3"/>
+      <c r="JB240" s="3"/>
+      <c r="JC240" s="3"/>
+      <c r="JD240" s="3"/>
+      <c r="JE240" s="3"/>
+    </row>
+    <row r="241" spans="253:265" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="IS241" s="3"/>
+      <c r="IT241" s="3"/>
+      <c r="IU241" s="3"/>
+      <c r="IV241" s="3"/>
+      <c r="IW241" s="3"/>
+      <c r="IX241" s="3"/>
+      <c r="IY241" s="3"/>
+      <c r="IZ241" s="3"/>
+      <c r="JA241" s="3"/>
+      <c r="JB241" s="3"/>
+      <c r="JC241" s="3"/>
+      <c r="JD241" s="3"/>
+      <c r="JE241" s="3"/>
+    </row>
+    <row r="242" spans="253:265" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="IS242" s="3"/>
+      <c r="IT242" s="3"/>
+      <c r="IU242" s="3"/>
+      <c r="IV242" s="3"/>
+      <c r="IW242" s="3"/>
+      <c r="IX242" s="3"/>
+      <c r="IY242" s="3"/>
+      <c r="IZ242" s="3"/>
+      <c r="JA242" s="3"/>
+      <c r="JB242" s="3"/>
+      <c r="JC242" s="3"/>
+      <c r="JD242" s="3"/>
+      <c r="JE242" s="3"/>
+    </row>
+    <row r="243" spans="253:265" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="IS243" s="3"/>
+      <c r="IT243" s="3"/>
+      <c r="IU243" s="3"/>
+      <c r="IV243" s="3"/>
+      <c r="IW243" s="3"/>
+      <c r="IX243" s="3"/>
+      <c r="IY243" s="3"/>
+      <c r="IZ243" s="3"/>
+      <c r="JA243" s="3"/>
+      <c r="JB243" s="3"/>
+      <c r="JC243" s="3"/>
+      <c r="JD243" s="3"/>
+      <c r="JE243" s="3"/>
+    </row>
+    <row r="244" spans="253:265" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="IS244" s="3"/>
+      <c r="IT244" s="3"/>
+      <c r="IU244" s="3"/>
+      <c r="IV244" s="3"/>
+      <c r="IW244" s="3"/>
+      <c r="IX244" s="3"/>
+      <c r="IY244" s="3"/>
+      <c r="IZ244" s="3"/>
+      <c r="JA244" s="3"/>
+      <c r="JB244" s="3"/>
+      <c r="JC244" s="3"/>
+      <c r="JD244" s="3"/>
+      <c r="JE244" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
